--- a/Dysarthic Speaker (Data Augmentation).xlsx
+++ b/Dysarthic Speaker (Data Augmentation).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6A983B-C23D-48E0-8FA3-F78EBB25CB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE184C4-B892-4C95-9BB9-8EF99AAB2FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
   </bookViews>
@@ -17,9 +17,6 @@
     <sheet name="Data Aug Details" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Intelligibility</t>
   </si>
@@ -157,7 +154,10 @@
     <t>Augmented_F05_TE</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f6040058b20&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f00fc49c9d0&gt;</t>
+  </si>
+  <si>
+    <t>M08</t>
   </si>
 </sst>
 </file>
@@ -655,9 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -667,16 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -685,17 +674,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -703,7 +686,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -715,22 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -739,10 +719,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -751,11 +731,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,142 +867,142 @@
                   <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.8125</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.375</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.6875</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.375</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.5</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85.9375</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95.3125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="30">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>79.6875</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="32">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="34">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>71.875</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="36">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>87.5</c:v>
@@ -1007,154 +1011,154 @@
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>87.5</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>85.9375</c:v>
+                  <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>85.9375</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>85.9375</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,6 +2008,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2268448</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E126A89-7641-CF87-DFFE-494CBBC7FA00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781551" y="2124076"/>
+          <a:ext cx="2263685" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2084387</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F86203-2D7E-E2DF-2495-865A9EF972BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628901" y="2043114"/>
+          <a:ext cx="2012949" cy="1509712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2046,557 +2144,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Combined Table"/>
-      <sheetName val="M04"/>
-      <sheetName val="F02"/>
-      <sheetName val="F03"/>
-      <sheetName val="M12"/>
-      <sheetName val="M01"/>
-      <sheetName val="M07"/>
-      <sheetName val="M16"/>
-      <sheetName val="M05"/>
-      <sheetName val="M11"/>
-      <sheetName val="F04"/>
-      <sheetName val="M09"/>
-      <sheetName val="M14"/>
-      <sheetName val="M10"/>
-      <sheetName val="M08"/>
-      <sheetName val="F05"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="O1" t="str">
-            <v>Training Accuracy</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="O2">
-            <v>59.375</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="O3">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="O4">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="O5">
-            <v>76.5625</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="O6">
-            <v>78.125</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="O7">
-            <v>84.375</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="O8">
-            <v>81.25</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="O9">
-            <v>82.8125</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="O10">
-            <v>81.25</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="O11">
-            <v>71.875</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="O12">
-            <v>78.125</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="O13">
-            <v>81.25</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="O14">
-            <v>81.25</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="O15">
-            <v>79.6875</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="O16">
-            <v>84.375</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="O17">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="O18">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="O19">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="O20">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="O21">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="O22">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="O23">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="O24">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="O25">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="O26">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="O27">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="O28">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="O29">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="O30">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="O31">
-            <v>89.0625</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="O32">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="O33">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="O34">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="O35">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="O36">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="O37">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="O38">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="O39">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="O40">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="O41">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="O42">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="O43">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="O44">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="O45">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="O46">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="O47">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="O48">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="O49">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="O50">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="O51">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="O52">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="O53">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="O54">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="O55">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="O56">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="O57">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="O58">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="O59">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="O60">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="O61">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="O62">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="O63">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="O64">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="O65">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="O66">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="O67">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="O68">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="O69">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="O70">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="O71">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="O72">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="O73">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="O74">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="O75">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="O76">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="O77">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="O78">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="O79">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="O80">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="O81">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="O82">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="O83">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="O84">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="O85">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="O86">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="O87">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="O88">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="O89">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="O90">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="O91">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="O92">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="O93">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="O94">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="O95">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="O96">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="O97">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="O98">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="O99">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="O100">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="O101">
-            <v>85.9375</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2898,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368169AB-26AB-4A58-844A-57BD7F02F01B}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="60" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131:E139"/>
+    <sheetView topLeftCell="A111" zoomScale="60" workbookViewId="0">
+      <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2929,1183 +2476,1140 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="14">
         <v>10.94</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="16">
         <v>7</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="25"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="25"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="25"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="25"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="25"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="25"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="25"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="19">
         <v>32.47</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="20">
         <f>100-71</f>
         <v>29</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="8"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="25"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="9"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="25"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="9"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="25"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="9"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="25"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="9"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="25"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="9"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="25"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="9"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="9"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="25"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="10"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="25"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="19">
         <v>40.65</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="20">
         <v>19</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="8"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="25"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="9"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="25"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="9"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="25"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="9"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="25"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="9"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="25"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="9"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="25"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="9"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="25"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="9"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="25"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="10"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="25"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="19">
         <v>28.39</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="20">
         <v>28</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="8"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="25"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="11"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="9"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="25"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="11"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="9"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="25"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="11"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="9"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="25"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="11"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="9"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="25"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="11"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="9"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="25"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="11"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="9"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="25"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="11"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="9"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="25"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="12"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="10"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="7">
+      <c r="B38" s="22"/>
+      <c r="C38" s="41">
         <f xml:space="preserve"> SUM(C2:C37)/4</f>
         <v>28.112500000000001</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="41">
         <f xml:space="preserve"> SUM(D2:D37)/4</f>
         <v>20.75</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="14">
         <v>69.459999999999994</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="16">
         <v>53</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="27"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="11"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="27"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="11"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="27"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="11"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="27"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="11"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="27"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="11"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="27"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="11"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="27"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="11"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="27"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="12"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="27"/>
-      <c r="B48" s="16" t="s">
+      <c r="A48" s="24"/>
+      <c r="B48" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="19">
         <v>67.02</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="20">
         <v>52</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="27"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="11"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="9"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="27"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="11"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="9"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="27"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="11"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="27"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="11"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="27"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="11"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="27"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="11"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="27"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="11"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="27"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="12"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="27"/>
-      <c r="B57" s="16" t="s">
+      <c r="A57" s="24"/>
+      <c r="B57" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="19">
         <v>55.91</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="20">
         <v>57</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="27"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="11"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="27"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="11"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="27"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="11"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="9"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="27"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="11"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="9"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="27"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="11"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="9"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="27"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="11"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="27"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="11"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="28"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="12"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="7">
+      <c r="B66" s="22"/>
+      <c r="C66" s="41">
         <f>SUM(C39:C65)/3</f>
         <v>64.13</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="41">
         <f>SUM(D39:D65)/3</f>
         <v>54</v>
       </c>
-      <c r="E66" s="8"/>
+      <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="14">
         <v>64.95</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="16">
         <v>55</v>
       </c>
-      <c r="E67" s="10"/>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="25"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="11"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="9"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="25"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="11"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="25"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="11"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="9"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="25"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="11"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="25"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="11"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="9"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="25"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="11"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="25"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="11"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="9"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="25"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="12"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="10"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="25"/>
-      <c r="B76" s="16" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C76" s="19">
         <v>49.68</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="20">
         <v>51</v>
       </c>
-      <c r="E76" s="10"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="25"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="11"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="25"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="11"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="9"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="25"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="11"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="25"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="11"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="25"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="11"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="25"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="11"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="9"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="25"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="11"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="25"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="12"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="10"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="25"/>
-      <c r="B85" s="16" t="s">
+      <c r="A85" s="11"/>
+      <c r="B85" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C85" s="19">
         <v>53.98</v>
       </c>
-      <c r="D85" s="22">
+      <c r="D85" s="20">
         <v>64</v>
       </c>
-      <c r="E85" s="10"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="25"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="11"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="25"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="11"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="9"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="25"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="11"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="9"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="25"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="11"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="9"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="25"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="11"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="9"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="25"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="11"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="9"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="25"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="11"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="9"/>
     </row>
     <row r="93" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="25"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="12"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="10"/>
     </row>
     <row r="94" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="7">
+      <c r="B94" s="22"/>
+      <c r="C94" s="41">
         <f>SUM(C67:C93)/3</f>
         <v>56.203333333333326</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="41">
         <f>SUM(D67:D93)/3</f>
         <v>56.666666666666664</v>
       </c>
-      <c r="E94" s="8"/>
+      <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="14">
         <v>85.16</v>
       </c>
-      <c r="D95" s="23">
+      <c r="D95" s="16">
         <v>82</v>
       </c>
-      <c r="E95" s="10"/>
+      <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="25"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="11"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="9"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="25"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="11"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="9"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="25"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="11"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="9"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="25"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="11"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="25"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="11"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="9"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="25"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="11"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="25"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="11"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="9"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="25"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="12"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="10"/>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="25"/>
-      <c r="B104" s="16" t="s">
+      <c r="A104" s="11"/>
+      <c r="B104" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C104" s="19">
         <v>86.45</v>
       </c>
-      <c r="D104" s="22">
+      <c r="D104" s="20">
         <v>82</v>
       </c>
-      <c r="E104" s="10"/>
+      <c r="E104" s="8"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="25"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="11"/>
+      <c r="A105" s="11"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="25"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="11"/>
+      <c r="A106" s="11"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="9"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="25"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="11"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="25"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="11"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="9"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="25"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="11"/>
+      <c r="A109" s="11"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="25"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="11"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="9"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="25"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="11"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="9"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="25"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="12"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="10"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="25"/>
-      <c r="B113" s="16" t="s">
+      <c r="A113" s="11"/>
+      <c r="B113" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C113" s="19">
         <v>89.68</v>
       </c>
-      <c r="D113" s="22">
+      <c r="D113" s="20">
         <v>92</v>
       </c>
-      <c r="E113" s="10"/>
+      <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="25"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="11"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="9"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115" s="25"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="11"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="9"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116" s="25"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="11"/>
+      <c r="A116" s="11"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="9"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117" s="25"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="11"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="9"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118" s="25"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="11"/>
+      <c r="A118" s="11"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="9"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="25"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="11"/>
+      <c r="A119" s="11"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="9"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120" s="25"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="11"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="9"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121" s="25"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="12"/>
+      <c r="A121" s="11"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="10"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122" s="25"/>
-      <c r="B122" s="16" t="s">
+      <c r="A122" s="11"/>
+      <c r="B122" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C122" s="19">
         <v>86.67</v>
       </c>
-      <c r="D122" s="22">
+      <c r="D122" s="20">
         <v>84</v>
       </c>
-      <c r="E122" s="10"/>
+      <c r="E122" s="8"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123" s="25"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="11"/>
+      <c r="A123" s="11"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="9"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" s="25"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="11"/>
+      <c r="A124" s="11"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="9"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A125" s="25"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="11"/>
+      <c r="A125" s="11"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="9"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126" s="25"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="11"/>
+      <c r="A126" s="11"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="9"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127" s="25"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="11"/>
+      <c r="A127" s="11"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="9"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A128" s="25"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="11"/>
+      <c r="A128" s="11"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="9"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A129" s="25"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="11"/>
+      <c r="A129" s="11"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="9"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A130" s="25"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="12"/>
+      <c r="A130" s="11"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="10"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A131" s="25"/>
-      <c r="B131" s="16" t="s">
+      <c r="A131" s="11"/>
+      <c r="B131" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C131" s="19">
         <v>94.41</v>
       </c>
-      <c r="D131" s="22">
+      <c r="D131" s="20">
         <v>91</v>
       </c>
-      <c r="E131" s="10"/>
+      <c r="E131" s="8">
+        <v>93</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A132" s="25"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="11"/>
+      <c r="A132" s="11"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="9"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133" s="25"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="11"/>
+      <c r="A133" s="11"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="9"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" s="25"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="11"/>
+      <c r="A134" s="11"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="9"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" s="25"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="11"/>
+      <c r="A135" s="11"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="9"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" s="25"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="11"/>
+      <c r="A136" s="11"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="9"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137" s="25"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="11"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="9"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138" s="25"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="11"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="9"/>
     </row>
     <row r="139" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="25"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="12"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="10"/>
     </row>
     <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="9">
+      <c r="B140" s="22"/>
+      <c r="C140" s="42">
         <f>SUM(C95:C139)/5</f>
         <v>88.474000000000004</v>
       </c>
-      <c r="D140" s="7">
+      <c r="D140" s="41">
         <f xml:space="preserve"> SUM(D95:D139)/5</f>
         <v>86.2</v>
       </c>
-      <c r="E140" s="8"/>
+      <c r="E140" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="A39:A65"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="C76:C84"/>
-    <mergeCell ref="D76:D84"/>
-    <mergeCell ref="E76:E84"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:A93"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="A95:A139"/>
-    <mergeCell ref="B95:B103"/>
-    <mergeCell ref="C95:C103"/>
-    <mergeCell ref="D95:D103"/>
-    <mergeCell ref="E95:E103"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="C104:C112"/>
     <mergeCell ref="A140:B140"/>
     <mergeCell ref="E85:E93"/>
     <mergeCell ref="E67:E75"/>
@@ -4122,15 +3626,61 @@
     <mergeCell ref="C113:C121"/>
     <mergeCell ref="D113:D121"/>
     <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:A139"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="D95:D103"/>
+    <mergeCell ref="E95:E103"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="C104:C112"/>
     <mergeCell ref="E122:E130"/>
     <mergeCell ref="E131:E139"/>
-    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="E104:E112"/>
+    <mergeCell ref="E113:E121"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="D76:D84"/>
+    <mergeCell ref="E76:E84"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:A93"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="A39:A65"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
     <mergeCell ref="E39:E47"/>
     <mergeCell ref="E48:E56"/>
-    <mergeCell ref="E104:E112"/>
-    <mergeCell ref="E113:E121"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="E29:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4139,7 +3689,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C20"/>
+      <selection activeCell="C21" sqref="C21:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4152,43 +3702,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="40"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="42"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16">
         <f>100-7</f>
         <v>93</v>
       </c>
@@ -4197,304 +3747,302 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="35"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="35"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="35"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="35"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="35"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="35"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="35"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="35"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="35"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="30"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16">
+        <f>100-7</f>
+        <v>93</v>
+      </c>
+      <c r="F12" s="30">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="35"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="35"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="35"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="35"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="35"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="35"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="35"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="36"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="31"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
+      <c r="A21" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="35"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="35"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="35"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="35"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="35"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="35"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="35"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="35"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="35"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="35"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="35"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="35"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="35"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="35"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="35"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="35"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="36"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
-      <c r="F38" s="31"/>
+      <c r="F38" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="F3:F11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="E12:E20"/>
+    <mergeCell ref="F12:F20"/>
+    <mergeCell ref="F21:F29"/>
     <mergeCell ref="A21:A38"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="C21:C29"/>
@@ -4504,12 +4052,19 @@
     <mergeCell ref="C30:C38"/>
     <mergeCell ref="D30:D38"/>
     <mergeCell ref="E30:E38"/>
-    <mergeCell ref="F30:F38"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="E12:E20"/>
-    <mergeCell ref="F12:F20"/>
-    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4521,7 +4076,7 @@
   <dimension ref="L1:O120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O101" sqref="O1:O101"/>
+      <selection activeCell="M2" sqref="L2:M118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4568,7 +4123,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.171875</v>
+        <v>0.203125</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -4576,7 +4131,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -4584,7 +4139,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -4592,7 +4147,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -4616,7 +4171,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.203125</v>
+        <v>0.15625</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -4624,7 +4179,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -4632,7 +4187,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -4640,7 +4195,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -4648,7 +4203,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -4656,7 +4211,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -4664,7 +4219,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -4672,7 +4227,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -4696,7 +4251,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -4704,7 +4259,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -4712,7 +4267,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.15625</v>
+        <v>0.109375</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -4720,7 +4275,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -4728,7 +4283,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.140625</v>
+        <v>0.375</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -4736,7 +4291,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -4760,7 +4315,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -4768,7 +4323,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -4776,7 +4331,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.203125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -4784,7 +4339,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -4792,7 +4347,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.109375</v>
+        <v>0.171875</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -4800,7 +4355,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -4808,7 +4363,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.109375</v>
+        <v>0.3125</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -4816,7 +4371,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -4824,7 +4379,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -4832,7 +4387,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -4840,7 +4395,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.28125</v>
+        <v>0.109375</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -4848,7 +4403,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>71.875</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -4856,7 +4411,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -4864,7 +4419,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -4872,7 +4427,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.15625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -4880,7 +4435,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -4888,7 +4443,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -4896,7 +4451,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -4904,7 +4459,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.109375</v>
+        <v>0.15625</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -4912,7 +4467,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -4920,7 +4475,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -4928,7 +4483,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -4936,7 +4491,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.125</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -4944,7 +4499,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>95.3125</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -4952,7 +4507,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -4960,7 +4515,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -4968,7 +4523,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -4976,7 +4531,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -4984,7 +4539,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -4992,7 +4547,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -5000,7 +4555,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5008,7 +4563,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -5016,7 +4571,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -5024,7 +4579,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -5032,7 +4587,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.125</v>
+        <v>0.203125</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -5040,7 +4595,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -5048,7 +4603,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -5056,7 +4611,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -5064,7 +4619,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -5072,7 +4627,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -5080,7 +4635,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -5088,7 +4643,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -5096,7 +4651,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -5104,7 +4659,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -5112,7 +4667,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -5120,7 +4675,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -5128,7 +4683,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -5136,7 +4691,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -5144,7 +4699,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -5152,7 +4707,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -5160,7 +4715,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -5168,7 +4723,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -5176,7 +4731,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -5184,7 +4739,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -5192,7 +4747,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -5200,7 +4755,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -5208,7 +4763,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -5216,7 +4771,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -5224,7 +4779,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -5232,7 +4787,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -5240,7 +4795,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -5248,7 +4803,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -5256,7 +4811,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -5264,7 +4819,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -5272,7 +4827,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -5280,7 +4835,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -5288,7 +4843,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -5296,7 +4851,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -5336,7 +4891,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -5344,7 +4899,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -5352,7 +4907,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -5360,7 +4915,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -5368,7 +4923,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -5376,7 +4931,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -5384,7 +4939,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -5392,7 +4947,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -5400,7 +4955,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -5408,7 +4963,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -5416,7 +4971,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -5424,7 +4979,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -5432,7 +4987,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -5440,7 +4995,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -5448,7 +5003,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -5456,7 +5011,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -5464,7 +5019,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -5472,7 +5027,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -5480,7 +5035,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -5488,7 +5043,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -5496,7 +5051,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -5504,7 +5059,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -5512,7 +5067,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -5520,7 +5075,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -5528,7 +5083,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -5536,7 +5091,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -5544,7 +5099,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -5552,7 +5107,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -5560,7 +5115,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -5568,7 +5123,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -5576,7 +5131,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -5584,7 +5139,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -5592,7 +5147,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -5600,7 +5155,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -5608,7 +5163,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -5616,7 +5171,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -5624,7 +5179,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -5632,7 +5187,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -5640,7 +5195,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -5648,7 +5203,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -5656,7 +5211,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.140625</v>
+        <v>0.234375</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -5664,7 +5219,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -5672,7 +5227,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -5680,7 +5235,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -5688,7 +5243,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -5696,7 +5251,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -5704,7 +5259,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -5712,7 +5267,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -5720,7 +5275,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -5728,7 +5283,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -5736,7 +5291,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -5744,7 +5299,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -5752,7 +5307,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -5760,7 +5315,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -5768,7 +5323,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -5776,7 +5331,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -5784,7 +5339,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -5792,7 +5347,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -5800,7 +5355,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -5808,7 +5363,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -5816,7 +5371,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -5824,7 +5379,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -5832,7 +5387,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -5840,7 +5395,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -5848,7 +5403,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -5856,7 +5411,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -5864,7 +5419,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -5872,7 +5427,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -5880,7 +5435,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -5888,7 +5443,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -5896,7 +5451,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -5904,7 +5459,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -5912,7 +5467,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -5920,7 +5475,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -5928,7 +5483,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -5936,7 +5491,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -5944,7 +5499,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -5952,7 +5507,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -5960,7 +5515,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -5968,7 +5523,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -5976,7 +5531,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -5984,7 +5539,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -5992,7 +5547,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -6000,7 +5555,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -6008,7 +5563,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -6016,7 +5571,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -6024,7 +5579,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -6032,7 +5587,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -6040,7 +5595,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -6048,7 +5603,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -6056,7 +5611,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -6064,7 +5619,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -6072,7 +5627,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -6080,7 +5635,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -6088,7 +5643,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -6096,7 +5651,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -6104,7 +5659,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -6112,7 +5667,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -6120,7 +5675,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -6128,7 +5683,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -6136,7 +5691,7 @@
         <v>38</v>
       </c>
       <c r="M102">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -6144,7 +5699,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -6152,7 +5707,7 @@
         <v>38</v>
       </c>
       <c r="M103">
-        <v>4.6875E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -6160,7 +5715,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>95.3125</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -6168,7 +5723,7 @@
         <v>38</v>
       </c>
       <c r="M104">
-        <v>4.6875E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -6176,7 +5731,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>95.3125</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -6184,7 +5739,7 @@
         <v>38</v>
       </c>
       <c r="M105">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -6192,7 +5747,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -6200,7 +5755,7 @@
         <v>38</v>
       </c>
       <c r="M106">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -6208,7 +5763,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -6248,7 +5803,7 @@
         <v>38</v>
       </c>
       <c r="M109">
-        <v>4.6875E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -6256,7 +5811,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>95.3125</v>
+        <v>96.875</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -6264,7 +5819,7 @@
         <v>38</v>
       </c>
       <c r="M110">
-        <v>9.375E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -6272,7 +5827,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -6296,7 +5851,7 @@
         <v>38</v>
       </c>
       <c r="M112">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -6304,7 +5859,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -6312,7 +5867,7 @@
         <v>38</v>
       </c>
       <c r="M113">
-        <v>4.6875E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -6320,7 +5875,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>95.3125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
@@ -6360,7 +5915,7 @@
         <v>38</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -6368,7 +5923,7 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>98.4375</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
@@ -6376,7 +5931,7 @@
         <v>38</v>
       </c>
       <c r="M117">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -6384,7 +5939,7 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
@@ -6392,7 +5947,7 @@
         <v>38</v>
       </c>
       <c r="M118">
-        <v>3.2786885245901641E-2</v>
+        <v>6.5573770491803282E-2</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -6400,7 +5955,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>96.721311475409834</v>
+        <v>93.442622950819683</v>
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthic Speaker (Data Augmentation).xlsx
+++ b/Dysarthic Speaker (Data Augmentation).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE184C4-B892-4C95-9BB9-8EF99AAB2FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8397B640-6BA1-4D5D-8E3B-CD3A02265B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Intelligibility</t>
   </si>
@@ -154,10 +154,43 @@
     <t>Augmented_F05_TE</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f00fc49c9d0&gt;</t>
+    <t>M08</t>
   </si>
   <si>
-    <t>M08</t>
+    <t>Augmented_M08_T3+D123</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M09</t>
+  </si>
+  <si>
+    <t>Augmented_M08_T3+D12</t>
+  </si>
+  <si>
+    <t>Augmented_M10_T3+D1</t>
+  </si>
+  <si>
+    <t>Augmented_M10_E1</t>
+  </si>
+  <si>
+    <t>Augmented_M14_D3</t>
+  </si>
+  <si>
+    <t>Augmented_M14_T3+D1</t>
+  </si>
+  <si>
+    <t>Augmented_M09_D3</t>
+  </si>
+  <si>
+    <t>Augmented_M09_TE</t>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7ff7b862b9d0&gt;</t>
   </si>
 </sst>
 </file>
@@ -656,6 +689,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,53 +752,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,250 +894,250 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>62.5</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>79.6875</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>79.6875</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90.625</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>89.0625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>62.5</c:v>
+                  <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90.625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>92.1875</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>90.625</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>92.1875</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>92.1875</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>95.3125</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>93.75</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>79.6875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>92.1875</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>90.625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>89.0625</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>92.1875</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>90.625</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>90.625</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>90.625</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>90.625</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>90.625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>92.1875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>92.1875</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>92.1875</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>92.1875</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>92.1875</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>92.1875</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>76.5625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>92.1875</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>90.625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>90.625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>90.625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>90.625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>90.625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>90.625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>90.625</c:v>
@@ -2102,6 +2135,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17639</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>164630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2212582</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC07293-EE22-2185-8973-43AF5B866999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791898" y="3821760"/>
+          <a:ext cx="2194943" cy="1287639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>82315</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2136266</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>135231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D77A005-F842-28B6-67CC-C7C5737EA58D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2639955" y="3710046"/>
+          <a:ext cx="2053951" cy="1540463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2445,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368169AB-26AB-4A58-844A-57BD7F02F01B}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="60" workbookViewId="0">
-      <selection activeCell="I150" sqref="I150"/>
+    <sheetView zoomScale="60" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2476,1133 +2603,1133 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="16">
         <v>10.94</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="18">
         <v>7</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="9"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="9"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="21">
         <v>32.47</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="22">
         <f>100-71</f>
         <v>29</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="10"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="11"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="11"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="11"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="11"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="9"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="11"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="9"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="11"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="9"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="11"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="10"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="12"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="11"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="21">
         <v>40.65</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="22">
         <v>19</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="10"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="9"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="11"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="11"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="9"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="11"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="9"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="11"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="9"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="11"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="11"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="11"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="11"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="10"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="12"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="11"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="21">
         <v>28.39</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="22">
         <v>28</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="10"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="9"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="11"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="9"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="11"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="9"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="11"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="9"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="11"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="9"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="11"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="9"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="11"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="9"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="11"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="10"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="12"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="41">
+      <c r="B38" s="24"/>
+      <c r="C38" s="8">
         <f xml:space="preserve"> SUM(C2:C37)/4</f>
         <v>28.112500000000001</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="8">
         <f xml:space="preserve"> SUM(D2:D37)/4</f>
         <v>20.75</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="16">
         <v>69.459999999999994</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="18">
         <v>53</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="24"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="9"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="24"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="9"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="24"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="9"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="24"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="9"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="24"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="9"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="24"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="9"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="24"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="9"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="24"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="10"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="24"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="21">
         <v>67.02</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="22">
         <v>52</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="24"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="9"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="24"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="9"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="24"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="9"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="24"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="9"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="24"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="9"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="24"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="9"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="24"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="9"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="24"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="10"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="24"/>
-      <c r="B57" s="18" t="s">
+      <c r="A57" s="26"/>
+      <c r="B57" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="21">
         <v>55.91</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="22">
         <v>57</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="24"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="9"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="24"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="9"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="24"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="9"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="24"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="9"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="24"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="9"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="24"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="9"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="24"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="9"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="25"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="10"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="41">
+      <c r="B66" s="24"/>
+      <c r="C66" s="8">
         <f>SUM(C39:C65)/3</f>
         <v>64.13</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="8">
         <f>SUM(D39:D65)/3</f>
         <v>54</v>
       </c>
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="16">
         <v>64.95</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="18">
         <v>55</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="9"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="9"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="9"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="9"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="9"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="9"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="9"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="11"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="10"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="11"/>
-      <c r="B76" s="18" t="s">
+      <c r="A76" s="13"/>
+      <c r="B76" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="21">
         <v>49.68</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D76" s="22">
         <v>51</v>
       </c>
-      <c r="E76" s="8"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="9"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="9"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="9"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="9"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="9"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="9"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="9"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="11"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="10"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="11"/>
-      <c r="B85" s="18" t="s">
+      <c r="A85" s="13"/>
+      <c r="B85" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C85" s="21">
         <v>53.98</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D85" s="22">
         <v>64</v>
       </c>
-      <c r="E85" s="8"/>
+      <c r="E85" s="10"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="11"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="9"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="11"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="9"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="9"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="11"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="9"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="9"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="9"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="9"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="10"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="41">
+      <c r="B94" s="24"/>
+      <c r="C94" s="8">
         <f>SUM(C67:C93)/3</f>
         <v>56.203333333333326</v>
       </c>
-      <c r="D94" s="41">
+      <c r="D94" s="8">
         <f>SUM(D67:D93)/3</f>
         <v>56.666666666666664</v>
       </c>
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="14">
+      <c r="C95" s="16">
         <v>85.16</v>
       </c>
-      <c r="D95" s="16">
+      <c r="D95" s="18">
         <v>82</v>
       </c>
-      <c r="E95" s="8"/>
+      <c r="E95" s="10"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="9"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="9"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="9"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="9"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="9"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="9"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="9"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="11"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="10"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="12"/>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="11"/>
-      <c r="B104" s="18" t="s">
+      <c r="A104" s="13"/>
+      <c r="B104" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="19">
+      <c r="C104" s="21">
         <v>86.45</v>
       </c>
-      <c r="D104" s="20">
+      <c r="D104" s="22">
         <v>82</v>
       </c>
-      <c r="E104" s="8"/>
+      <c r="E104" s="10"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="11"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="9"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="11"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="9"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="11"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="9"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="11"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="9"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="11"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="9"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="11"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="11"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="9"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="11"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="9"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="11"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="11"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="10"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="11"/>
-      <c r="B113" s="18" t="s">
+      <c r="A113" s="13"/>
+      <c r="B113" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="19">
+      <c r="C113" s="21">
         <v>89.68</v>
       </c>
-      <c r="D113" s="20">
+      <c r="D113" s="22">
         <v>92</v>
       </c>
-      <c r="E113" s="8"/>
+      <c r="E113" s="10"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="11"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="9"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="11"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="9"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="11"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116" s="11"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="9"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="11"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117" s="11"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="9"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="11"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118" s="11"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="9"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="11"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="11"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="9"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="11"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120" s="11"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="9"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="11"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121" s="11"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="10"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="12"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122" s="11"/>
-      <c r="B122" s="18" t="s">
+      <c r="A122" s="13"/>
+      <c r="B122" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="19">
+      <c r="C122" s="21">
         <v>86.67</v>
       </c>
-      <c r="D122" s="20">
+      <c r="D122" s="22">
         <v>84</v>
       </c>
-      <c r="E122" s="8"/>
+      <c r="E122" s="10"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123" s="11"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="9"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="11"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" s="11"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="9"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="11"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A125" s="11"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="9"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="11"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126" s="11"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="9"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="11"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127" s="11"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="9"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="11"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A128" s="11"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="9"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="11"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A129" s="11"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="9"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="11"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A130" s="11"/>
-      <c r="B130" s="13"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="10"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="12"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A131" s="11"/>
-      <c r="B131" s="18" t="s">
+      <c r="A131" s="13"/>
+      <c r="B131" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="19">
+      <c r="C131" s="21">
         <v>94.41</v>
       </c>
-      <c r="D131" s="20">
+      <c r="D131" s="22">
         <v>91</v>
       </c>
-      <c r="E131" s="8">
+      <c r="E131" s="10">
         <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A132" s="11"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="9"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="11"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133" s="11"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="9"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="11"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" s="11"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="9"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="11"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" s="11"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="9"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="11"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" s="11"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="9"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="11"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137" s="11"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="9"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="11"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138" s="11"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="9"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="11"/>
     </row>
     <row r="139" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="11"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="10"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="12"/>
     </row>
     <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="21" t="s">
+      <c r="A140" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B140" s="22"/>
-      <c r="C140" s="42">
+      <c r="B140" s="24"/>
+      <c r="C140" s="9">
         <f>SUM(C95:C139)/5</f>
         <v>88.474000000000004</v>
       </c>
-      <c r="D140" s="41">
+      <c r="D140" s="8">
         <f xml:space="preserve"> SUM(D95:D139)/5</f>
         <v>86.2</v>
       </c>
@@ -3686,10 +3813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E277BC-F87C-4ABA-847E-22FC479E5A03}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3702,122 +3829,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="41" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="32"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="27"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="27"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="27"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="27"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="27"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="27"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="27"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="27"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
         <f>100-7</f>
         <v>93</v>
       </c>
@@ -3826,223 +3953,685 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="27"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="27"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="27"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="27"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="27"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="27"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="27"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="28"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="39"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="40"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
+        <f>100-12</f>
+        <v>88</v>
+      </c>
+      <c r="F21" s="30">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="27"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="27"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="27"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="27"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="27"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="27"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="27"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="27"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="27"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="27"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="27"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="27"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="27"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="27"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="27"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="27"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="39"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="29"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="34"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="34"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="30"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="34"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="34"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="30"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="34"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="34"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="30"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="34"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="34"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="30"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="34"/>
+      <c r="B48" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="30"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="34"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="34"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="30"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="34"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="30"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="34"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="30"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="34"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="30"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="34"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="30"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="34"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="30"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="35"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="32"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="34"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="30"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="34"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="30"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="34"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="34"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="30"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="34"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="34"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="30"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="34"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="30"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="34"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="30"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="34"/>
+      <c r="B66" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="30"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="34"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="30"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="34"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="30"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="34"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="30"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="34"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="30"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="34"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="30"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="34"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="30"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="34"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="30"/>
+    </row>
+    <row r="74" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="35"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="32"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="29"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="34"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="30"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="34"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="30"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="34"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="30"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="34"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="30"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="34"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="30"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="34"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="30"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="34"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="30"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="34"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="30"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="34"/>
+      <c r="B84" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="30"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="34"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="30"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="34"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="30"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="34"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="30"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="34"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="30"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="34"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="30"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="34"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="30"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="34"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="30"/>
+    </row>
+    <row r="92" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A92" s="35"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="61">
     <mergeCell ref="F30:F38"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D12:D20"/>
     <mergeCell ref="E12:E20"/>
     <mergeCell ref="F12:F20"/>
     <mergeCell ref="F21:F29"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="F3:F11"/>
     <mergeCell ref="A21:A38"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="C21:C29"/>
@@ -4052,9 +4641,6 @@
     <mergeCell ref="C30:C38"/>
     <mergeCell ref="D30:D38"/>
     <mergeCell ref="E30:E38"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="F3:F11"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -4065,6 +4651,39 @@
     <mergeCell ref="C12:C20"/>
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="C3:C11"/>
+    <mergeCell ref="A39:A56"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="F39:F47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="F48:F56"/>
+    <mergeCell ref="A57:A74"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="F57:F65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="D66:D74"/>
+    <mergeCell ref="E66:E74"/>
+    <mergeCell ref="F66:F74"/>
+    <mergeCell ref="A75:A92"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="D75:D83"/>
+    <mergeCell ref="E75:E83"/>
+    <mergeCell ref="F75:F83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="C84:C92"/>
+    <mergeCell ref="D84:D92"/>
+    <mergeCell ref="E84:E92"/>
+    <mergeCell ref="F84:F92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4091,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.375</v>
+        <v>0.421875</v>
       </c>
       <c r="N2">
         <f>1+L2</f>
@@ -4099,7 +4718,7 @@
       </c>
       <c r="O2">
         <f>100*(1-M2)</f>
-        <v>62.5</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="3" spans="12:15" x14ac:dyDescent="0.45">
@@ -4107,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.203125</v>
+        <v>0.265625</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -4115,7 +4734,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>79.6875</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -4123,7 +4742,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.203125</v>
+        <v>0.21875</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -4131,7 +4750,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -4139,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -4147,7 +4766,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -4155,7 +4774,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.15625</v>
+        <v>0.234375</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -4163,7 +4782,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -4171,7 +4790,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.15625</v>
+        <v>0.25</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -4179,7 +4798,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -4187,7 +4806,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.125</v>
+        <v>0.203125</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -4195,7 +4814,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -4203,7 +4822,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.171875</v>
+        <v>0.15625</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -4211,7 +4830,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -4219,7 +4838,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -4227,7 +4846,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -4251,7 +4870,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -4259,7 +4878,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -4267,7 +4886,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -4275,7 +4894,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -4283,7 +4902,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.375</v>
+        <v>0.234375</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -4291,7 +4910,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -4299,7 +4918,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -4307,7 +4926,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -4315,7 +4934,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -4323,7 +4942,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -4331,7 +4950,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>7.8125E-2</v>
+        <v>0.203125</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -4339,7 +4958,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -4347,7 +4966,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.171875</v>
+        <v>0.21875</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -4355,7 +4974,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -4363,7 +4982,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.3125</v>
+        <v>0.171875</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -4371,7 +4990,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -4395,7 +5014,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -4403,7 +5022,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -4411,7 +5030,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -4419,7 +5038,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -4427,7 +5046,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -4435,7 +5054,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -4443,7 +5062,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>7.8125E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -4451,7 +5070,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -4459,7 +5078,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -4467,7 +5086,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -4475,7 +5094,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>7.8125E-2</v>
+        <v>0.234375</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -4483,7 +5102,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -4491,7 +5110,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>4.6875E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -4499,7 +5118,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>95.3125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -4507,7 +5126,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>6.25E-2</v>
+        <v>0.234375</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -4515,7 +5134,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>93.75</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -4523,7 +5142,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -4531,7 +5150,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -4539,7 +5158,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -4547,7 +5166,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -4555,7 +5174,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -4563,7 +5182,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -4587,7 +5206,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.203125</v>
+        <v>0.125</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -4595,7 +5214,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -4603,7 +5222,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>7.8125E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -4611,7 +5230,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -4635,7 +5254,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -4643,7 +5262,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -4651,7 +5270,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.109375</v>
+        <v>0.1875</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -4659,7 +5278,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -4667,7 +5286,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>7.8125E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -4675,7 +5294,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -4683,7 +5302,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -4691,7 +5310,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -4699,7 +5318,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>9.375E-2</v>
+        <v>0.203125</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -4707,7 +5326,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -4715,7 +5334,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -4723,7 +5342,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -4731,7 +5350,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -4739,7 +5358,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -4747,7 +5366,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -4755,7 +5374,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -4779,7 +5398,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>7.8125E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -4787,7 +5406,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -4795,7 +5414,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>7.8125E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -4803,7 +5422,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -4811,7 +5430,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>7.8125E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -4819,7 +5438,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -4827,7 +5446,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -4835,7 +5454,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -4859,7 +5478,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -4867,7 +5486,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -4891,7 +5510,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -4899,7 +5518,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -4907,7 +5526,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -4915,7 +5534,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -4923,7 +5542,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -4931,7 +5550,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -4955,7 +5574,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -4963,7 +5582,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -4971,7 +5590,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -4979,7 +5598,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -4987,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -4995,7 +5614,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -5003,7 +5622,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -5011,7 +5630,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -5019,7 +5638,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -5027,7 +5646,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -5035,7 +5654,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -5043,7 +5662,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -5051,7 +5670,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -5059,7 +5678,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -5067,7 +5686,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -5075,7 +5694,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -5083,7 +5702,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -5091,7 +5710,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -5099,7 +5718,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>7.8125E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -5107,7 +5726,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -5115,7 +5734,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>7.8125E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -5123,7 +5742,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -5131,7 +5750,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>7.8125E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -5139,7 +5758,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>92.1875</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -5147,7 +5766,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -5155,7 +5774,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -5179,7 +5798,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -5187,7 +5806,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -5195,7 +5814,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -5203,7 +5822,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -5211,7 +5830,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.234375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -5219,7 +5838,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>76.5625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -5227,7 +5846,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -5235,7 +5854,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -5243,7 +5862,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -5251,7 +5870,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -5259,7 +5878,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -5267,7 +5886,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -5275,7 +5894,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -5283,7 +5902,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -5307,7 +5926,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -5315,7 +5934,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -5323,7 +5942,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -5331,7 +5950,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -5339,7 +5958,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -5347,7 +5966,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -5355,7 +5974,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -5363,7 +5982,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -5371,7 +5990,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -5379,7 +5998,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -5387,7 +6006,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -5395,7 +6014,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -5688,7 +6307,7 @@
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L102" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M102">
         <v>9.375E-2</v>
@@ -5704,10 +6323,10 @@
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L103" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M103">
-        <v>6.25E-2</v>
+        <v>0.21875</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -5715,12 +6334,12 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L104" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M104">
         <v>6.25E-2</v>
@@ -5736,7 +6355,7 @@
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L105" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M105">
         <v>0.125</v>
@@ -5752,10 +6371,10 @@
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L106" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M106">
-        <v>0.109375</v>
+        <v>0.171875</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -5763,15 +6382,15 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L107" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M107">
-        <v>7.8125E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -5779,15 +6398,15 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>95.3125</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L108" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M108">
-        <v>7.8125E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -5795,15 +6414,15 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L109" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M109">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -5811,15 +6430,15 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>96.875</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L110" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M110">
-        <v>6.25E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -5827,15 +6446,15 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L111" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M111">
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -5843,15 +6462,15 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L112" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M112">
-        <v>7.8125E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -5859,15 +6478,15 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>98.4375</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L113" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M113">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -5875,15 +6494,15 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L114" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M114">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -5891,15 +6510,15 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L115" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M115">
-        <v>3.125E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -5907,15 +6526,15 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>96.875</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L116" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M116">
-        <v>1.5625E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -5923,15 +6542,15 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>98.4375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L117" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M117">
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -5939,15 +6558,15 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L118" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M118">
-        <v>6.5573770491803282E-2</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -5955,7 +6574,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>93.442622950819683</v>
+        <v>88.524590163934434</v>
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthic Speaker (Data Augmentation).xlsx
+++ b/Dysarthic Speaker (Data Augmentation).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8397B640-6BA1-4D5D-8E3B-CD3A02265B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68112CE8-7896-4D59-B58A-4371D7FFBF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
   </bookViews>
@@ -190,7 +190,7 @@
     <t>Augmented_M09_TE</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7ff7b862b9d0&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f51e0dfeca0&gt;</t>
   </si>
 </sst>
 </file>
@@ -695,6 +695,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,7 +710,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -713,11 +722,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -725,19 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -749,22 +752,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -773,19 +779,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -793,6 +790,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,298 +900,298 @@
                   <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>78.125</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85.9375</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76.5625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>87.5</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87.5</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>79.6875</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>87.5</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>89.0625</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>84.375</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>85.9375</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>76.5625</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>76.5625</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>87.5</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>89.0625</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>89.0625</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>92.1875</c:v>
+                  <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>81.25</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>84.375</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="50">
                   <c:v>84.375</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="51">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>79.6875</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="59">
                   <c:v>87.5</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>90.625</c:v>
-                </c:pt>
                 <c:pt idx="60">
-                  <c:v>90.625</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>90.625</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="67">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="71">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>90.625</c:v>
-                </c:pt>
                 <c:pt idx="72">
-                  <c:v>90.625</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>90.625</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>90.625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>90.625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>92.1875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>92.1875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92.1875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>92.1875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>92.1875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>92.1875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>90.625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>90.625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>90.625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>90.625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,6 +2229,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>82315</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2110786</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>151399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0897B959-8312-DE19-A8CA-3D4F8FEC8AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2639955" y="5385741"/>
+          <a:ext cx="2028471" cy="1521353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29399</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>315401</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>111714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA4B039-F3C3-CD31-D47B-8EB2B2320BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4803658" y="5321067"/>
+          <a:ext cx="2579058" cy="1546342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2572,7 +2666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368169AB-26AB-4A58-844A-57BD7F02F01B}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView zoomScale="60" workbookViewId="0">
+    <sheetView zoomScale="46" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B19"/>
     </sheetView>
   </sheetViews>
@@ -2603,316 +2697,316 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="20">
         <v>10.94</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="23">
         <v>7</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="13"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>32.47</v>
       </c>
       <c r="D11" s="22">
         <f>100-71</f>
         <v>29</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="12"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="13"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="13"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="13"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="13"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="13"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="13"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="13"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="14"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <v>40.65</v>
       </c>
       <c r="D20" s="22">
         <v>19</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="12"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="13"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="13"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="13"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="13"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="13"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="13"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="13"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="14"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="13"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="19">
         <v>28.39</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="12"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="11"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="13"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="11"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="13"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="11"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="13"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="11"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="13"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="11"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="13"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="11"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="13"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="11"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="13"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="12"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="14"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="8">
         <f xml:space="preserve"> SUM(C2:C37)/4</f>
         <v>28.112500000000001</v>
@@ -2924,219 +3018,219 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="20">
         <v>69.459999999999994</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="23">
         <v>53</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="26"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="11"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="26"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="11"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="26"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="11"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="26"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="11"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="26"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="11"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="26"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="11"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="26"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="11"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="26"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="12"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="26"/>
-      <c r="B48" s="20" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="19">
         <v>67.02</v>
       </c>
       <c r="D48" s="22">
         <v>52</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="26"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="11"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="26"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="11"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="26"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="11"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="26"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="11"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="26"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="11"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="26"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="11"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="26"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="11"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="26"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="12"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="26"/>
-      <c r="B57" s="20" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="19">
         <v>55.91</v>
       </c>
       <c r="D57" s="22">
         <v>57</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="26"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="11"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="26"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="11"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="26"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="11"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="26"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="11"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="26"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="11"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="26"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="11"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="26"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="11"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="27"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="12"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="8">
         <f>SUM(C39:C65)/3</f>
         <v>64.13</v>
@@ -3148,219 +3242,219 @@
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="20">
         <v>64.95</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="23">
         <v>55</v>
       </c>
-      <c r="E67" s="10"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="11"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="11"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="11"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="11"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="11"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="11"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="11"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="13"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="12"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="13"/>
-      <c r="B76" s="20" t="s">
+      <c r="A76" s="25"/>
+      <c r="B76" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="19">
         <v>49.68</v>
       </c>
       <c r="D76" s="22">
         <v>51</v>
       </c>
-      <c r="E76" s="10"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="11"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="13"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="11"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="11"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="11"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="11"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="11"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="11"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="13"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="12"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="13"/>
-      <c r="B85" s="20" t="s">
+      <c r="A85" s="25"/>
+      <c r="B85" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="19">
         <v>53.98</v>
       </c>
       <c r="D85" s="22">
         <v>64</v>
       </c>
-      <c r="E85" s="10"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="13"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="11"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="13"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="11"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="13"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="11"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="13"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="11"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="11"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="13"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="11"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="13"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="11"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="13"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="12"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="14"/>
     </row>
     <row r="94" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="24"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="8">
         <f>SUM(C67:C93)/3</f>
         <v>56.203333333333326</v>
@@ -3372,359 +3466,359 @@
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C95" s="20">
         <v>85.16</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="23">
         <v>82</v>
       </c>
-      <c r="E95" s="10"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="13"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="11"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="13"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="11"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="13"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="11"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="13"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="11"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="13"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="11"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="13"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="11"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="13"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="11"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="13"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="12"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="14"/>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="13"/>
-      <c r="B104" s="20" t="s">
+      <c r="A104" s="25"/>
+      <c r="B104" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="19">
         <v>86.45</v>
       </c>
       <c r="D104" s="22">
         <v>82</v>
       </c>
-      <c r="E104" s="10"/>
+      <c r="E104" s="12"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="13"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="11"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="13"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="11"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="13"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="11"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="13"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="13"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="11"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="13"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="13"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="11"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="13"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="13"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="11"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="13"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="13"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="11"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="13"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="13"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="12"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="14"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="13"/>
-      <c r="B113" s="20" t="s">
+      <c r="A113" s="25"/>
+      <c r="B113" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="19">
         <v>89.68</v>
       </c>
       <c r="D113" s="22">
         <v>92</v>
       </c>
-      <c r="E113" s="10"/>
+      <c r="E113" s="12"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="13"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="11"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115" s="13"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="11"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="13"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116" s="13"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="11"/>
+      <c r="A116" s="25"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="13"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117" s="13"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="11"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118" s="13"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="11"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="13"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="11"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="13"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120" s="13"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="11"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="13"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121" s="13"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="12"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="14"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122" s="13"/>
-      <c r="B122" s="20" t="s">
+      <c r="A122" s="25"/>
+      <c r="B122" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="21">
+      <c r="C122" s="19">
         <v>86.67</v>
       </c>
       <c r="D122" s="22">
         <v>84</v>
       </c>
-      <c r="E122" s="10"/>
+      <c r="E122" s="12"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123" s="13"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="11"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" s="13"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="11"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A125" s="13"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="11"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126" s="13"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="11"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="13"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127" s="13"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="11"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A128" s="13"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="11"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="13"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A129" s="13"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="11"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="13"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A130" s="13"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="12"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="14"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A131" s="13"/>
-      <c r="B131" s="20" t="s">
+      <c r="A131" s="25"/>
+      <c r="B131" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="21">
+      <c r="C131" s="19">
         <v>94.41</v>
       </c>
       <c r="D131" s="22">
         <v>91</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="12">
         <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A132" s="13"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="11"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="13"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133" s="13"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="11"/>
+      <c r="A133" s="25"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="13"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" s="13"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="11"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="13"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" s="13"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="11"/>
+      <c r="A135" s="25"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="13"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" s="13"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="11"/>
+      <c r="A136" s="25"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="13"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137" s="13"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="11"/>
+      <c r="A137" s="25"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138" s="13"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="11"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="13"/>
     </row>
     <row r="139" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="13"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="12"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="14"/>
     </row>
     <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="23" t="s">
+      <c r="A140" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B140" s="24"/>
+      <c r="B140" s="11"/>
       <c r="C140" s="9">
         <f>SUM(C95:C139)/5</f>
         <v>88.474000000000004</v>
@@ -3737,6 +3831,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="A39:A65"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="D76:D84"/>
+    <mergeCell ref="E76:E84"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:A93"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="A95:A139"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="D95:D103"/>
+    <mergeCell ref="E95:E103"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="C104:C112"/>
+    <mergeCell ref="E122:E130"/>
+    <mergeCell ref="E131:E139"/>
+    <mergeCell ref="E104:E112"/>
+    <mergeCell ref="E113:E121"/>
     <mergeCell ref="A140:B140"/>
     <mergeCell ref="E85:E93"/>
     <mergeCell ref="E67:E75"/>
@@ -3753,58 +3899,6 @@
     <mergeCell ref="C113:C121"/>
     <mergeCell ref="D113:D121"/>
     <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:A139"/>
-    <mergeCell ref="B95:B103"/>
-    <mergeCell ref="C95:C103"/>
-    <mergeCell ref="D95:D103"/>
-    <mergeCell ref="E95:E103"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="C104:C112"/>
-    <mergeCell ref="E122:E130"/>
-    <mergeCell ref="E131:E139"/>
-    <mergeCell ref="E104:E112"/>
-    <mergeCell ref="E113:E121"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="C76:C84"/>
-    <mergeCell ref="D76:D84"/>
-    <mergeCell ref="E76:E84"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:A93"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="A39:A65"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E29:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3815,8 +3909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E277BC-F87C-4ABA-847E-22FC479E5A03}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="81" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3829,800 +3923,857 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="42"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="34"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="34"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="30"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="34"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="30"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="34"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="30"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="34"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="34"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="30"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="34"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="30"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="34"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="34"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="34"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="30"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="34"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="30"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="34"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="30"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="34"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="34"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="30"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="34"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="30"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="34"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="30"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="35"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23">
         <f>100-12</f>
         <v>88</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="34"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="30"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="34"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="30"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="34"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="30"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="34"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="30"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="34"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="30"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="34"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="30"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="34"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="30"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="34"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="30"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="34"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="30"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23">
+        <f>100-12</f>
+        <v>88</v>
+      </c>
+      <c r="F30" s="29">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="34"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="30"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="34"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="30"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="34"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="30"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="29"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="34"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="30"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="34"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="30"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="29"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="34"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="30"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="34"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="30"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="35"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="29"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="34"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="30"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="34"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="30"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="34"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="30"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="34"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="30"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="34"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="30"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="34"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="30"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="34"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="30"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="34"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="30"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="34"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="36"/>
+      <c r="B48" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="30"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="34"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="30"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="34"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="30"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="34"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="30"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="34"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="30"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="34"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="30"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="29"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="34"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="30"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="29"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="34"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="30"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="29"/>
     </row>
     <row r="56" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="35"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="32"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="29"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="34"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="30"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="29"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="34"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="30"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="29"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="34"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="30"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="34"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="30"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="34"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="30"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="34"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="30"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="34"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="30"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="34"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="30"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="34"/>
-      <c r="B66" s="18" t="s">
+      <c r="A66" s="36"/>
+      <c r="B66" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="30"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="34"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="30"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="34"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="30"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="34"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="30"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="34"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="30"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="29"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="34"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="30"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="29"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="34"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="30"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="29"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="34"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="30"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="29"/>
     </row>
     <row r="74" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="35"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="32"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="30"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="29"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="35"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="34"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="30"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="29"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="34"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="30"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="29"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="34"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="30"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="34"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="30"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="34"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="30"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="34"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="30"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="34"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="30"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="34"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="30"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="34"/>
-      <c r="B84" s="18" t="s">
+      <c r="A84" s="36"/>
+      <c r="B84" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="30"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="29"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="34"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="30"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="29"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="34"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="30"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="29"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="34"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="30"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="29"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="34"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="30"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="29"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="34"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="30"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="29"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="34"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="30"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="29"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="34"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="30"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="29"/>
     </row>
     <row r="92" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="35"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="32"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="F75:F83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="C84:C92"/>
+    <mergeCell ref="D84:D92"/>
+    <mergeCell ref="E84:E92"/>
+    <mergeCell ref="F84:F92"/>
+    <mergeCell ref="A75:A92"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="D75:D83"/>
+    <mergeCell ref="E75:E83"/>
+    <mergeCell ref="F57:F65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="D66:D74"/>
+    <mergeCell ref="E66:E74"/>
+    <mergeCell ref="F66:F74"/>
+    <mergeCell ref="A57:A74"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="F39:F47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="F48:F56"/>
+    <mergeCell ref="A39:A56"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C38"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E30:E38"/>
     <mergeCell ref="F30:F38"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D12:D20"/>
@@ -4632,58 +4783,6 @@
     <mergeCell ref="D3:D11"/>
     <mergeCell ref="E3:E11"/>
     <mergeCell ref="F3:F11"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C29"/>
-    <mergeCell ref="D21:D29"/>
-    <mergeCell ref="E21:E29"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C38"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="E30:E38"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="A39:A56"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="F39:F47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="F48:F56"/>
-    <mergeCell ref="A57:A74"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="F57:F65"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C74"/>
-    <mergeCell ref="D66:D74"/>
-    <mergeCell ref="E66:E74"/>
-    <mergeCell ref="F66:F74"/>
-    <mergeCell ref="A75:A92"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="D75:D83"/>
-    <mergeCell ref="E75:E83"/>
-    <mergeCell ref="F75:F83"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="C84:C92"/>
-    <mergeCell ref="D84:D92"/>
-    <mergeCell ref="E84:E92"/>
-    <mergeCell ref="F84:F92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4742,7 +4841,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.21875</v>
+        <v>0.234375</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -4750,7 +4849,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -4758,7 +4857,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.203125</v>
+        <v>0.25</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -4766,7 +4865,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -4774,7 +4873,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.234375</v>
+        <v>0.21875</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -4782,7 +4881,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -4790,7 +4889,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.25</v>
+        <v>0.234375</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -4798,7 +4897,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -4806,7 +4905,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.203125</v>
+        <v>0.15625</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -4814,7 +4913,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -4822,7 +4921,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.15625</v>
+        <v>0.21875</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -4830,7 +4929,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -4838,7 +4937,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.1875</v>
+        <v>0.21875</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -4846,7 +4945,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -4854,7 +4953,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.140625</v>
+        <v>0.203125</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -4862,7 +4961,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -4886,7 +4985,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -4894,7 +4993,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -4902,7 +5001,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.234375</v>
+        <v>0.125</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -4910,7 +5009,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -4918,7 +5017,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -4926,7 +5025,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -4934,7 +5033,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -4942,7 +5041,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -4950,7 +5049,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.203125</v>
+        <v>0.15625</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -4958,7 +5057,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -4966,7 +5065,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.21875</v>
+        <v>0.1875</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -4974,7 +5073,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -4982,7 +5081,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -4990,7 +5089,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -4998,7 +5097,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.171875</v>
+        <v>0.21875</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -5006,7 +5105,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -5014,7 +5113,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.140625</v>
+        <v>0.21875</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -5022,7 +5121,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -5030,7 +5129,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.125</v>
+        <v>0.203125</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -5038,7 +5137,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -5046,7 +5145,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.109375</v>
+        <v>0.265625</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -5054,7 +5153,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -5062,7 +5161,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -5070,7 +5169,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -5078,7 +5177,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.140625</v>
+        <v>0.25</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -5086,7 +5185,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -5094,7 +5193,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.234375</v>
+        <v>0.25</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -5102,7 +5201,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -5126,7 +5225,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.234375</v>
+        <v>0.1875</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -5134,7 +5233,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -5142,7 +5241,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -5150,7 +5249,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -5158,7 +5257,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.109375</v>
+        <v>0.1875</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -5166,7 +5265,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -5174,7 +5273,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.15625</v>
+        <v>0.21875</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5182,7 +5281,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -5190,7 +5289,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -5198,7 +5297,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -5206,7 +5305,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -5214,7 +5313,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -5238,7 +5337,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.109375</v>
+        <v>0.1875</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -5246,7 +5345,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -5254,7 +5353,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>7.8125E-2</v>
+        <v>0.21875</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -5262,7 +5361,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -5270,7 +5369,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.1875</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -5278,7 +5377,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -5286,7 +5385,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.15625</v>
+        <v>0.203125</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -5294,7 +5393,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -5302,7 +5401,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -5310,7 +5409,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -5318,7 +5417,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.203125</v>
+        <v>0.1875</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -5326,7 +5425,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -5334,7 +5433,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -5342,7 +5441,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -5350,7 +5449,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -5358,7 +5457,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -5366,7 +5465,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.125</v>
+        <v>0.234375</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -5374,7 +5473,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -5382,7 +5481,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>9.375E-2</v>
+        <v>0.375</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -5390,7 +5489,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -5398,7 +5497,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.125</v>
+        <v>0.203125</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -5406,7 +5505,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -5414,7 +5513,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.15625</v>
+        <v>0.25</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -5422,7 +5521,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -5430,7 +5529,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.109375</v>
+        <v>0.21875</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -5438,7 +5537,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -5446,7 +5545,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -5454,7 +5553,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -5462,7 +5561,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -5470,7 +5569,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -5478,7 +5577,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.140625</v>
+        <v>0.203125</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -5486,7 +5585,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -5494,7 +5593,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -5502,7 +5601,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -5510,7 +5609,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -5518,7 +5617,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -5526,7 +5625,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -5534,7 +5633,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -5542,7 +5641,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -5550,7 +5649,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -5558,7 +5657,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -5566,7 +5665,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -5574,7 +5673,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -5582,7 +5681,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -5590,7 +5689,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -5598,7 +5697,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -5606,7 +5705,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -5614,7 +5713,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -5622,7 +5721,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>9.375E-2</v>
+        <v>0.21875</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -5630,7 +5729,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -5638,7 +5737,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>9.375E-2</v>
+        <v>0.203125</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -5646,7 +5745,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -5654,7 +5753,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -5662,7 +5761,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -5670,7 +5769,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>9.375E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -5678,7 +5777,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -5702,7 +5801,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -5710,7 +5809,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -5718,7 +5817,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -5726,7 +5825,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -5734,7 +5833,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -5742,7 +5841,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -5750,7 +5849,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.109375</v>
+        <v>0.15625</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -5758,7 +5857,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>89.0625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -5766,7 +5865,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -5774,7 +5873,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -5782,7 +5881,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -5790,7 +5889,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -5798,7 +5897,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -5806,7 +5905,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -5814,7 +5913,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -5822,7 +5921,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -5830,7 +5929,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -5838,7 +5937,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -5846,7 +5945,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -5854,7 +5953,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -5862,7 +5961,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -5870,7 +5969,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -5878,7 +5977,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -5886,7 +5985,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -5894,7 +5993,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -5902,7 +6001,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -5910,7 +6009,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -5918,7 +6017,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -5926,7 +6025,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>7.8125E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -5934,7 +6033,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -5942,7 +6041,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>7.8125E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -5950,7 +6049,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -5958,7 +6057,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>7.8125E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -5966,7 +6065,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -5974,7 +6073,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>7.8125E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -5982,7 +6081,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -5990,7 +6089,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>7.8125E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -5998,7 +6097,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -6006,7 +6105,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>7.8125E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -6014,7 +6113,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -6022,7 +6121,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -6030,7 +6129,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -6038,7 +6137,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -6046,7 +6145,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -6054,7 +6153,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -6062,7 +6161,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -6070,7 +6169,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -6078,7 +6177,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -6086,7 +6185,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -6094,7 +6193,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -6102,7 +6201,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -6110,7 +6209,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -6118,7 +6217,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -6126,7 +6225,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -6134,7 +6233,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -6142,7 +6241,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -6150,7 +6249,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -6158,7 +6257,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -6166,7 +6265,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -6174,7 +6273,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -6182,7 +6281,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -6190,7 +6289,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -6198,7 +6297,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -6206,7 +6305,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -6214,7 +6313,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -6222,7 +6321,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -6230,7 +6329,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -6238,7 +6337,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -6246,7 +6345,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -6254,7 +6353,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -6262,7 +6361,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -6270,7 +6369,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -6278,7 +6377,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -6286,7 +6385,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -6294,7 +6393,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -6302,7 +6401,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -6310,7 +6409,7 @@
         <v>50</v>
       </c>
       <c r="M102">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -6318,7 +6417,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -6326,7 +6425,7 @@
         <v>50</v>
       </c>
       <c r="M103">
-        <v>0.21875</v>
+        <v>0.171875</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -6334,7 +6433,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>78.125</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -6342,7 +6441,7 @@
         <v>50</v>
       </c>
       <c r="M104">
-        <v>6.25E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -6350,7 +6449,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -6358,7 +6457,7 @@
         <v>50</v>
       </c>
       <c r="M105">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -6366,7 +6465,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -6374,7 +6473,7 @@
         <v>50</v>
       </c>
       <c r="M106">
-        <v>0.171875</v>
+        <v>0.140625</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -6382,7 +6481,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -6390,7 +6489,7 @@
         <v>50</v>
       </c>
       <c r="M107">
-        <v>4.6875E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -6398,7 +6497,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>95.3125</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
@@ -6406,7 +6505,7 @@
         <v>50</v>
       </c>
       <c r="M108">
-        <v>0.109375</v>
+        <v>0.15625</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -6414,7 +6513,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -6422,7 +6521,7 @@
         <v>50</v>
       </c>
       <c r="M109">
-        <v>6.25E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -6430,7 +6529,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>96.875</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -6438,7 +6537,7 @@
         <v>50</v>
       </c>
       <c r="M110">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -6446,7 +6545,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -6454,7 +6553,7 @@
         <v>50</v>
       </c>
       <c r="M111">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -6462,7 +6561,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -6470,7 +6569,7 @@
         <v>50</v>
       </c>
       <c r="M112">
-        <v>1.5625E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -6478,7 +6577,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>98.4375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -6502,7 +6601,7 @@
         <v>50</v>
       </c>
       <c r="M114">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -6510,7 +6609,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
@@ -6518,7 +6617,7 @@
         <v>50</v>
       </c>
       <c r="M115">
-        <v>0.1875</v>
+        <v>0.140625</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -6526,7 +6625,7 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>81.25</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
@@ -6534,7 +6633,7 @@
         <v>50</v>
       </c>
       <c r="M116">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -6542,7 +6641,7 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
@@ -6566,7 +6665,7 @@
         <v>50</v>
       </c>
       <c r="M118">
-        <v>0.1147540983606557</v>
+        <v>0.13114754098360659</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -6574,7 +6673,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>88.524590163934434</v>
+        <v>86.885245901639337</v>
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthic Speaker (Data Augmentation).xlsx
+++ b/Dysarthic Speaker (Data Augmentation).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68112CE8-7896-4D59-B58A-4371D7FFBF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4CF5E2-63FE-4D7B-A9A5-8D4296F2F542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
   </bookViews>
@@ -190,7 +190,7 @@
     <t>Augmented_M09_TE</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f51e0dfeca0&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f9cf3b15100&gt;</t>
   </si>
 </sst>
 </file>
@@ -695,12 +695,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,10 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -722,17 +713,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -740,7 +725,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -752,25 +749,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -779,10 +773,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -790,9 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,208 +894,208 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>57.8125</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.4375</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.5625</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>78.125</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>84.375</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="23">
                   <c:v>84.375</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="24">
                   <c:v>84.375</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>75</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>81.25</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>81.25</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>81.25</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>81.25</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>78.125</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>81.25</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>84.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>84.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>81.25</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>78.125</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>90.625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>79.6875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>82.8125</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>81.25</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>81.25</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>76.5625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>62.5</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>79.6875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>75</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>78.125</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>82.8125</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>79.6875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>84.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>84.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>84.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>82.8125</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>82.8125</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>82.8125</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>78.125</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>79.6875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>81.25</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>90.625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>84.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>84.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>87.5</c:v>
@@ -1104,16 +1104,16 @@
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>89.0625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>87.5</c:v>
@@ -1149,49 +1149,49 @@
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2282,15 +2282,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>29399</xdr:colOff>
+      <xdr:colOff>23519</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>23520</xdr:rowOff>
+      <xdr:rowOff>123474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>315401</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>111714</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2220129</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>164630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2313,8 +2313,102 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4803658" y="5321067"/>
-          <a:ext cx="2579058" cy="1546342"/>
+          <a:off x="4797778" y="5421021"/>
+          <a:ext cx="2196610" cy="1317035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5879</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2231213</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>94075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3EE6C2-FBEB-1A06-270B-10A05D1204AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4780138" y="7173150"/>
+          <a:ext cx="2225334" cy="1322916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>94074</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2134304</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>148460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3989BDBE-86D5-6394-427D-D802FB6BC862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651714" y="7020278"/>
+          <a:ext cx="2040230" cy="1530173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2666,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368169AB-26AB-4A58-844A-57BD7F02F01B}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView zoomScale="46" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B19"/>
+    <sheetView topLeftCell="A99" zoomScale="46" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113:D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2697,316 +2791,316 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>10.94</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="18">
         <v>7</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="25"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="25"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="25"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="25"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="25"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="25"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="25"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="21">
         <v>32.47</v>
       </c>
       <c r="D11" s="22">
         <f>100-71</f>
         <v>29</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="10"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="25"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="11"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="25"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="11"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="25"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="11"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="25"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="11"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="25"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="13"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="11"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="25"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="13"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="11"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="13"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="11"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="25"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="12"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="25"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="21">
         <v>40.65</v>
       </c>
       <c r="D20" s="22">
         <v>19</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="10"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="25"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="11"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="25"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="11"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="25"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="11"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="25"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="11"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="25"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="11"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="25"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="11"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="25"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="13"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="11"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="25"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="12"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="25"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="21">
         <v>28.39</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="10"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="25"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="13"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="11"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="25"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="13"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="11"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="25"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="13"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="11"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="25"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="11"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="25"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="13"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="11"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="25"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="11"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="25"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="13"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="11"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="25"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="12"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="8">
         <f xml:space="preserve"> SUM(C2:C37)/4</f>
         <v>28.112500000000001</v>
@@ -3018,219 +3112,219 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="16">
         <v>69.459999999999994</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="18">
         <v>53</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="27"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="13"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="27"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="13"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="27"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="13"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="27"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="13"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="27"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="13"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="27"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="13"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="27"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="13"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="27"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="14"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="27"/>
-      <c r="B48" s="16" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="21">
         <v>67.02</v>
       </c>
       <c r="D48" s="22">
         <v>52</v>
       </c>
-      <c r="E48" s="12"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="27"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="13"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="27"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="13"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="27"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="13"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="27"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="13"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="27"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="13"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="27"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="13"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="27"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="13"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="27"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="14"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="27"/>
-      <c r="B57" s="16" t="s">
+      <c r="A57" s="26"/>
+      <c r="B57" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="21">
         <v>55.91</v>
       </c>
       <c r="D57" s="22">
         <v>57</v>
       </c>
-      <c r="E57" s="12"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="27"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="13"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="27"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="13"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="27"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="13"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="27"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="13"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="27"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="13"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="27"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="13"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="27"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="13"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="28"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="14"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="11"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="8">
         <f>SUM(C39:C65)/3</f>
         <v>64.13</v>
@@ -3242,219 +3336,219 @@
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="16">
         <v>64.95</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="18">
         <v>55</v>
       </c>
-      <c r="E67" s="12"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="25"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="13"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="25"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="13"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="25"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="13"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="25"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="13"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="25"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="13"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="25"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="13"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="25"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="13"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="25"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="14"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="25"/>
-      <c r="B76" s="16" t="s">
+      <c r="A76" s="13"/>
+      <c r="B76" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="21">
         <v>49.68</v>
       </c>
       <c r="D76" s="22">
         <v>51</v>
       </c>
-      <c r="E76" s="12"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="25"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="13"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="25"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="13"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="25"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="13"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="25"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="13"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="25"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="13"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="25"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="13"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="25"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="13"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="25"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="14"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="25"/>
-      <c r="B85" s="16" t="s">
+      <c r="A85" s="13"/>
+      <c r="B85" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C85" s="21">
         <v>53.98</v>
       </c>
       <c r="D85" s="22">
         <v>64</v>
       </c>
-      <c r="E85" s="12"/>
+      <c r="E85" s="10"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="25"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="13"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="25"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="13"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="25"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="13"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="25"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="13"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="25"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="13"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="25"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="13"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="25"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="13"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="25"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="14"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="11"/>
+      <c r="B94" s="24"/>
       <c r="C94" s="8">
         <f>SUM(C67:C93)/3</f>
         <v>56.203333333333326</v>
@@ -3466,359 +3560,359 @@
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="16">
         <v>85.16</v>
       </c>
-      <c r="D95" s="23">
+      <c r="D95" s="18">
         <v>82</v>
       </c>
-      <c r="E95" s="12"/>
+      <c r="E95" s="10"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="25"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="13"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="25"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="13"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="25"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="13"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="25"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="13"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="25"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="13"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="25"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="13"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="25"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="13"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="25"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="14"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="12"/>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="25"/>
-      <c r="B104" s="16" t="s">
+      <c r="A104" s="13"/>
+      <c r="B104" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="19">
+      <c r="C104" s="21">
         <v>86.45</v>
       </c>
       <c r="D104" s="22">
         <v>82</v>
       </c>
-      <c r="E104" s="12"/>
+      <c r="E104" s="10"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="25"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="13"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="25"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="13"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="25"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="13"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="25"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="13"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="25"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="13"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="11"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="25"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="13"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="25"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="13"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="11"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="25"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="14"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="25"/>
-      <c r="B113" s="16" t="s">
+      <c r="A113" s="13"/>
+      <c r="B113" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="19">
+      <c r="C113" s="21">
         <v>89.68</v>
       </c>
       <c r="D113" s="22">
         <v>92</v>
       </c>
-      <c r="E113" s="12"/>
+      <c r="E113" s="10"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="25"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="13"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="11"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115" s="25"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="13"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="11"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116" s="25"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="13"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="11"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117" s="25"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="13"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="11"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118" s="25"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="13"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="11"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="25"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="13"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="11"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120" s="25"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="13"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="11"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121" s="25"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="14"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="12"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122" s="25"/>
-      <c r="B122" s="16" t="s">
+      <c r="A122" s="13"/>
+      <c r="B122" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="19">
+      <c r="C122" s="21">
         <v>86.67</v>
       </c>
       <c r="D122" s="22">
         <v>84</v>
       </c>
-      <c r="E122" s="12"/>
+      <c r="E122" s="10"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123" s="25"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="13"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="11"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" s="25"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="13"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="11"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A125" s="25"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="13"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="11"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126" s="25"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="13"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="11"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127" s="25"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="13"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="11"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A128" s="25"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="13"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="11"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A129" s="25"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="13"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="11"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A130" s="25"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="14"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="12"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A131" s="25"/>
-      <c r="B131" s="16" t="s">
+      <c r="A131" s="13"/>
+      <c r="B131" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="19">
+      <c r="C131" s="21">
         <v>94.41</v>
       </c>
       <c r="D131" s="22">
         <v>91</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E131" s="10">
         <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A132" s="25"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="13"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="11"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133" s="25"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="13"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="11"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" s="25"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="13"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="11"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" s="25"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="13"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="11"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" s="25"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="13"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="11"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137" s="25"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="13"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="11"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138" s="25"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="13"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="11"/>
     </row>
     <row r="139" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="25"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="14"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="12"/>
     </row>
     <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B140" s="11"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="9">
         <f>SUM(C95:C139)/5</f>
         <v>88.474000000000004</v>
@@ -3831,58 +3925,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E29:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="A39:A65"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="C76:C84"/>
-    <mergeCell ref="D76:D84"/>
-    <mergeCell ref="E76:E84"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:A93"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="A95:A139"/>
-    <mergeCell ref="B95:B103"/>
-    <mergeCell ref="C95:C103"/>
-    <mergeCell ref="D95:D103"/>
-    <mergeCell ref="E95:E103"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="C104:C112"/>
-    <mergeCell ref="E122:E130"/>
-    <mergeCell ref="E131:E139"/>
-    <mergeCell ref="E104:E112"/>
-    <mergeCell ref="E113:E121"/>
     <mergeCell ref="A140:B140"/>
     <mergeCell ref="E85:E93"/>
     <mergeCell ref="E67:E75"/>
@@ -3899,6 +3941,58 @@
     <mergeCell ref="C113:C121"/>
     <mergeCell ref="D113:D121"/>
     <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:A139"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="D95:D103"/>
+    <mergeCell ref="E95:E103"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="C104:C112"/>
+    <mergeCell ref="E122:E130"/>
+    <mergeCell ref="E131:E139"/>
+    <mergeCell ref="E104:E112"/>
+    <mergeCell ref="E113:E121"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="D76:D84"/>
+    <mergeCell ref="E76:E84"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:A93"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="A39:A65"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="E29:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3909,8 +4003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E277BC-F87C-4ABA-847E-22FC479E5A03}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="81" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="81" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3923,848 +4017,819 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="39"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="36"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="29"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="36"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="29"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="36"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="29"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="36"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="36"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="29"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="36"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="29"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="36"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="29"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="36"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="29"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="36"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="36"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="29"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="36"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="29"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="36"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="29"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="36"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="29"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="36"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="29"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="36"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="29"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="36"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="29"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="37"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="30"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
         <f>100-12</f>
         <v>88</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="36"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="29"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="36"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="29"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="36"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="29"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="36"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="36"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="36"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="29"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="36"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="29"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="36"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="29"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="36"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
         <f>100-12</f>
         <v>88</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="36"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="29"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="36"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="29"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="36"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="29"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="36"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="29"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="36"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="29"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="36"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="29"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="36"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="29"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="37"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="30"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36">
+        <f>100-9</f>
+        <v>91</v>
+      </c>
+      <c r="F39" s="29">
+        <v>-1</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="36"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="29"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="36"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="29"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="36"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="29"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="36"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="29"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="36"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="29"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="36"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="29"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="36"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="29"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="36"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="29"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="36"/>
-      <c r="B48" s="23" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="29"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="36"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="29"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="36"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="29"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="36"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="29"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="36"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="29"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="36"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="29"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="36"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="29"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="36"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="29"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="37"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="30"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="32"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="35"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="29"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="36"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="29"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="36"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="29"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="30"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="36"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="29"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="30"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="36"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="29"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="30"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="36"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="29"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="30"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="36"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="29"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="30"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="36"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="29"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="30"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="36"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="29"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="30"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="36"/>
-      <c r="B66" s="23" t="s">
+      <c r="A66" s="34"/>
+      <c r="B66" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="29"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="30"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="36"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="29"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="30"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="36"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="29"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="30"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="36"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="29"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="30"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="36"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="29"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="36"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="29"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="36"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="29"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="30"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="36"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="29"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="30"/>
     </row>
     <row r="74" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="37"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="30"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="32"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="35"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="29"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="36"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="29"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="30"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="36"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="29"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="30"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="36"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="29"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="30"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="36"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="29"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="30"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="36"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="29"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="36"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="29"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="36"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="29"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="30"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="36"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="29"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="30"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="36"/>
-      <c r="B84" s="23" t="s">
+      <c r="A84" s="34"/>
+      <c r="B84" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="29"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="30"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="36"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="29"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="36"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="29"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="36"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="29"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="30"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="36"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="29"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="30"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="36"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="29"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="30"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="36"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="29"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="30"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="36"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="29"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="30"/>
     </row>
     <row r="92" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="37"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="30"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="F75:F83"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="C84:C92"/>
-    <mergeCell ref="D84:D92"/>
-    <mergeCell ref="E84:E92"/>
-    <mergeCell ref="F84:F92"/>
-    <mergeCell ref="A75:A92"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="D75:D83"/>
-    <mergeCell ref="E75:E83"/>
-    <mergeCell ref="F57:F65"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C74"/>
-    <mergeCell ref="D66:D74"/>
-    <mergeCell ref="E66:E74"/>
-    <mergeCell ref="F66:F74"/>
-    <mergeCell ref="A57:A74"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="F39:F47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="F48:F56"/>
-    <mergeCell ref="A39:A56"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="E12:E20"/>
+    <mergeCell ref="F12:F20"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="F3:F11"/>
     <mergeCell ref="A21:A38"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="C21:C29"/>
@@ -4774,15 +4839,49 @@
     <mergeCell ref="C30:C38"/>
     <mergeCell ref="D30:D38"/>
     <mergeCell ref="E30:E38"/>
-    <mergeCell ref="F30:F38"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="E12:E20"/>
-    <mergeCell ref="F12:F20"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="A39:A56"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="F39:F47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="F48:F56"/>
+    <mergeCell ref="A57:A74"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="F57:F65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="D66:D74"/>
+    <mergeCell ref="E66:E74"/>
+    <mergeCell ref="F66:F74"/>
+    <mergeCell ref="A75:A92"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="D75:D83"/>
+    <mergeCell ref="E75:E83"/>
+    <mergeCell ref="F75:F83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="C84:C92"/>
+    <mergeCell ref="D84:D92"/>
+    <mergeCell ref="E84:E92"/>
+    <mergeCell ref="F84:F92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4809,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.421875</v>
+        <v>0.25</v>
       </c>
       <c r="N2">
         <f>1+L2</f>
@@ -4817,7 +4916,7 @@
       </c>
       <c r="O2">
         <f>100*(1-M2)</f>
-        <v>57.8125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="12:15" x14ac:dyDescent="0.45">
@@ -4825,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.265625</v>
+        <v>0.203125</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -4833,7 +4932,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>73.4375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -4841,7 +4940,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.234375</v>
+        <v>0.140625</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -4849,7 +4948,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -4857,7 +4956,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.25</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -4865,7 +4964,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -4873,7 +4972,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.21875</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -4881,7 +4980,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -4889,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.234375</v>
+        <v>0.140625</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -4897,7 +4996,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -4905,7 +5004,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -4913,7 +5012,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -4921,7 +5020,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.21875</v>
+        <v>0.15625</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -4929,7 +5028,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -4937,7 +5036,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.21875</v>
+        <v>0.15625</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -4945,7 +5044,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -4953,7 +5052,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.203125</v>
+        <v>0.140625</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -4961,7 +5060,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -4969,7 +5068,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -4977,7 +5076,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -4985,7 +5084,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -4993,7 +5092,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -5001,7 +5100,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.125</v>
+        <v>0.21875</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -5009,7 +5108,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -5017,7 +5116,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -5025,7 +5124,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -5033,7 +5132,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -5041,7 +5140,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -5049,7 +5148,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.15625</v>
+        <v>0.203125</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -5057,7 +5156,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -5065,7 +5164,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.1875</v>
+        <v>0.21875</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -5073,7 +5172,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -5081,7 +5180,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -5089,7 +5188,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -5097,7 +5196,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.21875</v>
+        <v>0.109375</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -5105,7 +5204,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -5113,7 +5212,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.21875</v>
+        <v>0.109375</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -5121,7 +5220,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -5129,7 +5228,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.203125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -5137,7 +5236,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -5145,7 +5244,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.265625</v>
+        <v>0.125</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -5153,7 +5252,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -5161,7 +5260,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.1875</v>
+        <v>0.15625</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -5169,7 +5268,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -5177,7 +5276,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.25</v>
+        <v>0.15625</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -5185,7 +5284,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -5193,7 +5292,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.25</v>
+        <v>0.15625</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -5201,7 +5300,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -5209,7 +5308,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.1875</v>
+        <v>0.140625</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -5217,7 +5316,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -5225,7 +5324,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -5233,7 +5332,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -5241,7 +5340,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -5249,7 +5348,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -5257,7 +5356,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -5265,7 +5364,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -5273,7 +5372,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.21875</v>
+        <v>0.125</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5281,7 +5380,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -5289,7 +5388,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -5297,7 +5396,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -5305,7 +5404,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -5313,7 +5412,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -5321,7 +5420,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -5329,7 +5428,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -5337,7 +5436,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -5345,7 +5444,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -5353,7 +5452,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.21875</v>
+        <v>0.125</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -5361,7 +5460,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -5369,7 +5468,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -5377,7 +5476,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -5385,7 +5484,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.203125</v>
+        <v>0.125</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -5393,7 +5492,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -5401,7 +5500,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -5409,7 +5508,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -5417,7 +5516,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -5425,7 +5524,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -5433,7 +5532,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -5441,7 +5540,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -5449,7 +5548,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -5457,7 +5556,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -5465,7 +5564,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.234375</v>
+        <v>0.125</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -5473,7 +5572,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -5481,7 +5580,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -5489,7 +5588,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -5497,7 +5596,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.203125</v>
+        <v>0.125</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -5505,7 +5604,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -5513,7 +5612,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -5521,7 +5620,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -5529,7 +5628,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.21875</v>
+        <v>0.125</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -5537,7 +5636,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -5545,7 +5644,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -5553,7 +5652,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -5561,7 +5660,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -5569,7 +5668,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -5577,7 +5676,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.203125</v>
+        <v>0.125</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -5585,7 +5684,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -5593,7 +5692,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -5601,7 +5700,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -5609,7 +5708,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -5617,7 +5716,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -5625,7 +5724,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -5633,7 +5732,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -5657,7 +5756,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -5665,7 +5764,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -5673,7 +5772,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -5681,7 +5780,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -5689,7 +5788,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -5697,7 +5796,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -5705,7 +5804,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -5713,7 +5812,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -5721,7 +5820,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.21875</v>
+        <v>0.125</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -5729,7 +5828,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -5737,7 +5836,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.203125</v>
+        <v>0.125</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -5745,7 +5844,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -5769,7 +5868,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -5777,7 +5876,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -5785,7 +5884,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -5793,7 +5892,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -5801,7 +5900,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -5809,7 +5908,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -5817,7 +5916,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -5825,7 +5924,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -5849,7 +5948,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -5857,7 +5956,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -5865,7 +5964,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -5873,7 +5972,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -5881,7 +5980,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -5889,7 +5988,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -5929,7 +6028,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -5937,7 +6036,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -5945,7 +6044,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -5953,7 +6052,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -5961,7 +6060,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -5969,7 +6068,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -5977,7 +6076,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -5985,7 +6084,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -6169,7 +6268,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -6177,7 +6276,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -6185,7 +6284,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -6193,7 +6292,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -6201,7 +6300,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -6209,7 +6308,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -6217,7 +6316,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -6225,7 +6324,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -6233,7 +6332,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -6241,7 +6340,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -6249,7 +6348,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -6257,7 +6356,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -6265,7 +6364,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -6273,7 +6372,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -6281,7 +6380,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -6289,7 +6388,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -6297,7 +6396,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -6305,7 +6404,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -6313,7 +6412,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -6321,7 +6420,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -6329,7 +6428,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -6337,7 +6436,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -6345,7 +6444,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -6353,7 +6452,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -6361,7 +6460,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -6369,7 +6468,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -6377,7 +6476,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -6385,7 +6484,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -6393,7 +6492,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -6401,7 +6500,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -6409,7 +6508,7 @@
         <v>50</v>
       </c>
       <c r="M102">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -6417,7 +6516,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -6425,7 +6524,7 @@
         <v>50</v>
       </c>
       <c r="M103">
-        <v>0.171875</v>
+        <v>0.109375</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -6433,7 +6532,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -6441,7 +6540,7 @@
         <v>50</v>
       </c>
       <c r="M104">
-        <v>0.1875</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -6449,7 +6548,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>81.25</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -6457,7 +6556,7 @@
         <v>50</v>
       </c>
       <c r="M105">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -6465,7 +6564,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -6473,7 +6572,7 @@
         <v>50</v>
       </c>
       <c r="M106">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -6481,7 +6580,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -6505,7 +6604,7 @@
         <v>50</v>
       </c>
       <c r="M108">
-        <v>0.15625</v>
+        <v>0.109375</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -6513,7 +6612,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -6521,7 +6620,7 @@
         <v>50</v>
       </c>
       <c r="M109">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -6529,7 +6628,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>96.875</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -6537,7 +6636,7 @@
         <v>50</v>
       </c>
       <c r="M110">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -6545,7 +6644,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -6553,7 +6652,7 @@
         <v>50</v>
       </c>
       <c r="M111">
-        <v>0.109375</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -6561,7 +6660,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -6569,7 +6668,7 @@
         <v>50</v>
       </c>
       <c r="M112">
-        <v>7.8125E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -6577,7 +6676,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>98.4375</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -6585,7 +6684,7 @@
         <v>50</v>
       </c>
       <c r="M113">
-        <v>0.140625</v>
+        <v>0.203125</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -6593,7 +6692,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
@@ -6617,7 +6716,7 @@
         <v>50</v>
       </c>
       <c r="M115">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -6625,7 +6724,7 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
@@ -6633,7 +6732,7 @@
         <v>50</v>
       </c>
       <c r="M116">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -6641,7 +6740,7 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
@@ -6649,7 +6748,7 @@
         <v>50</v>
       </c>
       <c r="M117">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -6657,7 +6756,7 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
@@ -6665,7 +6764,7 @@
         <v>50</v>
       </c>
       <c r="M118">
-        <v>0.13114754098360659</v>
+        <v>9.8360655737704916E-2</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -6673,7 +6772,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>86.885245901639337</v>
+        <v>90.163934426229503</v>
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthic Speaker (Data Augmentation).xlsx
+++ b/Dysarthic Speaker (Data Augmentation).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4CF5E2-63FE-4D7B-A9A5-8D4296F2F542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A714B107-B4A3-4D23-BE93-4D68FCBAAFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
   </bookViews>
@@ -190,7 +190,7 @@
     <t>Augmented_M09_TE</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f9cf3b15100&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f79dfef0fd0&gt;</t>
   </si>
 </sst>
 </file>
@@ -695,6 +695,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,7 +710,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -713,11 +722,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -725,19 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -749,22 +752,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -773,19 +779,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -793,6 +790,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,31 +894,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.6875</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90.625</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.625</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84.375</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>85.9375</c:v>
@@ -927,163 +927,163 @@
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.8125</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78.125</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>87.5</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="24">
                   <c:v>87.5</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="25">
                   <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>87.5</c:v>
@@ -2417,6 +2417,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>58796</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>70555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2051989</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>107302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F89F3A6-1DA6-E2B9-2234-92EFA95C0E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2616436" y="8654814"/>
+          <a:ext cx="1993193" cy="1494895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17640</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>5880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2236964</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>58798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB163050-466C-A046-713A-B0054CB36F90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791899" y="8772408"/>
+          <a:ext cx="2219324" cy="1328797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2791,316 +2885,316 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="20">
         <v>10.94</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="23">
         <v>7</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="13"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>32.47</v>
       </c>
       <c r="D11" s="22">
         <f>100-71</f>
         <v>29</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="12"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="13"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="13"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="13"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="13"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="13"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="13"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="13"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="14"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <v>40.65</v>
       </c>
       <c r="D20" s="22">
         <v>19</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="12"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="13"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="13"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="13"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="13"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="13"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="13"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="13"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="14"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="13"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="19">
         <v>28.39</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="12"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="11"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="13"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="11"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="13"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="11"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="13"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="11"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="13"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="11"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="13"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="11"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="13"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="11"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="13"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="12"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="14"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="8">
         <f xml:space="preserve"> SUM(C2:C37)/4</f>
         <v>28.112500000000001</v>
@@ -3112,219 +3206,219 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="20">
         <v>69.459999999999994</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="23">
         <v>53</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="26"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="11"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="26"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="11"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="26"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="11"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="26"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="11"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="26"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="11"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="26"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="11"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="26"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="11"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="26"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="12"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="26"/>
-      <c r="B48" s="20" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="19">
         <v>67.02</v>
       </c>
       <c r="D48" s="22">
         <v>52</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="26"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="11"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="26"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="11"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="26"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="11"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="26"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="11"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="26"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="11"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="26"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="11"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="26"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="11"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="26"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="12"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="26"/>
-      <c r="B57" s="20" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="19">
         <v>55.91</v>
       </c>
       <c r="D57" s="22">
         <v>57</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="26"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="11"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="26"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="11"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="26"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="11"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="26"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="11"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="26"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="11"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="26"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="11"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="26"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="11"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="27"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="12"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="8">
         <f>SUM(C39:C65)/3</f>
         <v>64.13</v>
@@ -3336,219 +3430,219 @@
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="20">
         <v>64.95</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="23">
         <v>55</v>
       </c>
-      <c r="E67" s="10"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="11"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="11"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="11"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="11"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="11"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="11"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="11"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="13"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="12"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="13"/>
-      <c r="B76" s="20" t="s">
+      <c r="A76" s="25"/>
+      <c r="B76" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="19">
         <v>49.68</v>
       </c>
       <c r="D76" s="22">
         <v>51</v>
       </c>
-      <c r="E76" s="10"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="11"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="13"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="11"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="11"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="11"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="11"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="11"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="11"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="13"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="12"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="13"/>
-      <c r="B85" s="20" t="s">
+      <c r="A85" s="25"/>
+      <c r="B85" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="19">
         <v>53.98</v>
       </c>
       <c r="D85" s="22">
         <v>64</v>
       </c>
-      <c r="E85" s="10"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="13"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="11"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="13"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="11"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="13"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="11"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="13"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="11"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="11"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="13"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="11"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="13"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="11"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="13"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="12"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="14"/>
     </row>
     <row r="94" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="24"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="8">
         <f>SUM(C67:C93)/3</f>
         <v>56.203333333333326</v>
@@ -3560,359 +3654,359 @@
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C95" s="20">
         <v>85.16</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="23">
         <v>82</v>
       </c>
-      <c r="E95" s="10"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="13"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="11"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="13"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="11"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="13"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="11"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="13"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="11"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="13"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="11"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="13"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="11"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="13"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="11"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="13"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="12"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="14"/>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="13"/>
-      <c r="B104" s="20" t="s">
+      <c r="A104" s="25"/>
+      <c r="B104" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="19">
         <v>86.45</v>
       </c>
       <c r="D104" s="22">
         <v>82</v>
       </c>
-      <c r="E104" s="10"/>
+      <c r="E104" s="12"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="13"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="11"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="13"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="11"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="13"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="11"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="13"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="13"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="11"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="13"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="13"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="11"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="13"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="13"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="11"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="13"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="13"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="11"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="13"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="13"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="12"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="14"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="13"/>
-      <c r="B113" s="20" t="s">
+      <c r="A113" s="25"/>
+      <c r="B113" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="19">
         <v>89.68</v>
       </c>
       <c r="D113" s="22">
         <v>92</v>
       </c>
-      <c r="E113" s="10"/>
+      <c r="E113" s="12"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="13"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="11"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115" s="13"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="11"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="13"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116" s="13"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="11"/>
+      <c r="A116" s="25"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="13"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117" s="13"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="11"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118" s="13"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="11"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="13"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="11"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="13"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120" s="13"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="11"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="13"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121" s="13"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="12"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="14"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122" s="13"/>
-      <c r="B122" s="20" t="s">
+      <c r="A122" s="25"/>
+      <c r="B122" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="21">
+      <c r="C122" s="19">
         <v>86.67</v>
       </c>
       <c r="D122" s="22">
         <v>84</v>
       </c>
-      <c r="E122" s="10"/>
+      <c r="E122" s="12"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123" s="13"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="11"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" s="13"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="11"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A125" s="13"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="11"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126" s="13"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="11"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="13"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127" s="13"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="11"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A128" s="13"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="11"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="13"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A129" s="13"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="11"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="13"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A130" s="13"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="12"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="14"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A131" s="13"/>
-      <c r="B131" s="20" t="s">
+      <c r="A131" s="25"/>
+      <c r="B131" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="21">
+      <c r="C131" s="19">
         <v>94.41</v>
       </c>
       <c r="D131" s="22">
         <v>91</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="12">
         <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A132" s="13"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="11"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="13"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133" s="13"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="11"/>
+      <c r="A133" s="25"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="13"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" s="13"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="11"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="13"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" s="13"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="11"/>
+      <c r="A135" s="25"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="13"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" s="13"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="11"/>
+      <c r="A136" s="25"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="13"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137" s="13"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="11"/>
+      <c r="A137" s="25"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138" s="13"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="11"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="13"/>
     </row>
     <row r="139" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="13"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="12"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="14"/>
     </row>
     <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="23" t="s">
+      <c r="A140" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B140" s="24"/>
+      <c r="B140" s="11"/>
       <c r="C140" s="9">
         <f>SUM(C95:C139)/5</f>
         <v>88.474000000000004</v>
@@ -3925,6 +4019,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="A39:A65"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="D76:D84"/>
+    <mergeCell ref="E76:E84"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:A93"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="A95:A139"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="D95:D103"/>
+    <mergeCell ref="E95:E103"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="C104:C112"/>
+    <mergeCell ref="E122:E130"/>
+    <mergeCell ref="E131:E139"/>
+    <mergeCell ref="E104:E112"/>
+    <mergeCell ref="E113:E121"/>
     <mergeCell ref="A140:B140"/>
     <mergeCell ref="E85:E93"/>
     <mergeCell ref="E67:E75"/>
@@ -3941,58 +4087,6 @@
     <mergeCell ref="C113:C121"/>
     <mergeCell ref="D113:D121"/>
     <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:A139"/>
-    <mergeCell ref="B95:B103"/>
-    <mergeCell ref="C95:C103"/>
-    <mergeCell ref="D95:D103"/>
-    <mergeCell ref="E95:E103"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="C104:C112"/>
-    <mergeCell ref="E122:E130"/>
-    <mergeCell ref="E131:E139"/>
-    <mergeCell ref="E104:E112"/>
-    <mergeCell ref="E113:E121"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="C76:C84"/>
-    <mergeCell ref="D76:D84"/>
-    <mergeCell ref="E76:E84"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:A93"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="A39:A65"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E29:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4003,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E277BC-F87C-4ABA-847E-22FC479E5A03}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="81" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="81" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4017,810 +4111,867 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="42"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="34"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="34"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="30"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="34"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="30"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="34"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="30"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="34"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="34"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="30"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="34"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="30"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="34"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="34"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="34"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="30"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="34"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="30"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="34"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="30"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="34"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="34"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="30"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="34"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="30"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="34"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="30"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="35"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23">
         <f>100-12</f>
         <v>88</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="34"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="30"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="34"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="30"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="34"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="30"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="34"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="30"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="34"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="30"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="34"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="30"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="34"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="30"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="34"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="30"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="34"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23">
         <f>100-12</f>
         <v>88</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="29">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="34"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="30"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="34"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="30"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="34"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="30"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="29"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="34"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="30"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="34"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="30"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="29"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="34"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="30"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="34"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="30"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="35"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36">
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34">
         <f>100-9</f>
         <v>91</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="35">
         <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="34"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="30"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="34"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="30"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="34"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="30"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="34"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="30"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="34"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="30"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="34"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="30"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="34"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="30"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="34"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="30"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="34"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="36"/>
+      <c r="B48" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="30"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23">
+        <f>100-9</f>
+        <v>91</v>
+      </c>
+      <c r="F48" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="34"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="30"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="34"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="30"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="34"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="30"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="34"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="30"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="34"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="30"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="29"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="34"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="30"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="29"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="34"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="30"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="29"/>
     </row>
     <row r="56" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="35"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="32"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="29"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="34"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="30"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="29"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="34"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="30"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="29"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="34"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="30"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="34"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="30"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="34"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="30"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="34"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="30"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="34"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="30"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="34"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="30"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="34"/>
-      <c r="B66" s="18" t="s">
+      <c r="A66" s="36"/>
+      <c r="B66" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="30"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="34"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="30"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="34"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="30"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="34"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="30"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="34"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="30"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="29"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="34"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="30"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="29"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="34"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="30"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="29"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="34"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="30"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="29"/>
     </row>
     <row r="74" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="35"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="32"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="30"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="29"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="35"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="34"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="30"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="29"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="34"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="30"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="29"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="34"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="30"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="34"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="30"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="34"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="30"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="34"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="30"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="34"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="30"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="34"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="30"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="34"/>
-      <c r="B84" s="18" t="s">
+      <c r="A84" s="36"/>
+      <c r="B84" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="30"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="29"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="34"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="30"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="29"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="34"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="30"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="29"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="34"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="30"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="29"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="34"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="30"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="29"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="34"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="30"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="29"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="34"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="30"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="29"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="34"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="30"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="29"/>
     </row>
     <row r="92" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="35"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="32"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="F75:F83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="C84:C92"/>
+    <mergeCell ref="D84:D92"/>
+    <mergeCell ref="E84:E92"/>
+    <mergeCell ref="F84:F92"/>
+    <mergeCell ref="A75:A92"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="D75:D83"/>
+    <mergeCell ref="E75:E83"/>
+    <mergeCell ref="F57:F65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="D66:D74"/>
+    <mergeCell ref="E66:E74"/>
+    <mergeCell ref="F66:F74"/>
+    <mergeCell ref="A57:A74"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="F39:F47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="F48:F56"/>
+    <mergeCell ref="A39:A56"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C38"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E30:E38"/>
     <mergeCell ref="F30:F38"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D12:D20"/>
@@ -4830,58 +4981,6 @@
     <mergeCell ref="D3:D11"/>
     <mergeCell ref="E3:E11"/>
     <mergeCell ref="F3:F11"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C29"/>
-    <mergeCell ref="D21:D29"/>
-    <mergeCell ref="E21:E29"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C38"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="E30:E38"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="A39:A56"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="F39:F47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="F48:F56"/>
-    <mergeCell ref="A57:A74"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="F57:F65"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C74"/>
-    <mergeCell ref="D66:D74"/>
-    <mergeCell ref="E66:E74"/>
-    <mergeCell ref="F66:F74"/>
-    <mergeCell ref="A75:A92"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="D75:D83"/>
-    <mergeCell ref="E75:E83"/>
-    <mergeCell ref="F75:F83"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="C84:C92"/>
-    <mergeCell ref="D84:D92"/>
-    <mergeCell ref="E84:E92"/>
-    <mergeCell ref="F84:F92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4908,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.25</v>
+        <v>0.265625</v>
       </c>
       <c r="N2">
         <f>1+L2</f>
@@ -4916,7 +5015,7 @@
       </c>
       <c r="O2">
         <f>100*(1-M2)</f>
-        <v>75</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="3" spans="12:15" x14ac:dyDescent="0.45">
@@ -4924,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.203125</v>
+        <v>0.140625</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -4932,7 +5031,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>79.6875</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -4940,7 +5039,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -4948,7 +5047,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -4956,7 +5055,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -4964,7 +5063,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -4972,7 +5071,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -4980,7 +5079,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -4988,7 +5087,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -4996,7 +5095,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -5004,7 +5103,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.171875</v>
+        <v>0.15625</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -5012,7 +5111,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -5020,7 +5119,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -5028,7 +5127,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -5036,7 +5135,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -5044,7 +5143,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -5084,7 +5183,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.171875</v>
+        <v>0.140625</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -5092,7 +5191,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -5100,7 +5199,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.21875</v>
+        <v>0.3125</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -5108,7 +5207,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -5132,7 +5231,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -5140,7 +5239,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -5148,7 +5247,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.203125</v>
+        <v>0.109375</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -5156,7 +5255,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -5164,7 +5263,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.21875</v>
+        <v>0.140625</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -5172,7 +5271,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -5180,7 +5279,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -5188,7 +5287,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -5196,7 +5295,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.109375</v>
+        <v>0.40625</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -5204,7 +5303,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -5212,7 +5311,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.109375</v>
+        <v>0.203125</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -5220,7 +5319,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -5228,7 +5327,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>9.375E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -5236,7 +5335,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -5244,7 +5343,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.125</v>
+        <v>0.21875</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -5252,7 +5351,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -5260,7 +5359,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.15625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -5268,7 +5367,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -5276,7 +5375,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -5284,7 +5383,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -5292,7 +5391,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -5300,7 +5399,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -5308,7 +5407,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -5316,7 +5415,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -5340,7 +5439,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -5348,7 +5447,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -5356,7 +5455,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -5364,7 +5463,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -5372,7 +5471,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5380,7 +5479,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -5388,7 +5487,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -5396,7 +5495,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -5404,7 +5503,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -5412,7 +5511,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -5420,7 +5519,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -5428,7 +5527,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -5436,7 +5535,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -5444,7 +5543,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -5452,7 +5551,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -5460,7 +5559,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -5468,7 +5567,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -5476,7 +5575,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -5484,7 +5583,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -5492,7 +5591,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -5500,7 +5599,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -5508,7 +5607,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -5516,7 +5615,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -5524,7 +5623,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -5532,7 +5631,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -5540,7 +5639,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -5548,7 +5647,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -5556,7 +5655,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -5564,7 +5663,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -5572,7 +5671,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -5580,7 +5679,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -5588,7 +5687,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -5596,7 +5695,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -5604,7 +5703,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -5612,7 +5711,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -5620,7 +5719,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -5628,7 +5727,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -5636,7 +5735,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -5644,7 +5743,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -5652,7 +5751,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -5660,7 +5759,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -5668,7 +5767,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -5676,7 +5775,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -5684,7 +5783,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -5692,7 +5791,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -5700,7 +5799,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -5708,7 +5807,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -5716,7 +5815,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -5724,7 +5823,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -5732,7 +5831,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -5740,7 +5839,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -5748,7 +5847,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -5756,7 +5855,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -5764,7 +5863,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -5772,7 +5871,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -5780,7 +5879,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -5788,7 +5887,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -5796,7 +5895,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -5804,7 +5903,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -5812,7 +5911,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -5820,7 +5919,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -5828,7 +5927,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -5836,7 +5935,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -5844,7 +5943,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -5852,7 +5951,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -5860,7 +5959,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -5868,7 +5967,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -5876,7 +5975,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -5884,7 +5983,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -5892,7 +5991,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -5900,7 +5999,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -5908,7 +6007,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -5916,7 +6015,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -5924,7 +6023,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -6524,7 +6623,7 @@
         <v>50</v>
       </c>
       <c r="M103">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -6532,7 +6631,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -6556,7 +6655,7 @@
         <v>50</v>
       </c>
       <c r="M105">
-        <v>9.375E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -6564,7 +6663,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -6572,7 +6671,7 @@
         <v>50</v>
       </c>
       <c r="M106">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -6580,7 +6679,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -6620,7 +6719,7 @@
         <v>50</v>
       </c>
       <c r="M109">
-        <v>6.25E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -6628,7 +6727,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -6636,7 +6735,7 @@
         <v>50</v>
       </c>
       <c r="M110">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -6644,7 +6743,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -6652,7 +6751,7 @@
         <v>50</v>
       </c>
       <c r="M111">
-        <v>6.25E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -6660,7 +6759,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>96.875</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -6668,7 +6767,7 @@
         <v>50</v>
       </c>
       <c r="M112">
-        <v>1.5625E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -6676,7 +6775,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>98.4375</v>
+        <v>95.3125</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -6684,7 +6783,7 @@
         <v>50</v>
       </c>
       <c r="M113">
-        <v>0.203125</v>
+        <v>0.15625</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -6692,7 +6791,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
@@ -6700,7 +6799,7 @@
         <v>50</v>
       </c>
       <c r="M114">
-        <v>9.375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -6708,7 +6807,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
@@ -6748,7 +6847,7 @@
         <v>50</v>
       </c>
       <c r="M117">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -6756,7 +6855,7 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
@@ -6764,7 +6863,7 @@
         <v>50</v>
       </c>
       <c r="M118">
-        <v>9.8360655737704916E-2</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -6772,7 +6871,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>90.163934426229503</v>
+        <v>85.245901639344254</v>
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthic Speaker (Data Augmentation).xlsx
+++ b/Dysarthic Speaker (Data Augmentation).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A714B107-B4A3-4D23-BE93-4D68FCBAAFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D4F1A3-CD24-4C05-9565-994E9CC3D670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
   </bookViews>
@@ -190,7 +190,7 @@
     <t>Augmented_M09_TE</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f79dfef0fd0&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f80b52a8b50&gt;</t>
   </si>
 </sst>
 </file>
@@ -695,12 +695,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,10 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -722,17 +713,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -740,7 +725,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -752,25 +749,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -779,10 +773,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -790,9 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,304 +894,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>73.4375</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="27">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="33">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>87.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="40">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="44">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>84.375</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="46">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>81.25</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="48">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>84.375</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="52">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="54">
                   <c:v>87.5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="55">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="61">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="67">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>92.1875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>87.5</c:v>
-                </c:pt>
                 <c:pt idx="68">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>87.5</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2511,6 +2511,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123473</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>99954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2130386</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>146991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15085460-1420-E7E8-A99D-C19C8E13AA54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2681113" y="10330510"/>
+          <a:ext cx="2006913" cy="1505185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23519</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>41157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2751</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC9FB2B-F122-76CA-5600-4BE8A4AD381D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4797778" y="10453982"/>
+          <a:ext cx="2272288" cy="1340555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2854,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368169AB-26AB-4A58-844A-57BD7F02F01B}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="46" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113:D121"/>
+    <sheetView topLeftCell="A87" zoomScale="46" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104:C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2885,316 +2979,316 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>10.94</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="18">
         <v>7</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="25"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="25"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="25"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="25"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="25"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="25"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="25"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="21">
         <v>32.47</v>
       </c>
       <c r="D11" s="22">
         <f>100-71</f>
         <v>29</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="10"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="25"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="11"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="25"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="11"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="25"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="11"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="25"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="11"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="25"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="13"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="11"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="25"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="13"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="11"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="13"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="11"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="25"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="12"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="25"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="21">
         <v>40.65</v>
       </c>
       <c r="D20" s="22">
         <v>19</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="10"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="25"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="11"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="25"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="11"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="25"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="11"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="25"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="11"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="25"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="11"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="25"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="11"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="25"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="13"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="11"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="25"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="12"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="25"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="21">
         <v>28.39</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="10"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="25"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="13"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="11"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="25"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="13"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="11"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="25"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="13"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="11"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="25"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="11"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="25"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="13"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="11"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="25"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="11"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="25"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="13"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="11"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="25"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="12"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="8">
         <f xml:space="preserve"> SUM(C2:C37)/4</f>
         <v>28.112500000000001</v>
@@ -3206,219 +3300,219 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="16">
         <v>69.459999999999994</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="18">
         <v>53</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="27"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="13"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="27"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="13"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="27"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="13"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="27"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="13"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="27"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="13"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="27"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="13"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="27"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="13"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="27"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="14"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="27"/>
-      <c r="B48" s="16" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="21">
         <v>67.02</v>
       </c>
       <c r="D48" s="22">
         <v>52</v>
       </c>
-      <c r="E48" s="12"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="27"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="13"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="27"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="13"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="27"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="13"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="27"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="13"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="27"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="13"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="27"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="13"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="27"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="13"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="27"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="14"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="27"/>
-      <c r="B57" s="16" t="s">
+      <c r="A57" s="26"/>
+      <c r="B57" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="21">
         <v>55.91</v>
       </c>
       <c r="D57" s="22">
         <v>57</v>
       </c>
-      <c r="E57" s="12"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="27"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="13"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="27"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="13"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="27"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="13"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="27"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="13"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="27"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="13"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="27"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="13"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="27"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="13"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="28"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="14"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="11"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="8">
         <f>SUM(C39:C65)/3</f>
         <v>64.13</v>
@@ -3430,219 +3524,219 @@
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="16">
         <v>64.95</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="18">
         <v>55</v>
       </c>
-      <c r="E67" s="12"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="25"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="13"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="25"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="13"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="25"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="13"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="25"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="13"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="25"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="13"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="25"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="13"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="25"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="13"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="25"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="14"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="25"/>
-      <c r="B76" s="16" t="s">
+      <c r="A76" s="13"/>
+      <c r="B76" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="21">
         <v>49.68</v>
       </c>
       <c r="D76" s="22">
         <v>51</v>
       </c>
-      <c r="E76" s="12"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="25"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="13"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="25"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="13"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="25"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="13"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="25"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="13"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="25"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="13"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="25"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="13"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="25"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="13"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="25"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="14"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="25"/>
-      <c r="B85" s="16" t="s">
+      <c r="A85" s="13"/>
+      <c r="B85" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C85" s="21">
         <v>53.98</v>
       </c>
       <c r="D85" s="22">
         <v>64</v>
       </c>
-      <c r="E85" s="12"/>
+      <c r="E85" s="10"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="25"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="13"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="25"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="13"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="25"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="13"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="25"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="13"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="25"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="13"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="25"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="13"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="25"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="13"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="25"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="14"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="11"/>
+      <c r="B94" s="24"/>
       <c r="C94" s="8">
         <f>SUM(C67:C93)/3</f>
         <v>56.203333333333326</v>
@@ -3654,359 +3748,359 @@
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="16">
         <v>85.16</v>
       </c>
-      <c r="D95" s="23">
+      <c r="D95" s="18">
         <v>82</v>
       </c>
-      <c r="E95" s="12"/>
+      <c r="E95" s="10"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="25"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="13"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="25"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="13"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="25"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="13"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="25"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="13"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="25"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="13"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="25"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="13"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="25"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="13"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="25"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="14"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="12"/>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="25"/>
-      <c r="B104" s="16" t="s">
+      <c r="A104" s="13"/>
+      <c r="B104" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="19">
+      <c r="C104" s="21">
         <v>86.45</v>
       </c>
       <c r="D104" s="22">
         <v>82</v>
       </c>
-      <c r="E104" s="12"/>
+      <c r="E104" s="10"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="25"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="13"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="25"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="13"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="25"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="13"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="25"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="13"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="25"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="13"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="11"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="25"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="13"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="25"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="13"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="11"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="25"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="14"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="25"/>
-      <c r="B113" s="16" t="s">
+      <c r="A113" s="13"/>
+      <c r="B113" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="19">
+      <c r="C113" s="21">
         <v>89.68</v>
       </c>
       <c r="D113" s="22">
         <v>92</v>
       </c>
-      <c r="E113" s="12"/>
+      <c r="E113" s="10"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="25"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="13"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="11"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115" s="25"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="13"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="11"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116" s="25"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="13"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="11"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117" s="25"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="13"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="11"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118" s="25"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="13"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="11"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="25"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="13"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="11"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120" s="25"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="13"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="11"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121" s="25"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="14"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="12"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122" s="25"/>
-      <c r="B122" s="16" t="s">
+      <c r="A122" s="13"/>
+      <c r="B122" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="19">
+      <c r="C122" s="21">
         <v>86.67</v>
       </c>
       <c r="D122" s="22">
         <v>84</v>
       </c>
-      <c r="E122" s="12"/>
+      <c r="E122" s="10"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123" s="25"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="13"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="11"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" s="25"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="13"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="11"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A125" s="25"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="13"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="11"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126" s="25"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="13"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="11"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127" s="25"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="13"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="11"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A128" s="25"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="13"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="11"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A129" s="25"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="13"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="11"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A130" s="25"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="14"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="12"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A131" s="25"/>
-      <c r="B131" s="16" t="s">
+      <c r="A131" s="13"/>
+      <c r="B131" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="19">
+      <c r="C131" s="21">
         <v>94.41</v>
       </c>
       <c r="D131" s="22">
         <v>91</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E131" s="10">
         <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A132" s="25"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="13"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="11"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133" s="25"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="13"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="11"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" s="25"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="13"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="11"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" s="25"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="13"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="11"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" s="25"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="13"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="11"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137" s="25"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="13"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="11"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138" s="25"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="13"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="11"/>
     </row>
     <row r="139" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="25"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="14"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="12"/>
     </row>
     <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B140" s="11"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="9">
         <f>SUM(C95:C139)/5</f>
         <v>88.474000000000004</v>
@@ -4019,58 +4113,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E29:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="A39:A65"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="C76:C84"/>
-    <mergeCell ref="D76:D84"/>
-    <mergeCell ref="E76:E84"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:A93"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="A95:A139"/>
-    <mergeCell ref="B95:B103"/>
-    <mergeCell ref="C95:C103"/>
-    <mergeCell ref="D95:D103"/>
-    <mergeCell ref="E95:E103"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="C104:C112"/>
-    <mergeCell ref="E122:E130"/>
-    <mergeCell ref="E131:E139"/>
-    <mergeCell ref="E104:E112"/>
-    <mergeCell ref="E113:E121"/>
     <mergeCell ref="A140:B140"/>
     <mergeCell ref="E85:E93"/>
     <mergeCell ref="E67:E75"/>
@@ -4087,6 +4129,58 @@
     <mergeCell ref="C113:C121"/>
     <mergeCell ref="D113:D121"/>
     <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:A139"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="D95:D103"/>
+    <mergeCell ref="E95:E103"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="C104:C112"/>
+    <mergeCell ref="E122:E130"/>
+    <mergeCell ref="E131:E139"/>
+    <mergeCell ref="E104:E112"/>
+    <mergeCell ref="E113:E121"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="D76:D84"/>
+    <mergeCell ref="E76:E84"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:A93"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="A39:A65"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="E29:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4097,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E277BC-F87C-4ABA-847E-22FC479E5A03}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="81" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="81" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4111,858 +4205,829 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="39"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="36"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="29"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="36"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="29"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="36"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="29"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="36"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="36"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="29"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="36"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="29"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="36"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="29"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="36"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="29"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="36"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="36"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="29"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="36"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="29"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="36"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="29"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="36"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="29"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="36"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="29"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="36"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="29"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="36"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="29"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="37"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="30"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
         <f>100-12</f>
         <v>88</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="36"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="29"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="36"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="29"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="36"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="29"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="36"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="36"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="36"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="29"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="36"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="29"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="36"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="29"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="36"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
         <f>100-12</f>
         <v>88</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="36"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="29"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="36"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="29"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="36"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="29"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="36"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="29"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="36"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="29"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="36"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="29"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="36"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="29"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="37"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="30"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34">
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36">
         <f>100-9</f>
         <v>91</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="29">
         <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="36"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="29"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="36"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="29"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="36"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="29"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="36"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="29"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="36"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="29"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="36"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="29"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="36"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="29"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="36"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="29"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="36"/>
-      <c r="B48" s="23" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23">
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18">
         <f>100-9</f>
         <v>91</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="36"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="29"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="36"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="29"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="36"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="29"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="36"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="29"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="36"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="29"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="36"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="29"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="36"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="29"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="37"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="30"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="32"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="35"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36">
+        <f>100-15</f>
+        <v>85</v>
+      </c>
+      <c r="F57" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="36"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="29"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="36"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="29"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="30"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="36"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="29"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="30"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="36"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="29"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="30"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="36"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="29"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="30"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="36"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="29"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="30"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="36"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="29"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="30"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="36"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="29"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="30"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="36"/>
-      <c r="B66" s="23" t="s">
+      <c r="A66" s="34"/>
+      <c r="B66" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="29"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="30"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="36"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="29"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="30"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="36"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="29"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="30"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="36"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="29"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="30"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="36"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="29"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="36"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="29"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="36"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="29"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="30"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="36"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="29"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="30"/>
     </row>
     <row r="74" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="37"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="30"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="32"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="35"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="29"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="36"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="29"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="30"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="36"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="29"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="30"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="36"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="29"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="30"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="36"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="29"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="30"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="36"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="29"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="36"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="29"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="36"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="29"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="30"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="36"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="29"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="30"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="36"/>
-      <c r="B84" s="23" t="s">
+      <c r="A84" s="34"/>
+      <c r="B84" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="29"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="30"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="36"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="29"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="36"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="29"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="36"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="29"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="30"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="36"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="29"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="30"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="36"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="29"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="30"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="36"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="29"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="30"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="36"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="29"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="30"/>
     </row>
     <row r="92" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="37"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="30"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="F75:F83"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="C84:C92"/>
-    <mergeCell ref="D84:D92"/>
-    <mergeCell ref="E84:E92"/>
-    <mergeCell ref="F84:F92"/>
-    <mergeCell ref="A75:A92"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="D75:D83"/>
-    <mergeCell ref="E75:E83"/>
-    <mergeCell ref="F57:F65"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C74"/>
-    <mergeCell ref="D66:D74"/>
-    <mergeCell ref="E66:E74"/>
-    <mergeCell ref="F66:F74"/>
-    <mergeCell ref="A57:A74"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="F39:F47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="F48:F56"/>
-    <mergeCell ref="A39:A56"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="E12:E20"/>
+    <mergeCell ref="F12:F20"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="F3:F11"/>
     <mergeCell ref="A21:A38"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="C21:C29"/>
@@ -4972,15 +5037,49 @@
     <mergeCell ref="C30:C38"/>
     <mergeCell ref="D30:D38"/>
     <mergeCell ref="E30:E38"/>
-    <mergeCell ref="F30:F38"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="E12:E20"/>
-    <mergeCell ref="F12:F20"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="A39:A56"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="F39:F47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="F48:F56"/>
+    <mergeCell ref="A57:A74"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="F57:F65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="D66:D74"/>
+    <mergeCell ref="E66:E74"/>
+    <mergeCell ref="F66:F74"/>
+    <mergeCell ref="A75:A92"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="D75:D83"/>
+    <mergeCell ref="E75:E83"/>
+    <mergeCell ref="F75:F83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="C84:C92"/>
+    <mergeCell ref="D84:D92"/>
+    <mergeCell ref="E84:E92"/>
+    <mergeCell ref="F84:F92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5007,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.265625</v>
+        <v>0.46875</v>
       </c>
       <c r="N2">
         <f>1+L2</f>
@@ -5015,7 +5114,7 @@
       </c>
       <c r="O2">
         <f>100*(1-M2)</f>
-        <v>73.4375</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="3" spans="12:15" x14ac:dyDescent="0.45">
@@ -5023,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.140625</v>
+        <v>0.28125</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -5031,7 +5130,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>85.9375</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -5039,7 +5138,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.125</v>
+        <v>0.234375</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -5047,7 +5146,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -5055,7 +5154,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.140625</v>
+        <v>0.296875</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -5063,7 +5162,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -5071,7 +5170,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.15625</v>
+        <v>0.25</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -5079,7 +5178,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -5087,7 +5186,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.1875</v>
+        <v>0.21875</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -5095,7 +5194,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -5103,7 +5202,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -5111,7 +5210,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -5119,7 +5218,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.140625</v>
+        <v>0.234375</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -5127,7 +5226,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -5135,7 +5234,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -5143,7 +5242,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -5151,7 +5250,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.140625</v>
+        <v>0.21875</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -5159,7 +5258,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -5167,7 +5266,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.125</v>
+        <v>0.21875</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -5175,7 +5274,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -5183,7 +5282,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.140625</v>
+        <v>0.234375</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -5191,7 +5290,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -5199,7 +5298,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.3125</v>
+        <v>0.296875</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -5207,7 +5306,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -5215,7 +5314,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.125</v>
+        <v>0.21875</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -5223,7 +5322,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -5231,7 +5330,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.15625</v>
+        <v>0.390625</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -5239,7 +5338,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -5247,7 +5346,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.109375</v>
+        <v>0.28125</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -5255,7 +5354,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -5263,7 +5362,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.140625</v>
+        <v>0.234375</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -5271,7 +5370,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -5279,7 +5378,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.171875</v>
+        <v>0.234375</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -5287,7 +5386,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -5295,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.40625</v>
+        <v>0.1875</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -5303,7 +5402,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -5311,7 +5410,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.203125</v>
+        <v>0.234375</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -5319,7 +5418,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -5327,7 +5426,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.109375</v>
+        <v>0.203125</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -5335,7 +5434,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -5343,7 +5442,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.21875</v>
+        <v>0.203125</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -5351,7 +5450,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -5359,7 +5458,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>7.8125E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -5367,7 +5466,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -5375,7 +5474,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -5383,7 +5482,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -5391,7 +5490,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -5399,7 +5498,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -5407,7 +5506,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.109375</v>
+        <v>0.234375</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -5415,7 +5514,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -5423,7 +5522,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.125</v>
+        <v>0.265625</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -5431,7 +5530,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -5439,7 +5538,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.109375</v>
+        <v>0.171875</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -5447,7 +5546,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -5455,7 +5554,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.109375</v>
+        <v>0.265625</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -5463,7 +5562,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -5471,7 +5570,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.109375</v>
+        <v>0.203125</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5479,7 +5578,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -5487,7 +5586,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.109375</v>
+        <v>0.21875</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -5495,7 +5594,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -5503,7 +5602,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.109375</v>
+        <v>0.203125</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -5511,7 +5610,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -5519,7 +5618,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -5527,7 +5626,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -5535,7 +5634,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.109375</v>
+        <v>0.1875</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -5543,7 +5642,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -5551,7 +5650,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.109375</v>
+        <v>0.203125</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -5559,7 +5658,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -5567,7 +5666,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>9.375E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -5575,7 +5674,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -5583,7 +5682,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>9.375E-2</v>
+        <v>0.234375</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -5591,7 +5690,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -5599,7 +5698,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -5607,7 +5706,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -5615,7 +5714,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>9.375E-2</v>
+        <v>0.234375</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -5623,7 +5722,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -5631,7 +5730,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -5639,7 +5738,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -5647,7 +5746,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>9.375E-2</v>
+        <v>0.21875</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -5655,7 +5754,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -5663,7 +5762,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>9.375E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -5671,7 +5770,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -5679,7 +5778,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -5687,7 +5786,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -5695,7 +5794,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -5703,7 +5802,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -5711,7 +5810,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -5719,7 +5818,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -5727,7 +5826,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -5735,7 +5834,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -5743,7 +5842,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -5751,7 +5850,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -5759,7 +5858,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>9.375E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -5767,7 +5866,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -5775,7 +5874,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>9.375E-2</v>
+        <v>0.28125</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -5783,7 +5882,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -5791,7 +5890,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -5799,7 +5898,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -5807,7 +5906,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>9.375E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -5815,7 +5914,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -5823,7 +5922,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -5831,7 +5930,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -5839,7 +5938,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -5847,7 +5946,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -5855,7 +5954,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -5863,7 +5962,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -5871,7 +5970,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -5879,7 +5978,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -5887,7 +5986,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -5895,7 +5994,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -5903,7 +6002,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -5911,7 +6010,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -5919,7 +6018,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -5927,7 +6026,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -5935,7 +6034,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -5943,7 +6042,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -5951,7 +6050,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -5959,7 +6058,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -5967,7 +6066,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -5975,7 +6074,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -5983,7 +6082,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -5991,7 +6090,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -5999,7 +6098,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.109375</v>
+        <v>0.15625</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -6007,7 +6106,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -6015,7 +6114,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.109375</v>
+        <v>0.203125</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -6023,7 +6122,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -6031,7 +6130,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -6039,7 +6138,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -6047,7 +6146,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -6055,7 +6154,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>87.5</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -6063,7 +6162,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -6071,7 +6170,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -6079,7 +6178,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -6087,7 +6186,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -6095,7 +6194,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -6103,7 +6202,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -6111,7 +6210,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -6119,7 +6218,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -6127,7 +6226,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -6135,7 +6234,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -6143,7 +6242,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -6151,7 +6250,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -6159,7 +6258,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -6167,7 +6266,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -6175,7 +6274,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -6183,7 +6282,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -6191,7 +6290,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -6199,7 +6298,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -6207,7 +6306,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -6215,7 +6314,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -6223,7 +6322,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -6231,7 +6330,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -6239,7 +6338,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -6247,7 +6346,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -6255,7 +6354,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -6263,7 +6362,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -6271,7 +6370,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -6279,7 +6378,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -6287,7 +6386,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -6295,7 +6394,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -6303,7 +6402,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -6311,7 +6410,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -6319,7 +6418,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -6327,7 +6426,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -6335,7 +6434,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -6343,7 +6442,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -6351,7 +6450,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -6359,7 +6458,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -6367,7 +6466,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -6375,7 +6474,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -6383,7 +6482,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -6391,7 +6490,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -6399,7 +6498,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -6407,7 +6506,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -6415,7 +6514,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -6423,7 +6522,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -6431,7 +6530,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -6439,7 +6538,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -6447,7 +6546,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -6455,7 +6554,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -6463,7 +6562,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -6471,7 +6570,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -6479,7 +6578,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -6487,7 +6586,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -6495,7 +6594,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -6503,7 +6602,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -6511,7 +6610,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -6519,7 +6618,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -6527,7 +6626,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -6535,7 +6634,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -6543,7 +6642,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -6551,7 +6650,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -6559,7 +6658,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -6567,7 +6666,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -6575,7 +6674,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -6583,7 +6682,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -6591,7 +6690,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -6599,7 +6698,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -6607,7 +6706,7 @@
         <v>50</v>
       </c>
       <c r="M102">
-        <v>0.125</v>
+        <v>0.140625</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -6615,7 +6714,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -6623,7 +6722,7 @@
         <v>50</v>
       </c>
       <c r="M103">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -6631,7 +6730,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -6639,7 +6738,7 @@
         <v>50</v>
       </c>
       <c r="M104">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -6647,7 +6746,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -6655,7 +6754,7 @@
         <v>50</v>
       </c>
       <c r="M105">
-        <v>6.25E-2</v>
+        <v>0.203125</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -6663,7 +6762,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -6671,7 +6770,7 @@
         <v>50</v>
       </c>
       <c r="M106">
-        <v>6.25E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -6679,7 +6778,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -6687,7 +6786,7 @@
         <v>50</v>
       </c>
       <c r="M107">
-        <v>7.8125E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -6695,7 +6794,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
@@ -6703,7 +6802,7 @@
         <v>50</v>
       </c>
       <c r="M108">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -6711,7 +6810,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -6719,7 +6818,7 @@
         <v>50</v>
       </c>
       <c r="M109">
-        <v>7.8125E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -6727,7 +6826,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -6735,7 +6834,7 @@
         <v>50</v>
       </c>
       <c r="M110">
-        <v>6.25E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -6743,7 +6842,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -6751,7 +6850,7 @@
         <v>50</v>
       </c>
       <c r="M111">
-        <v>3.125E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -6759,7 +6858,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>96.875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -6767,7 +6866,7 @@
         <v>50</v>
       </c>
       <c r="M112">
-        <v>4.6875E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -6775,7 +6874,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>95.3125</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -6783,7 +6882,7 @@
         <v>50</v>
       </c>
       <c r="M113">
-        <v>0.15625</v>
+        <v>0.203125</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -6791,7 +6890,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
@@ -6799,7 +6898,7 @@
         <v>50</v>
       </c>
       <c r="M114">
-        <v>7.8125E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -6807,7 +6906,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
@@ -6815,7 +6914,7 @@
         <v>50</v>
       </c>
       <c r="M115">
-        <v>7.8125E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -6823,7 +6922,7 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
@@ -6831,7 +6930,7 @@
         <v>50</v>
       </c>
       <c r="M116">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -6839,7 +6938,7 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
@@ -6847,7 +6946,7 @@
         <v>50</v>
       </c>
       <c r="M117">
-        <v>6.25E-2</v>
+        <v>0.234375</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -6855,7 +6954,7 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
@@ -6863,7 +6962,7 @@
         <v>50</v>
       </c>
       <c r="M118">
-        <v>0.1475409836065574</v>
+        <v>0.13114754098360659</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -6871,7 +6970,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>85.245901639344254</v>
+        <v>86.885245901639337</v>
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthic Speaker (Data Augmentation).xlsx
+++ b/Dysarthic Speaker (Data Augmentation).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D4F1A3-CD24-4C05-9565-994E9CC3D670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83E0716-C675-4D6D-8762-7E8DA403B414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
   </bookViews>
@@ -190,7 +190,7 @@
     <t>Augmented_M09_TE</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f80b52a8b50&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f540ffb6a00&gt;</t>
   </si>
 </sst>
 </file>
@@ -894,163 +894,163 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>53.125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.875</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.3125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.25</c:v>
+                  <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76.5625</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.25</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>78.125</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>76.5625</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.3125</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.9375</c:v>
+                  <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>71.875</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>76.5625</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>76.5625</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>81.25</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>79.6875</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>79.6875</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>85.9375</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>82.8125</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>71.875</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>82.8125</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>81.25</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>84.375</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>82.8125</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>85.9375</c:v>
@@ -1059,37 +1059,37 @@
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>87.5</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>87.5</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>90.625</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>79.6875</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>81.25</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>85.9375</c:v>
@@ -1143,55 +1143,55 @@
                   <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,23 +2513,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123473</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>99954</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>79376</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>35277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2130386</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>26273</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>146991</xdr:rowOff>
+      <xdr:rowOff>70556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15085460-1420-E7E8-A99D-C19C8E13AA54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BED5F51-3313-5D1F-42AD-AE496B20F312}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2538,51 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4859515" y="10592153"/>
+          <a:ext cx="2239952" cy="1331736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114653</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>132292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2078449</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{731B8D2B-8043-9DC0-AD0F-55B940A66389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2551,52 +2595,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2681113" y="10330510"/>
-          <a:ext cx="2006913" cy="1505185"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>23519</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>41157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2751</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC9FB2B-F122-76CA-5600-4BE8A4AD381D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4797778" y="10453982"/>
-          <a:ext cx="2272288" cy="1340555"/>
+          <a:off x="2672292" y="10503959"/>
+          <a:ext cx="1963796" cy="1472847"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2948,7 +2948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368169AB-26AB-4A58-844A-57BD7F02F01B}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="46" workbookViewId="0">
+    <sheetView topLeftCell="A99" zoomScale="46" workbookViewId="0">
       <selection activeCell="C104" sqref="C104:C112"/>
     </sheetView>
   </sheetViews>
@@ -4191,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E277BC-F87C-4ABA-847E-22FC479E5A03}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="81" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="54" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4722,12 +4722,10 @@
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
       <c r="E57" s="36">
-        <f>100-15</f>
-        <v>85</v>
-      </c>
-      <c r="F57" s="29">
-        <v>3</v>
-      </c>
+        <f>100-16</f>
+        <v>84</v>
+      </c>
+      <c r="F57" s="29"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="34"/>
@@ -5106,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N2">
         <f>1+L2</f>
@@ -5114,7 +5112,7 @@
       </c>
       <c r="O2">
         <f>100*(1-M2)</f>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="3" spans="12:15" x14ac:dyDescent="0.45">
@@ -5122,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -5130,7 +5128,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>71.875</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -5138,7 +5136,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.234375</v>
+        <v>0.25</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -5146,7 +5144,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -5154,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.296875</v>
+        <v>0.265625</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -5162,7 +5160,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>70.3125</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -5170,7 +5168,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.25</v>
+        <v>0.234375</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -5178,7 +5176,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -5202,7 +5200,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.1875</v>
+        <v>0.234375</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -5210,7 +5208,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -5218,7 +5216,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.234375</v>
+        <v>0.265625</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -5226,7 +5224,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -5234,7 +5232,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -5242,7 +5240,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -5266,7 +5264,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.21875</v>
+        <v>0.234375</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -5274,7 +5272,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -5282,7 +5280,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.234375</v>
+        <v>0.21875</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -5290,7 +5288,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -5298,7 +5296,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.296875</v>
+        <v>0.265625</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -5306,7 +5304,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>70.3125</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -5330,7 +5328,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.390625</v>
+        <v>0.21875</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -5338,7 +5336,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -5346,7 +5344,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.28125</v>
+        <v>0.21875</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -5354,7 +5352,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>71.875</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -5362,7 +5360,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.234375</v>
+        <v>0.28125</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -5370,7 +5368,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -5378,7 +5376,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.234375</v>
+        <v>0.203125</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -5386,7 +5384,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -5394,7 +5392,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.1875</v>
+        <v>0.171875</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -5402,7 +5400,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -5426,7 +5424,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.203125</v>
+        <v>0.1875</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -5434,7 +5432,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -5458,7 +5456,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.1875</v>
+        <v>0.171875</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -5466,7 +5464,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -5474,7 +5472,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.15625</v>
+        <v>0.21875</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -5482,7 +5480,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -5490,7 +5488,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.140625</v>
+        <v>0.203125</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -5498,7 +5496,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -5506,7 +5504,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.234375</v>
+        <v>0.125</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -5514,7 +5512,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -5522,7 +5520,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.265625</v>
+        <v>0.15625</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -5530,7 +5528,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -5538,7 +5536,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.171875</v>
+        <v>0.21875</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -5546,7 +5544,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -5554,7 +5552,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.265625</v>
+        <v>0.140625</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -5562,7 +5560,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -5570,7 +5568,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.203125</v>
+        <v>0.234375</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5578,7 +5576,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -5586,7 +5584,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.21875</v>
+        <v>0.40625</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -5594,7 +5592,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -5602,7 +5600,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.203125</v>
+        <v>0.3125</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -5610,7 +5608,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -5618,7 +5616,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -5626,7 +5624,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -5650,7 +5648,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.203125</v>
+        <v>0.15625</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -5658,7 +5656,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -5666,7 +5664,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.1875</v>
+        <v>0.171875</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -5674,7 +5672,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -5682,7 +5680,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.234375</v>
+        <v>0.15625</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -5690,7 +5688,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -5698,7 +5696,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -5706,7 +5704,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -5714,7 +5712,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.234375</v>
+        <v>0.15625</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -5722,7 +5720,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -5730,7 +5728,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.125</v>
+        <v>0.234375</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -5738,7 +5736,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -5746,7 +5744,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.21875</v>
+        <v>0.25</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -5754,7 +5752,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -5762,7 +5760,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -5770,7 +5768,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -5778,7 +5776,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.171875</v>
+        <v>0.234375</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -5786,7 +5784,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -5794,7 +5792,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.140625</v>
+        <v>0.203125</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -5802,7 +5800,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -5810,7 +5808,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.171875</v>
+        <v>0.15625</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -5818,7 +5816,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -5842,7 +5840,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -5850,7 +5848,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -5858,7 +5856,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.1875</v>
+        <v>0.15625</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -5866,7 +5864,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -5874,7 +5872,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.28125</v>
+        <v>0.171875</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -5882,7 +5880,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>71.875</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -5890,7 +5888,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.171875</v>
+        <v>0.140625</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -5898,7 +5896,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -5906,7 +5904,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -5914,7 +5912,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -5922,7 +5920,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -5930,7 +5928,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -5938,7 +5936,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -5946,7 +5944,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -5986,7 +5984,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -5994,7 +5992,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -6002,7 +6000,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -6010,7 +6008,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -6034,7 +6032,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -6042,7 +6040,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -6050,7 +6048,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.125</v>
+        <v>0.203125</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -6058,7 +6056,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -6082,7 +6080,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -6090,7 +6088,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -6114,7 +6112,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.203125</v>
+        <v>0.15625</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -6122,7 +6120,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -6146,7 +6144,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.1875</v>
+        <v>0.171875</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -6154,7 +6152,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>81.25</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -6434,7 +6432,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -6442,7 +6440,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -6450,7 +6448,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -6458,7 +6456,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -6466,7 +6464,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -6474,7 +6472,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -6482,7 +6480,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -6490,7 +6488,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -6498,7 +6496,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -6506,7 +6504,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -6514,7 +6512,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -6522,7 +6520,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -6530,7 +6528,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -6538,7 +6536,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -6546,7 +6544,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -6554,7 +6552,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -6562,7 +6560,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -6570,7 +6568,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -6578,7 +6576,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -6586,7 +6584,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -6594,7 +6592,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -6602,7 +6600,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -6610,7 +6608,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -6618,7 +6616,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -6626,7 +6624,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -6634,7 +6632,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -6642,7 +6640,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -6650,7 +6648,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -6658,7 +6656,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -6666,7 +6664,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -6674,7 +6672,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -6682,7 +6680,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -6690,7 +6688,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -6698,7 +6696,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -6706,7 +6704,7 @@
         <v>50</v>
       </c>
       <c r="M102">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -6714,7 +6712,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -6722,7 +6720,7 @@
         <v>50</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -6730,7 +6728,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -6754,7 +6752,7 @@
         <v>50</v>
       </c>
       <c r="M105">
-        <v>0.203125</v>
+        <v>0.171875</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -6762,7 +6760,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -6770,7 +6768,7 @@
         <v>50</v>
       </c>
       <c r="M106">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -6778,7 +6776,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -6786,7 +6784,7 @@
         <v>50</v>
       </c>
       <c r="M107">
-        <v>0.15625</v>
+        <v>0.21875</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -6794,7 +6792,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
@@ -6802,7 +6800,7 @@
         <v>50</v>
       </c>
       <c r="M108">
-        <v>9.375E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -6810,7 +6808,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -6818,7 +6816,7 @@
         <v>50</v>
       </c>
       <c r="M109">
-        <v>0.171875</v>
+        <v>0.21875</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -6826,7 +6824,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -6834,7 +6832,7 @@
         <v>50</v>
       </c>
       <c r="M110">
-        <v>0.171875</v>
+        <v>0.15625</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -6842,7 +6840,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -6850,7 +6848,7 @@
         <v>50</v>
       </c>
       <c r="M111">
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -6858,7 +6856,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -6866,7 +6864,7 @@
         <v>50</v>
       </c>
       <c r="M112">
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -6874,7 +6872,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -6882,7 +6880,7 @@
         <v>50</v>
       </c>
       <c r="M113">
-        <v>0.203125</v>
+        <v>0.1875</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -6890,7 +6888,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
@@ -6898,7 +6896,7 @@
         <v>50</v>
       </c>
       <c r="M114">
-        <v>0.171875</v>
+        <v>0.21875</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -6906,7 +6904,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
@@ -6914,7 +6912,7 @@
         <v>50</v>
       </c>
       <c r="M115">
-        <v>0.171875</v>
+        <v>0.203125</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -6922,7 +6920,7 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
@@ -6930,7 +6928,7 @@
         <v>50</v>
       </c>
       <c r="M116">
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -6938,7 +6936,7 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
@@ -6946,7 +6944,7 @@
         <v>50</v>
       </c>
       <c r="M117">
-        <v>0.234375</v>
+        <v>0.203125</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -6954,7 +6952,7 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>76.5625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
@@ -6962,7 +6960,7 @@
         <v>50</v>
       </c>
       <c r="M118">
-        <v>0.13114754098360659</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -6970,7 +6968,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>86.885245901639337</v>
+        <v>85.245901639344254</v>
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthic Speaker (Data Augmentation).xlsx
+++ b/Dysarthic Speaker (Data Augmentation).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83E0716-C675-4D6D-8762-7E8DA403B414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69EE27D-FB58-405B-9114-6936A150FB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
   </bookViews>
@@ -190,7 +190,7 @@
     <t>Augmented_M09_TE</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f540ffb6a00&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7fd6d7740a00&gt;</t>
   </si>
 </sst>
 </file>
@@ -695,6 +695,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,7 +710,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -713,11 +722,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -725,19 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -749,22 +752,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -773,19 +779,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -793,6 +790,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,259 +894,259 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>54.6875</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>71.875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>79.6875</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>76.5625</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>59.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>68.75</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>81.25</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>81.25</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>84.375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>82.8125</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>87.5</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>84.375</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>76.5625</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>75</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>75</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>76.5625</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>79.6875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>84.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>84.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>82.8125</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>84.375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>82.8125</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>79.6875</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>85.9375</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>85.9375</c:v>
-                </c:pt>
                 <c:pt idx="67">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>85.9375</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>87.5</c:v>
@@ -2605,6 +2605,194 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52917</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>35279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2240014</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FB64D6-BC3C-AA52-A7A7-B1674F4CB997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4833056" y="12259029"/>
+          <a:ext cx="2187097" cy="1314096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2099028</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>127884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF7B3A3-CCD4-1D1C-7E2E-87F5342481EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2663473" y="12153197"/>
+          <a:ext cx="1993194" cy="1494896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>61736</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>44097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2201921</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>167570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C320883B-FAB2-AD8E-309D-954FC0458887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="13749514"/>
+          <a:ext cx="2140185" cy="1605139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17639</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>149931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2245014</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD133B68-4573-644D-8210-7B9884FD08B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4797778" y="13855348"/>
+          <a:ext cx="2227375" cy="1331736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2948,7 +3136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368169AB-26AB-4A58-844A-57BD7F02F01B}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="46" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="46" workbookViewId="0">
       <selection activeCell="C104" sqref="C104:C112"/>
     </sheetView>
   </sheetViews>
@@ -2979,316 +3167,316 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="20">
         <v>10.94</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="23">
         <v>7</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="13"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>32.47</v>
       </c>
       <c r="D11" s="22">
         <f>100-71</f>
         <v>29</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="12"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="13"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="13"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="13"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="13"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="13"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="13"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="13"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="14"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <v>40.65</v>
       </c>
       <c r="D20" s="22">
         <v>19</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="12"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="13"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="13"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="13"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="13"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="13"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="13"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="13"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="14"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="13"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="19">
         <v>28.39</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="12"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="11"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="13"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="11"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="13"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="11"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="13"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="11"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="13"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="11"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="13"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="11"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="13"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="11"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="13"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="12"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="14"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="8">
         <f xml:space="preserve"> SUM(C2:C37)/4</f>
         <v>28.112500000000001</v>
@@ -3300,219 +3488,219 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="20">
         <v>69.459999999999994</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="23">
         <v>53</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="26"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="11"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="26"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="11"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="26"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="11"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="26"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="11"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="26"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="11"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="26"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="11"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="26"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="11"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="26"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="12"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="26"/>
-      <c r="B48" s="20" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="19">
         <v>67.02</v>
       </c>
       <c r="D48" s="22">
         <v>52</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="26"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="11"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="26"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="11"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="26"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="11"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="26"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="11"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="26"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="11"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="26"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="11"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="26"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="11"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="26"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="12"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="26"/>
-      <c r="B57" s="20" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="19">
         <v>55.91</v>
       </c>
       <c r="D57" s="22">
         <v>57</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="26"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="11"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="26"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="11"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="26"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="11"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="26"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="11"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="26"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="11"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="26"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="11"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="26"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="11"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="27"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="12"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="8">
         <f>SUM(C39:C65)/3</f>
         <v>64.13</v>
@@ -3524,219 +3712,219 @@
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="20">
         <v>64.95</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="23">
         <v>55</v>
       </c>
-      <c r="E67" s="10"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="11"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="11"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="11"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="11"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="11"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="11"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="11"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="13"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="12"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="13"/>
-      <c r="B76" s="20" t="s">
+      <c r="A76" s="25"/>
+      <c r="B76" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="19">
         <v>49.68</v>
       </c>
       <c r="D76" s="22">
         <v>51</v>
       </c>
-      <c r="E76" s="10"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="11"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="13"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="11"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="11"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="11"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="11"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="11"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="11"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="13"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="12"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="13"/>
-      <c r="B85" s="20" t="s">
+      <c r="A85" s="25"/>
+      <c r="B85" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="19">
         <v>53.98</v>
       </c>
       <c r="D85" s="22">
         <v>64</v>
       </c>
-      <c r="E85" s="10"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="13"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="11"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="13"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="11"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="13"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="11"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="13"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="11"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="11"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="13"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="11"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="13"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="11"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="13"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="12"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="14"/>
     </row>
     <row r="94" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="24"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="8">
         <f>SUM(C67:C93)/3</f>
         <v>56.203333333333326</v>
@@ -3748,359 +3936,359 @@
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C95" s="20">
         <v>85.16</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="23">
         <v>82</v>
       </c>
-      <c r="E95" s="10"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="13"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="11"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="13"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="11"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="13"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="11"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="13"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="11"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="13"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="11"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="13"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="11"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="13"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="11"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="13"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="12"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="14"/>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="13"/>
-      <c r="B104" s="20" t="s">
+      <c r="A104" s="25"/>
+      <c r="B104" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="19">
         <v>86.45</v>
       </c>
       <c r="D104" s="22">
         <v>82</v>
       </c>
-      <c r="E104" s="10"/>
+      <c r="E104" s="12"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="13"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="11"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="13"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="11"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="13"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="11"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="13"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="13"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="11"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="13"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="13"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="11"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="13"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="13"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="11"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="13"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="13"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="11"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="13"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="13"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="12"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="14"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="13"/>
-      <c r="B113" s="20" t="s">
+      <c r="A113" s="25"/>
+      <c r="B113" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="19">
         <v>89.68</v>
       </c>
       <c r="D113" s="22">
         <v>92</v>
       </c>
-      <c r="E113" s="10"/>
+      <c r="E113" s="12"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="13"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="11"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115" s="13"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="11"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="13"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116" s="13"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="11"/>
+      <c r="A116" s="25"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="13"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117" s="13"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="11"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118" s="13"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="11"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="13"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="11"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="13"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120" s="13"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="11"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="13"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121" s="13"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="12"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="14"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122" s="13"/>
-      <c r="B122" s="20" t="s">
+      <c r="A122" s="25"/>
+      <c r="B122" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="21">
+      <c r="C122" s="19">
         <v>86.67</v>
       </c>
       <c r="D122" s="22">
         <v>84</v>
       </c>
-      <c r="E122" s="10"/>
+      <c r="E122" s="12"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123" s="13"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="11"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" s="13"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="11"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A125" s="13"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="11"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126" s="13"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="11"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="13"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127" s="13"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="11"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A128" s="13"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="11"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="13"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A129" s="13"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="11"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="13"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A130" s="13"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="12"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="14"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A131" s="13"/>
-      <c r="B131" s="20" t="s">
+      <c r="A131" s="25"/>
+      <c r="B131" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="21">
+      <c r="C131" s="19">
         <v>94.41</v>
       </c>
       <c r="D131" s="22">
         <v>91</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="12">
         <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A132" s="13"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="11"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="13"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133" s="13"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="11"/>
+      <c r="A133" s="25"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="13"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" s="13"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="11"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="13"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" s="13"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="11"/>
+      <c r="A135" s="25"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="13"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" s="13"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="11"/>
+      <c r="A136" s="25"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="13"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137" s="13"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="11"/>
+      <c r="A137" s="25"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138" s="13"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="11"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="13"/>
     </row>
     <row r="139" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="13"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="12"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="14"/>
     </row>
     <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="23" t="s">
+      <c r="A140" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B140" s="24"/>
+      <c r="B140" s="11"/>
       <c r="C140" s="9">
         <f>SUM(C95:C139)/5</f>
         <v>88.474000000000004</v>
@@ -4113,6 +4301,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="A39:A65"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="D76:D84"/>
+    <mergeCell ref="E76:E84"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:A93"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="A95:A139"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="D95:D103"/>
+    <mergeCell ref="E95:E103"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="C104:C112"/>
+    <mergeCell ref="E122:E130"/>
+    <mergeCell ref="E131:E139"/>
+    <mergeCell ref="E104:E112"/>
+    <mergeCell ref="E113:E121"/>
     <mergeCell ref="A140:B140"/>
     <mergeCell ref="E85:E93"/>
     <mergeCell ref="E67:E75"/>
@@ -4129,58 +4369,6 @@
     <mergeCell ref="C113:C121"/>
     <mergeCell ref="D113:D121"/>
     <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:A139"/>
-    <mergeCell ref="B95:B103"/>
-    <mergeCell ref="C95:C103"/>
-    <mergeCell ref="D95:D103"/>
-    <mergeCell ref="E95:E103"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="C104:C112"/>
-    <mergeCell ref="E122:E130"/>
-    <mergeCell ref="E131:E139"/>
-    <mergeCell ref="E104:E112"/>
-    <mergeCell ref="E113:E121"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="C76:C84"/>
-    <mergeCell ref="D76:D84"/>
-    <mergeCell ref="E76:E84"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:A93"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="A39:A65"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E29:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4191,8 +4379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E277BC-F87C-4ABA-847E-22FC479E5A03}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="54" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="54" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84:E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4205,818 +4393,876 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="42"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="34"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="34"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="30"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="34"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="30"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="34"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="30"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="34"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="34"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="30"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="34"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="30"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="34"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="34"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="34"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="30"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="34"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="30"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="34"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="30"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="34"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="34"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="30"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="34"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="30"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="34"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="30"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="35"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23">
         <f>100-12</f>
         <v>88</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="34"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="30"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="34"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="30"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="34"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="30"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="34"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="30"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="34"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="30"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="34"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="30"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="34"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="30"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="34"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="30"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="34"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23">
         <f>100-12</f>
         <v>88</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="29">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="34"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="30"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="34"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="30"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="34"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="30"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="29"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="34"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="30"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="34"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="30"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="29"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="34"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="30"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="34"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="30"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="35"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36">
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34">
         <f>100-9</f>
         <v>91</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="35">
         <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="34"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="30"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="34"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="30"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="34"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="30"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="34"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="30"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="34"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="30"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="34"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="30"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="34"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="30"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="34"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="30"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="34"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="36"/>
+      <c r="B48" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18">
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23">
         <f>100-9</f>
         <v>91</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="34"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="30"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="34"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="30"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="34"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="30"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="29"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="34"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="30"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="34"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="30"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="29"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="34"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="30"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="29"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="34"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="30"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="29"/>
     </row>
     <row r="56" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="35"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="32"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36">
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34">
         <f>100-16</f>
         <v>84</v>
       </c>
-      <c r="F57" s="29"/>
+      <c r="F57" s="35"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="34"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="30"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="29"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="34"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="30"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="29"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="34"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="30"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="29"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="34"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="30"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="29"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="34"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="30"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="34"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="30"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="29"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="34"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="30"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="34"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="30"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="29"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="34"/>
-      <c r="B66" s="18" t="s">
+      <c r="A66" s="36"/>
+      <c r="B66" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="30"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23">
+        <f>100-15</f>
+        <v>85</v>
+      </c>
+      <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="34"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="30"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="29"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="34"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="30"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="34"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="30"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="29"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="34"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="30"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="29"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="34"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="30"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="29"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="34"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="30"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="29"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="34"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="30"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="29"/>
     </row>
     <row r="74" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="35"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="32"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="30"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="29"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34">
+        <f>100-16</f>
+        <v>84</v>
+      </c>
+      <c r="F75" s="35"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="34"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="30"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="29"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="34"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="30"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="29"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="34"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="30"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="29"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="34"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="30"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="34"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="30"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="34"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="30"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="34"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="30"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="29"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="34"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="30"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="34"/>
-      <c r="B84" s="18" t="s">
+      <c r="A84" s="36"/>
+      <c r="B84" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="30"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="29"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="34"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="30"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="29"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="34"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="30"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="29"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="34"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="30"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="29"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="34"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="30"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="29"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="34"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="30"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="29"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="34"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="30"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="29"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="34"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="30"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="29"/>
     </row>
     <row r="92" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="35"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="32"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="F75:F83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="C84:C92"/>
+    <mergeCell ref="D84:D92"/>
+    <mergeCell ref="E84:E92"/>
+    <mergeCell ref="F84:F92"/>
+    <mergeCell ref="A75:A92"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="D75:D83"/>
+    <mergeCell ref="E75:E83"/>
+    <mergeCell ref="F57:F65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="D66:D74"/>
+    <mergeCell ref="E66:E74"/>
+    <mergeCell ref="F66:F74"/>
+    <mergeCell ref="A57:A74"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="F39:F47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="F48:F56"/>
+    <mergeCell ref="A39:A56"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C38"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E30:E38"/>
     <mergeCell ref="F30:F38"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D12:D20"/>
@@ -5026,58 +5272,6 @@
     <mergeCell ref="D3:D11"/>
     <mergeCell ref="E3:E11"/>
     <mergeCell ref="F3:F11"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C29"/>
-    <mergeCell ref="D21:D29"/>
-    <mergeCell ref="E21:E29"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C38"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="E30:E38"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="A39:A56"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="F39:F47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="F48:F56"/>
-    <mergeCell ref="A57:A74"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="F57:F65"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C74"/>
-    <mergeCell ref="D66:D74"/>
-    <mergeCell ref="E66:E74"/>
-    <mergeCell ref="F66:F74"/>
-    <mergeCell ref="A75:A92"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="D75:D83"/>
-    <mergeCell ref="E75:E83"/>
-    <mergeCell ref="F75:F83"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="C84:C92"/>
-    <mergeCell ref="D84:D92"/>
-    <mergeCell ref="E84:E92"/>
-    <mergeCell ref="F84:F92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5104,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.453125</v>
+        <v>0.625</v>
       </c>
       <c r="N2">
         <f>1+L2</f>
@@ -5112,7 +5306,7 @@
       </c>
       <c r="O2">
         <f>100*(1-M2)</f>
-        <v>54.6875</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="3" spans="12:15" x14ac:dyDescent="0.45">
@@ -5120,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.25</v>
+        <v>0.359375</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -5128,7 +5322,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>75</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -5136,7 +5330,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.25</v>
+        <v>0.203125</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -5144,7 +5338,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -5152,7 +5346,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.265625</v>
+        <v>0.234375</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -5160,7 +5354,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -5168,7 +5362,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.234375</v>
+        <v>0.1875</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -5176,7 +5370,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -5184,7 +5378,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.21875</v>
+        <v>0.171875</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -5192,7 +5386,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -5200,7 +5394,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.234375</v>
+        <v>0.21875</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -5208,7 +5402,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -5216,7 +5410,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.265625</v>
+        <v>0.171875</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -5224,7 +5418,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -5232,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -5240,7 +5434,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -5248,7 +5442,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.21875</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -5256,7 +5450,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -5264,7 +5458,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.234375</v>
+        <v>0.21875</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -5272,7 +5466,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -5280,7 +5474,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.21875</v>
+        <v>0.203125</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -5288,7 +5482,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -5296,7 +5490,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.265625</v>
+        <v>0.21875</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -5304,7 +5498,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -5312,7 +5506,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.21875</v>
+        <v>0.125</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -5320,7 +5514,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -5328,7 +5522,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.21875</v>
+        <v>0.140625</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -5336,7 +5530,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -5344,7 +5538,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.21875</v>
+        <v>0.125</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -5352,7 +5546,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -5360,7 +5554,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.28125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -5368,7 +5562,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>71.875</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -5376,7 +5570,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.203125</v>
+        <v>0.1875</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -5384,7 +5578,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -5392,7 +5586,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -5400,7 +5594,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -5408,7 +5602,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.234375</v>
+        <v>0.25</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -5416,7 +5610,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -5440,7 +5634,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.203125</v>
+        <v>0.140625</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -5448,7 +5642,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -5456,7 +5650,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -5464,7 +5658,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -5472,7 +5666,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.21875</v>
+        <v>0.265625</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -5480,7 +5674,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -5488,7 +5682,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.203125</v>
+        <v>0.234375</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -5496,7 +5690,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -5504,7 +5698,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -5512,7 +5706,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -5520,7 +5714,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.15625</v>
+        <v>0.109375</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -5528,7 +5722,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -5536,7 +5730,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.21875</v>
+        <v>0.171875</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -5544,7 +5738,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -5568,7 +5762,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.234375</v>
+        <v>0.109375</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5576,7 +5770,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -5584,7 +5778,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.40625</v>
+        <v>0.125</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -5592,7 +5786,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -5600,7 +5794,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.3125</v>
+        <v>0.109375</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -5608,7 +5802,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -5616,7 +5810,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.1875</v>
+        <v>0.328125</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -5624,7 +5818,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -5632,7 +5826,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -5640,7 +5834,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -5648,7 +5842,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.15625</v>
+        <v>0.109375</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -5656,7 +5850,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -5664,7 +5858,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.171875</v>
+        <v>0.109375</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -5672,7 +5866,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -5680,7 +5874,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.15625</v>
+        <v>0.140625</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -5688,7 +5882,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -5696,7 +5890,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -5704,7 +5898,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -5712,7 +5906,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -5720,7 +5914,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -5728,7 +5922,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.234375</v>
+        <v>0.125</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -5736,7 +5930,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -5744,7 +5938,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.25</v>
+        <v>0.109375</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -5752,7 +5946,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -5760,7 +5954,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.25</v>
+        <v>0.109375</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -5768,7 +5962,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -5776,7 +5970,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.234375</v>
+        <v>0.109375</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -5784,7 +5978,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -5792,7 +5986,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.203125</v>
+        <v>0.125</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -5800,7 +5994,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -5808,7 +6002,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -5816,7 +6010,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -5824,7 +6018,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -5832,7 +6026,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -5840,7 +6034,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -5848,7 +6042,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -5856,7 +6050,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -5864,7 +6058,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -5872,7 +6066,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -5880,7 +6074,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -5888,7 +6082,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -5896,7 +6090,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -5904,7 +6098,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.203125</v>
+        <v>0.125</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -5912,7 +6106,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -5920,7 +6114,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -5928,7 +6122,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -5952,7 +6146,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -5960,7 +6154,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -5984,7 +6178,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -5992,7 +6186,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -6000,7 +6194,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -6008,7 +6202,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -6016,7 +6210,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -6024,7 +6218,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -6032,7 +6226,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -6040,7 +6234,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -6048,7 +6242,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.203125</v>
+        <v>0.125</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -6056,7 +6250,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -6064,7 +6258,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -6072,7 +6266,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -6080,7 +6274,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -6088,7 +6282,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -6096,7 +6290,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -6104,7 +6298,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -6112,7 +6306,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -6120,7 +6314,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -6128,7 +6322,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -6136,7 +6330,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -6144,7 +6338,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.171875</v>
+        <v>0.125</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -6152,7 +6346,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>82.8125</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -6160,7 +6354,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -6168,7 +6362,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -6176,7 +6370,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -6184,7 +6378,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -6192,7 +6386,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -6200,7 +6394,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -6208,7 +6402,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -6216,7 +6410,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -6224,7 +6418,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -6232,7 +6426,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -6240,7 +6434,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -6248,7 +6442,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -6256,7 +6450,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -6264,7 +6458,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -6272,7 +6466,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -6280,7 +6474,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -6288,7 +6482,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -6296,7 +6490,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -6304,7 +6498,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -6312,7 +6506,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -6320,7 +6514,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -6328,7 +6522,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -6336,7 +6530,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -6344,7 +6538,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -6352,7 +6546,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -6360,7 +6554,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -6368,7 +6562,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -6376,7 +6570,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -6384,7 +6578,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -6392,7 +6586,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -6400,7 +6594,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -6408,7 +6602,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -6416,7 +6610,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.140625</v>
+        <v>0.109375</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -6424,7 +6618,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -6432,7 +6626,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -6440,7 +6634,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -6448,7 +6642,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -6456,7 +6650,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -6720,7 +6914,7 @@
         <v>50</v>
       </c>
       <c r="M103">
-        <v>6.25E-2</v>
+        <v>0.171875</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -6728,7 +6922,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -6736,7 +6930,7 @@
         <v>50</v>
       </c>
       <c r="M104">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -6744,7 +6938,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -6752,7 +6946,7 @@
         <v>50</v>
       </c>
       <c r="M105">
-        <v>0.171875</v>
+        <v>0.21875</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -6760,7 +6954,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -6768,7 +6962,7 @@
         <v>50</v>
       </c>
       <c r="M106">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -6776,7 +6970,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>81.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -6784,7 +6978,7 @@
         <v>50</v>
       </c>
       <c r="M107">
-        <v>0.21875</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -6792,7 +6986,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>78.125</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
@@ -6816,7 +7010,7 @@
         <v>50</v>
       </c>
       <c r="M109">
-        <v>0.21875</v>
+        <v>0.203125</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -6824,7 +7018,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>78.125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -6832,7 +7026,7 @@
         <v>50</v>
       </c>
       <c r="M110">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -6840,7 +7034,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -6848,7 +7042,7 @@
         <v>50</v>
       </c>
       <c r="M111">
-        <v>6.25E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -6856,7 +7050,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>93.75</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -6864,7 +7058,7 @@
         <v>50</v>
       </c>
       <c r="M112">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -6872,7 +7066,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -6880,7 +7074,7 @@
         <v>50</v>
       </c>
       <c r="M113">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -6888,7 +7082,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>81.25</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
@@ -6896,7 +7090,7 @@
         <v>50</v>
       </c>
       <c r="M114">
-        <v>0.21875</v>
+        <v>0.109375</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -6904,7 +7098,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>78.125</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
@@ -6912,7 +7106,7 @@
         <v>50</v>
       </c>
       <c r="M115">
-        <v>0.203125</v>
+        <v>0.140625</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -6920,7 +7114,7 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
@@ -6928,7 +7122,7 @@
         <v>50</v>
       </c>
       <c r="M116">
-        <v>0.15625</v>
+        <v>0.171875</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -6936,7 +7130,7 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
@@ -6944,7 +7138,7 @@
         <v>50</v>
       </c>
       <c r="M117">
-        <v>0.203125</v>
+        <v>0.171875</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -6952,7 +7146,7 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
@@ -6960,7 +7154,7 @@
         <v>50</v>
       </c>
       <c r="M118">
-        <v>0.1475409836065574</v>
+        <v>0.16393442622950821</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -6968,7 +7162,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>85.245901639344254</v>
+        <v>83.606557377049185</v>
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthic Speaker (Data Augmentation).xlsx
+++ b/Dysarthic Speaker (Data Augmentation).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69EE27D-FB58-405B-9114-6936A150FB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80552023-09FA-40A4-8414-EED0A154055C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Intelligibility</t>
   </si>
@@ -190,7 +190,7 @@
     <t>Augmented_M09_TE</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7fd6d7740a00&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7feb9db64c40&gt;</t>
   </si>
 </sst>
 </file>
@@ -695,12 +695,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,10 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -722,17 +713,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -740,7 +725,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -752,25 +749,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -779,10 +773,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -790,9 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,304 +894,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>37.5</c:v>
+                  <c:v>35.9375</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>64.0625</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>79.6875</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>76.5625</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.25</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>92.1875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>87.5</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>67.1875</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>85.9375</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>87.5</c:v>
-                </c:pt>
                 <c:pt idx="46">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>87.5</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>87.5</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>87.5</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>87.5</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>87.5</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>87.5</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>87.5</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>87.5</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>87.5</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>89.0625</c:v>
+                  <c:v>92.1875</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>89.0625</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>87.5</c:v>
+                  <c:v>90.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2793,6 +2793,268 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>70556</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2248056</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>123472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA3D59D-DDCF-CAC3-4FFF-6FCEBAAD2956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4850695" y="15495765"/>
+          <a:ext cx="2177500" cy="1296457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123473</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>114654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2157820</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BE29C2-937B-747E-DF6F-4D8CB8D387ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2681112" y="15486947"/>
+          <a:ext cx="2034347" cy="1525761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>61736</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>44097</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2140185" cy="1605139"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC28D4A1-54C4-4855-A7B0-FA09959F6AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="13749514"/>
+          <a:ext cx="2140185" cy="1605139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17639</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>149931</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2227375" cy="1331736"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F1FD12-F8C6-4B8D-B256-DED58F3C7BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4797778" y="13855348"/>
+          <a:ext cx="2227375" cy="1331736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>70556</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>123472</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2177500" cy="1296457"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19EC7E6-05D2-4AE6-8217-2E71914DA82C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4850695" y="15495765"/>
+          <a:ext cx="2177500" cy="1296457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123473</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>114654</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2034347" cy="1525761"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636B635C-D251-41F0-8D53-471984251204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2681112" y="15486947"/>
+          <a:ext cx="2034347" cy="1525761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3167,316 +3429,316 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>10.94</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="18">
         <v>7</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="25"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="25"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="25"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="25"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="25"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="25"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="25"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="21">
         <v>32.47</v>
       </c>
       <c r="D11" s="22">
         <f>100-71</f>
         <v>29</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="10"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="25"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="11"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="25"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="11"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="25"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="11"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="25"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="11"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="25"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="13"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="11"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="25"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="13"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="11"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="13"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="11"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="25"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="12"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="25"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="21">
         <v>40.65</v>
       </c>
       <c r="D20" s="22">
         <v>19</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="10"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="25"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="11"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="25"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="11"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="25"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="11"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="25"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="11"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="25"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="11"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="25"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="11"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="25"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="13"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="11"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="25"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="12"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="25"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="21">
         <v>28.39</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="10"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="25"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="13"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="11"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="25"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="13"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="11"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="25"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="13"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="11"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="25"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="11"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="25"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="13"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="11"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="25"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="11"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="25"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="13"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="11"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="25"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="12"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="8">
         <f xml:space="preserve"> SUM(C2:C37)/4</f>
         <v>28.112500000000001</v>
@@ -3488,219 +3750,219 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="16">
         <v>69.459999999999994</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="18">
         <v>53</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="27"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="13"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="27"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="13"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="27"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="13"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="27"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="13"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="27"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="13"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="27"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="13"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="27"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="13"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="27"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="14"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="27"/>
-      <c r="B48" s="16" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="21">
         <v>67.02</v>
       </c>
       <c r="D48" s="22">
         <v>52</v>
       </c>
-      <c r="E48" s="12"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="27"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="13"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="27"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="13"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="27"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="13"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="27"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="13"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="27"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="13"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="27"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="13"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="27"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="13"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="27"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="14"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="27"/>
-      <c r="B57" s="16" t="s">
+      <c r="A57" s="26"/>
+      <c r="B57" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="21">
         <v>55.91</v>
       </c>
       <c r="D57" s="22">
         <v>57</v>
       </c>
-      <c r="E57" s="12"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="27"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="13"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="27"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="13"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="27"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="13"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="27"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="13"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="27"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="13"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="27"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="13"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="27"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="13"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="28"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="14"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="11"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="8">
         <f>SUM(C39:C65)/3</f>
         <v>64.13</v>
@@ -3712,219 +3974,219 @@
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="16">
         <v>64.95</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="18">
         <v>55</v>
       </c>
-      <c r="E67" s="12"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="25"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="13"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="25"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="13"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="25"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="13"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="25"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="13"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="25"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="13"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="25"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="13"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="25"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="13"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="25"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="14"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="25"/>
-      <c r="B76" s="16" t="s">
+      <c r="A76" s="13"/>
+      <c r="B76" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="21">
         <v>49.68</v>
       </c>
       <c r="D76" s="22">
         <v>51</v>
       </c>
-      <c r="E76" s="12"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="25"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="13"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="25"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="13"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="25"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="13"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="25"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="13"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="25"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="13"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="25"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="13"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="25"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="13"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="25"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="14"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="25"/>
-      <c r="B85" s="16" t="s">
+      <c r="A85" s="13"/>
+      <c r="B85" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C85" s="21">
         <v>53.98</v>
       </c>
       <c r="D85" s="22">
         <v>64</v>
       </c>
-      <c r="E85" s="12"/>
+      <c r="E85" s="10"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="25"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="13"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="25"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="13"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="25"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="13"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="25"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="13"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="25"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="13"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="25"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="13"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="25"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="13"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="25"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="14"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="11"/>
+      <c r="B94" s="24"/>
       <c r="C94" s="8">
         <f>SUM(C67:C93)/3</f>
         <v>56.203333333333326</v>
@@ -3936,359 +4198,359 @@
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="16">
         <v>85.16</v>
       </c>
-      <c r="D95" s="23">
+      <c r="D95" s="18">
         <v>82</v>
       </c>
-      <c r="E95" s="12"/>
+      <c r="E95" s="10"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="25"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="13"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="25"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="13"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="25"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="13"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="25"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="13"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="25"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="13"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="25"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="13"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="25"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="13"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="25"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="14"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="12"/>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="25"/>
-      <c r="B104" s="16" t="s">
+      <c r="A104" s="13"/>
+      <c r="B104" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="19">
+      <c r="C104" s="21">
         <v>86.45</v>
       </c>
       <c r="D104" s="22">
         <v>82</v>
       </c>
-      <c r="E104" s="12"/>
+      <c r="E104" s="10"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="25"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="13"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="25"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="13"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="25"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="13"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="25"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="13"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="25"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="13"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="11"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="25"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="13"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="25"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="13"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="11"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="25"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="14"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="25"/>
-      <c r="B113" s="16" t="s">
+      <c r="A113" s="13"/>
+      <c r="B113" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="19">
+      <c r="C113" s="21">
         <v>89.68</v>
       </c>
       <c r="D113" s="22">
         <v>92</v>
       </c>
-      <c r="E113" s="12"/>
+      <c r="E113" s="10"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="25"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="13"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="11"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115" s="25"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="13"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="11"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116" s="25"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="13"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="11"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117" s="25"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="13"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="11"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118" s="25"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="13"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="11"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="25"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="13"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="11"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120" s="25"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="13"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="11"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121" s="25"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="14"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="12"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122" s="25"/>
-      <c r="B122" s="16" t="s">
+      <c r="A122" s="13"/>
+      <c r="B122" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="19">
+      <c r="C122" s="21">
         <v>86.67</v>
       </c>
       <c r="D122" s="22">
         <v>84</v>
       </c>
-      <c r="E122" s="12"/>
+      <c r="E122" s="10"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123" s="25"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="13"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="11"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" s="25"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="13"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="11"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A125" s="25"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="13"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="11"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126" s="25"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="13"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="11"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127" s="25"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="13"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="11"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A128" s="25"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="13"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="11"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A129" s="25"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="13"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="11"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A130" s="25"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="14"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="12"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A131" s="25"/>
-      <c r="B131" s="16" t="s">
+      <c r="A131" s="13"/>
+      <c r="B131" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="19">
+      <c r="C131" s="21">
         <v>94.41</v>
       </c>
       <c r="D131" s="22">
         <v>91</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E131" s="10">
         <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A132" s="25"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="13"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="11"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133" s="25"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="13"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="11"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" s="25"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="13"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="11"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" s="25"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="13"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="11"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" s="25"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="13"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="11"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137" s="25"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="13"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="11"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138" s="25"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="13"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="11"/>
     </row>
     <row r="139" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="25"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="14"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="12"/>
     </row>
     <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B140" s="11"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="9">
         <f>SUM(C95:C139)/5</f>
         <v>88.474000000000004</v>
@@ -4301,58 +4563,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E29:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="A39:A65"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="C76:C84"/>
-    <mergeCell ref="D76:D84"/>
-    <mergeCell ref="E76:E84"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:A93"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="A95:A139"/>
-    <mergeCell ref="B95:B103"/>
-    <mergeCell ref="C95:C103"/>
-    <mergeCell ref="D95:D103"/>
-    <mergeCell ref="E95:E103"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="C104:C112"/>
-    <mergeCell ref="E122:E130"/>
-    <mergeCell ref="E131:E139"/>
-    <mergeCell ref="E104:E112"/>
-    <mergeCell ref="E113:E121"/>
     <mergeCell ref="A140:B140"/>
     <mergeCell ref="E85:E93"/>
     <mergeCell ref="E67:E75"/>
@@ -4369,6 +4579,58 @@
     <mergeCell ref="C113:C121"/>
     <mergeCell ref="D113:D121"/>
     <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:A139"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="D95:D103"/>
+    <mergeCell ref="E95:E103"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="C104:C112"/>
+    <mergeCell ref="E122:E130"/>
+    <mergeCell ref="E131:E139"/>
+    <mergeCell ref="E104:E112"/>
+    <mergeCell ref="E113:E121"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="D76:D84"/>
+    <mergeCell ref="E76:E84"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:A93"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="A39:A65"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="E29:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4377,10 +4639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E277BC-F87C-4ABA-847E-22FC479E5A03}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="54" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84:E92"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="54" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4393,867 +4655,1004 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="39"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="36"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="29"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="36"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="29"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="36"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="29"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="36"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="36"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="29"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="36"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="29"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="36"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="29"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="36"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="29"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="36"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="36"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="29"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="36"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="29"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="36"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="29"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="36"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="29"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="36"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="29"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="36"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="29"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="36"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="29"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="37"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="30"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
         <f>100-12</f>
         <v>88</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="36"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="29"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="36"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="29"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="36"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="29"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="36"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="36"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="36"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="29"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="36"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="29"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="36"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="29"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="36"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
         <f>100-12</f>
         <v>88</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="36"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="29"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="36"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="29"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="36"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="29"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="36"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="29"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="36"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="29"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="36"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="29"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="36"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="29"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="37"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="30"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34">
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36">
         <f>100-9</f>
         <v>91</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="29">
         <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="36"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="29"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="36"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="29"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="36"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="29"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="36"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="29"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="36"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="29"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="36"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="29"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="36"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="29"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="36"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="29"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="36"/>
-      <c r="B48" s="23" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23">
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18">
         <f>100-9</f>
         <v>91</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="36"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="29"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="36"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="29"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="36"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="29"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="36"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="29"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="36"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="29"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="36"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="29"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="36"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="29"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="37"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="30"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="32"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34">
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36">
         <f>100-16</f>
         <v>84</v>
       </c>
-      <c r="F57" s="35"/>
+      <c r="F57" s="29"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="36"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="29"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="36"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="29"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="30"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="36"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="29"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="30"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="36"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="29"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="30"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="36"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="29"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="30"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="36"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="29"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="30"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="36"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="29"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="30"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="36"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="29"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="30"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="36"/>
-      <c r="B66" s="23" t="s">
+      <c r="A66" s="34"/>
+      <c r="B66" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23">
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18">
         <f>100-15</f>
         <v>85</v>
       </c>
-      <c r="F66" s="29"/>
+      <c r="F66" s="30"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="36"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="29"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="30"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="36"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="29"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="30"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="36"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="29"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="30"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="36"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="29"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="36"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="29"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="36"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="29"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="30"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="36"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="29"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="30"/>
     </row>
     <row r="74" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="37"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="30"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="32"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34">
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36">
         <f>100-16</f>
         <v>84</v>
       </c>
-      <c r="F75" s="35"/>
+      <c r="F75" s="29"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="36"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="29"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="30"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="36"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="29"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="30"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="36"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="29"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="30"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="36"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="29"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="30"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="36"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="29"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="36"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="29"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="36"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="29"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="30"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="36"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="29"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="30"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="36"/>
-      <c r="B84" s="23" t="s">
+      <c r="A84" s="34"/>
+      <c r="B84" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="29"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18">
+        <f>100-18</f>
+        <v>82</v>
+      </c>
+      <c r="F84" s="30"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="36"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="29"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="36"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="29"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="36"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="29"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="30"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="36"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="29"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="30"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="36"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="29"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="30"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="36"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="29"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="30"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="36"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="29"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="30"/>
     </row>
     <row r="92" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="37"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="30"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="32"/>
+    </row>
+    <row r="93" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36">
+        <f>100-16</f>
+        <v>84</v>
+      </c>
+      <c r="F94" s="29"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="34"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="30"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="34"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="30"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="34"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="30"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="34"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="30"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="34"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="30"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="34"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="30"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="34"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="30"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="34"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="30"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="34"/>
+      <c r="B103" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18">
+        <f>100-18</f>
+        <v>82</v>
+      </c>
+      <c r="F103" s="30"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="34"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="30"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="34"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="30"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="34"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="30"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="34"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="30"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="34"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="30"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="34"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="30"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="34"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="30"/>
+    </row>
+    <row r="111" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A111" s="35"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="F75:F83"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="C84:C92"/>
-    <mergeCell ref="D84:D92"/>
-    <mergeCell ref="E84:E92"/>
-    <mergeCell ref="F84:F92"/>
-    <mergeCell ref="A75:A92"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="D75:D83"/>
-    <mergeCell ref="E75:E83"/>
-    <mergeCell ref="F57:F65"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C74"/>
-    <mergeCell ref="D66:D74"/>
-    <mergeCell ref="E66:E74"/>
-    <mergeCell ref="F66:F74"/>
-    <mergeCell ref="A57:A74"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="F39:F47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="F48:F56"/>
-    <mergeCell ref="A39:A56"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="72">
+    <mergeCell ref="F94:F102"/>
+    <mergeCell ref="B103:B111"/>
+    <mergeCell ref="C103:C111"/>
+    <mergeCell ref="D103:D111"/>
+    <mergeCell ref="E103:E111"/>
+    <mergeCell ref="F103:F111"/>
+    <mergeCell ref="A94:A111"/>
+    <mergeCell ref="B94:B102"/>
+    <mergeCell ref="C94:C102"/>
+    <mergeCell ref="D94:D102"/>
+    <mergeCell ref="E94:E102"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="E12:E20"/>
+    <mergeCell ref="F12:F20"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="F3:F11"/>
     <mergeCell ref="A21:A38"/>
     <mergeCell ref="B21:B29"/>
     <mergeCell ref="C21:C29"/>
@@ -5263,15 +5662,49 @@
     <mergeCell ref="C30:C38"/>
     <mergeCell ref="D30:D38"/>
     <mergeCell ref="E30:E38"/>
-    <mergeCell ref="F30:F38"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="E12:E20"/>
-    <mergeCell ref="F12:F20"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="A39:A56"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="F39:F47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="F48:F56"/>
+    <mergeCell ref="A57:A74"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="F57:F65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="D66:D74"/>
+    <mergeCell ref="E66:E74"/>
+    <mergeCell ref="F66:F74"/>
+    <mergeCell ref="A75:A92"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="D75:D83"/>
+    <mergeCell ref="E75:E83"/>
+    <mergeCell ref="F75:F83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="C84:C92"/>
+    <mergeCell ref="D84:D92"/>
+    <mergeCell ref="E84:E92"/>
+    <mergeCell ref="F84:F92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5298,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.625</v>
+        <v>0.640625</v>
       </c>
       <c r="N2">
         <f>1+L2</f>
@@ -5306,7 +5739,7 @@
       </c>
       <c r="O2">
         <f>100*(1-M2)</f>
-        <v>37.5</v>
+        <v>35.9375</v>
       </c>
     </row>
     <row r="3" spans="12:15" x14ac:dyDescent="0.45">
@@ -5330,7 +5763,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.203125</v>
+        <v>0.21875</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -5338,7 +5771,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -5346,7 +5779,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.234375</v>
+        <v>0.203125</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -5354,7 +5787,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -5362,7 +5795,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -5370,7 +5803,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -5394,7 +5827,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.21875</v>
+        <v>0.15625</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -5402,7 +5835,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -5410,7 +5843,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.171875</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -5418,7 +5851,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -5426,7 +5859,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -5434,7 +5867,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -5442,7 +5875,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -5450,7 +5883,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -5458,7 +5891,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.21875</v>
+        <v>0.1875</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -5466,7 +5899,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -5474,7 +5907,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.203125</v>
+        <v>0.1875</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -5482,7 +5915,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -5490,7 +5923,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.21875</v>
+        <v>0.171875</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -5498,7 +5931,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -5506,7 +5939,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.125</v>
+        <v>0.234375</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -5514,7 +5947,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -5522,7 +5955,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.140625</v>
+        <v>0.234375</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -5530,7 +5963,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -5538,7 +5971,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.125</v>
+        <v>0.453125</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -5546,7 +5979,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -5554,7 +5987,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>7.8125E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -5562,7 +5995,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -5570,7 +6003,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.1875</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -5578,7 +6011,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -5586,7 +6019,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.1875</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -5594,7 +6027,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -5602,7 +6035,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.25</v>
+        <v>0.15625</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -5610,7 +6043,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -5618,7 +6051,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.1875</v>
+        <v>0.21875</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -5626,7 +6059,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -5650,7 +6083,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -5658,7 +6091,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -5666,7 +6099,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.265625</v>
+        <v>0.203125</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -5674,7 +6107,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -5682,7 +6115,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.234375</v>
+        <v>0.171875</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -5690,7 +6123,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -5698,7 +6131,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -5706,7 +6139,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -5714,7 +6147,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -5722,7 +6155,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -5730,7 +6163,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.171875</v>
+        <v>0.109375</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -5738,7 +6171,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -5746,7 +6179,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -5754,7 +6187,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -5762,7 +6195,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.109375</v>
+        <v>0.453125</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -5770,7 +6203,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -5778,7 +6211,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -5786,7 +6219,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -5794,7 +6227,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.109375</v>
+        <v>0.171875</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -5802,7 +6235,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -5810,7 +6243,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.328125</v>
+        <v>0.125</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -5818,7 +6251,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -5826,7 +6259,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.203125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -5834,7 +6267,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -5842,7 +6275,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -5850,7 +6283,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -5874,7 +6307,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -5882,7 +6315,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -5890,7 +6323,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.171875</v>
+        <v>0.203125</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -5898,7 +6331,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -5906,7 +6339,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.125</v>
+        <v>0.234375</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -5914,7 +6347,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -5922,7 +6355,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.125</v>
+        <v>0.203125</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -5930,7 +6363,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -5938,7 +6371,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.109375</v>
+        <v>0.1875</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -5946,7 +6379,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -5954,7 +6387,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -5962,7 +6395,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -5970,7 +6403,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.109375</v>
+        <v>0.140625</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -5978,7 +6411,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -5986,7 +6419,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -5994,7 +6427,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -6002,7 +6435,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -6010,7 +6443,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -6018,7 +6451,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -6026,7 +6459,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -6034,7 +6467,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -6042,7 +6475,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -6050,7 +6483,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -6058,7 +6491,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -6066,7 +6499,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -6074,7 +6507,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -6082,7 +6515,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -6090,7 +6523,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -6098,7 +6531,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -6106,7 +6539,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -6130,7 +6563,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -6138,7 +6571,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -6146,7 +6579,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.125</v>
+        <v>0.109375</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -6154,7 +6587,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -6162,7 +6595,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -6170,7 +6603,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -6178,7 +6611,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -6186,7 +6619,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -6194,7 +6627,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -6202,7 +6635,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -6210,7 +6643,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -6218,7 +6651,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -6226,7 +6659,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -6234,7 +6667,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -6242,7 +6675,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -6250,7 +6683,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -6258,7 +6691,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -6266,7 +6699,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -6274,7 +6707,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -6282,7 +6715,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -6290,7 +6723,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -6298,7 +6731,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -6306,7 +6739,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.125</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -6314,7 +6747,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -6322,7 +6755,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -6330,7 +6763,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -6338,7 +6771,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -6346,7 +6779,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -6354,7 +6787,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -6362,7 +6795,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -6370,7 +6803,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -6378,7 +6811,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -6386,7 +6819,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -6394,7 +6827,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -6402,7 +6835,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -6410,7 +6843,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -6418,7 +6851,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -6426,7 +6859,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -6434,7 +6867,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -6442,7 +6875,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -6450,7 +6883,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -6458,7 +6891,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -6466,7 +6899,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -6474,7 +6907,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -6482,7 +6915,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -6490,7 +6923,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -6498,7 +6931,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -6506,7 +6939,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -6514,7 +6947,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -6522,7 +6955,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -6530,7 +6963,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -6538,7 +6971,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -6546,7 +6979,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -6554,7 +6987,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -6562,7 +6995,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -6570,7 +7003,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -6578,7 +7011,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -6586,7 +7019,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -6594,7 +7027,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -6602,7 +7035,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -6610,7 +7043,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -6618,7 +7051,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -6626,7 +7059,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.109375</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -6634,7 +7067,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>92.1875</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -6642,7 +7075,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.109375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -6650,7 +7083,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -6658,7 +7091,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -6666,7 +7099,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -6674,7 +7107,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -6682,7 +7115,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -6690,7 +7123,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -6698,7 +7131,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -6706,7 +7139,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -6714,7 +7147,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -6722,7 +7155,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -6730,7 +7163,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -6738,7 +7171,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -6746,7 +7179,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -6754,7 +7187,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -6762,7 +7195,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -6770,7 +7203,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -6778,7 +7211,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -6786,7 +7219,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -6794,7 +7227,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -6802,7 +7235,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -6810,7 +7243,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -6818,7 +7251,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -6826,7 +7259,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -6834,7 +7267,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -6842,7 +7275,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -6850,7 +7283,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -6858,7 +7291,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -6866,7 +7299,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -6874,7 +7307,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -6882,7 +7315,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -6890,7 +7323,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -6898,7 +7331,7 @@
         <v>50</v>
       </c>
       <c r="M102">
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -6906,7 +7339,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -6914,7 +7347,7 @@
         <v>50</v>
       </c>
       <c r="M103">
-        <v>0.171875</v>
+        <v>0.25</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -6922,7 +7355,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -6930,7 +7363,7 @@
         <v>50</v>
       </c>
       <c r="M104">
-        <v>0.125</v>
+        <v>0.171875</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -6938,7 +7371,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -6962,7 +7395,7 @@
         <v>50</v>
       </c>
       <c r="M106">
-        <v>0.25</v>
+        <v>0.21875</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -6970,7 +7403,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -6978,7 +7411,7 @@
         <v>50</v>
       </c>
       <c r="M107">
-        <v>9.375E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -6986,7 +7419,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
@@ -6994,7 +7427,7 @@
         <v>50</v>
       </c>
       <c r="M108">
-        <v>0.171875</v>
+        <v>0.25</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -7002,7 +7435,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -7010,7 +7443,7 @@
         <v>50</v>
       </c>
       <c r="M109">
-        <v>0.203125</v>
+        <v>0.21875</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -7018,7 +7451,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -7026,7 +7459,7 @@
         <v>50</v>
       </c>
       <c r="M110">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -7034,7 +7467,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -7042,7 +7475,7 @@
         <v>50</v>
       </c>
       <c r="M111">
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -7050,7 +7483,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -7058,7 +7491,7 @@
         <v>50</v>
       </c>
       <c r="M112">
-        <v>0.15625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -7066,7 +7499,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>90.625</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -7074,7 +7507,7 @@
         <v>50</v>
       </c>
       <c r="M113">
-        <v>0.203125</v>
+        <v>0.1875</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -7082,7 +7515,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
@@ -7090,7 +7523,7 @@
         <v>50</v>
       </c>
       <c r="M114">
-        <v>0.109375</v>
+        <v>0.15625</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -7098,7 +7531,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>89.0625</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
@@ -7106,7 +7539,7 @@
         <v>50</v>
       </c>
       <c r="M115">
-        <v>0.140625</v>
+        <v>0.234375</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -7114,7 +7547,7 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>85.9375</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
@@ -7122,7 +7555,7 @@
         <v>50</v>
       </c>
       <c r="M116">
-        <v>0.171875</v>
+        <v>0.203125</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -7130,7 +7563,7 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
@@ -7138,7 +7571,7 @@
         <v>50</v>
       </c>
       <c r="M117">
-        <v>0.171875</v>
+        <v>0.265625</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -7146,7 +7579,7 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
@@ -7154,7 +7587,7 @@
         <v>50</v>
       </c>
       <c r="M118">
-        <v>0.16393442622950821</v>
+        <v>6.5573770491803282E-2</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -7162,7 +7595,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>83.606557377049185</v>
+        <v>93.442622950819683</v>
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthic Speaker (Data Augmentation).xlsx
+++ b/Dysarthic Speaker (Data Augmentation).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80552023-09FA-40A4-8414-EED0A154055C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE49FF44-C7BD-4D43-8AF0-8B544F2AFFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>Intelligibility</t>
   </si>
@@ -190,7 +190,85 @@
     <t>Augmented_M09_TE</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7feb9db64c40&gt;</t>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>Augmented_F04_TE</t>
+  </si>
+  <si>
+    <t>Augmented_F04_TE+D1</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>Augmented_M11_TE</t>
+  </si>
+  <si>
+    <t>Augmented_M11_D3</t>
+  </si>
+  <si>
+    <t>Augmented_M05_D3</t>
+  </si>
+  <si>
+    <t>Augmented_M05_TE+D1</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>M07</t>
+  </si>
+  <si>
+    <t>M01</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>M04</t>
+  </si>
+  <si>
+    <t>Augmented_M16_D3</t>
+  </si>
+  <si>
+    <t>Augmented_M16_TE+D1</t>
+  </si>
+  <si>
+    <t>Augmented_F02_TE</t>
+  </si>
+  <si>
+    <t>Augmented_M07_D3</t>
+  </si>
+  <si>
+    <t>Augmented_M07_TE+D12</t>
+  </si>
+  <si>
+    <t>Augmented_M12_TE+D1</t>
+  </si>
+  <si>
+    <t>Augmented_M12_D3</t>
+  </si>
+  <si>
+    <t>Augmented_F03_TE+D1</t>
+  </si>
+  <si>
+    <t>Augmented_F03_TE</t>
+  </si>
+  <si>
+    <t>Augmented_M04_TE</t>
+  </si>
+  <si>
+    <t>Augmented_M04_E1</t>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f53f262f3d0&gt;</t>
   </si>
 </sst>
 </file>
@@ -695,6 +773,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,7 +788,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -713,11 +800,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -725,19 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -747,9 +828,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -776,16 +854,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -894,304 +972,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>35.9375</c:v>
+                  <c:v>21.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>28.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>64.0625</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>93.75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>82.8125</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>76.5625</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76.5625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>54.6875</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>92.1875</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>92.1875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>92.1875</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>54.6875</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>89.0625</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>90.625</c:v>
+                  <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>79.6875</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>76.5625</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>79.6875</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>81.25</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>87.5</c:v>
+                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>85.9375</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>89.0625</c:v>
+                  <c:v>64.0625</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>89.0625</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>89.0625</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>89.0625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>90.625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>90.625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>89.0625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>90.625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>87.5</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>90.625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>89.0625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>90.625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>90.625</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>92.1875</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>92.1875</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>92.1875</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>92.1875</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>92.1875</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>92.1875</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>92.1875</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>92.1875</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>90.625</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>90.625</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>90.625</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>92.1875</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>92.1875</c:v>
+                  <c:v>64.0625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>92.1875</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>92.1875</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>92.1875</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>92.1875</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>92.1875</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>92.1875</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>92.1875</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>92.1875</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>92.1875</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92.1875</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>92.1875</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>92.1875</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>92.1875</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>92.1875</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>92.1875</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>90.625</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>90.625</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>90.625</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>90.625</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>90.625</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90.625</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90.625</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>90.625</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>90.625</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>90.625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>90.625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>90.625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>90.625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>90.625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>90.625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>90.625</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2887,20 +2965,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>61736</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52917</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>44097</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2140185" cy="1605139"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5173</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>17638</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
+        <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC28D4A1-54C4-4855-A7B0-FA09959F6AA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D259761-022A-8939-BDB0-06C9D1F1AFF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2909,7 +2992,51 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4833056" y="17383126"/>
+          <a:ext cx="2245311" cy="1340555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114653</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>61737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2160764</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2A3A9B-BCCB-6E90-6D0D-2C5488B08CD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2922,8 +3049,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2619375" y="13749514"/>
-          <a:ext cx="2140185" cy="1605139"/>
+          <a:off x="2672292" y="17286113"/>
+          <a:ext cx="2046111" cy="1534583"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2931,130 +3058,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>17639</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>149931</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2227375" cy="1331736"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F1FD12-F8C6-4B8D-B256-DED58F3C7BF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4797778" y="13855348"/>
-          <a:ext cx="2227375" cy="1331736"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70556</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>123472</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2177500" cy="1296457"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19EC7E6-05D2-4AE6-8217-2E71914DA82C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4850695" y="15495765"/>
-          <a:ext cx="2177500" cy="1296457"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123473</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>114654</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2034347" cy="1525761"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636B635C-D251-41F0-8D53-471984251204}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2681112" y="15486947"/>
-          <a:ext cx="2034347" cy="1525761"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3398,8 +3402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368169AB-26AB-4A58-844A-57BD7F02F01B}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="46" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104:C112"/>
+    <sheetView topLeftCell="A36" zoomScale="46" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85:E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3408,7 +3412,7 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.59765625" customWidth="1"/>
     <col min="4" max="4" width="28.73046875" customWidth="1"/>
-    <col min="5" max="5" width="40.86328125" customWidth="1"/>
+    <col min="5" max="5" width="37.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -3429,316 +3433,316 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="20">
         <v>10.94</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="23">
         <v>7</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="13"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>32.47</v>
       </c>
       <c r="D11" s="22">
         <f>100-71</f>
         <v>29</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="12"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="13"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="13"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="13"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="13"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="13"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="13"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="13"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="14"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <v>40.65</v>
       </c>
       <c r="D20" s="22">
         <v>19</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="12"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="13"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="13"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="13"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="13"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="13"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="13"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="13"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="14"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="13"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="19">
         <v>28.39</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="12"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="11"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="13"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="11"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="13"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="11"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="13"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="11"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="13"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="11"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="13"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="11"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="13"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="11"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="13"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="12"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="14"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="8">
         <f xml:space="preserve"> SUM(C2:C37)/4</f>
         <v>28.112500000000001</v>
@@ -3750,219 +3754,219 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="20">
         <v>69.459999999999994</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="23">
         <v>53</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="26"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="11"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="26"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="11"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="26"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="11"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="26"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="11"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="26"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="11"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="26"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="11"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="26"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="11"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="26"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="12"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="26"/>
-      <c r="B48" s="20" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="19">
         <v>67.02</v>
       </c>
       <c r="D48" s="22">
         <v>52</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="26"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="11"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="26"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="11"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="26"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="11"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="26"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="11"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="26"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="11"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="26"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="11"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="26"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="11"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="26"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="12"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="26"/>
-      <c r="B57" s="20" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="19">
         <v>55.91</v>
       </c>
       <c r="D57" s="22">
         <v>57</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="26"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="11"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="26"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="11"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="26"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="11"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="26"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="11"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="26"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="11"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="26"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="11"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="26"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="11"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="27"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="12"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="8">
         <f>SUM(C39:C65)/3</f>
         <v>64.13</v>
@@ -3974,219 +3978,219 @@
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="20">
         <v>64.95</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="23">
         <v>55</v>
       </c>
-      <c r="E67" s="10"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="11"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="11"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="11"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="11"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="11"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="11"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="11"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="13"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="12"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="13"/>
-      <c r="B76" s="20" t="s">
+      <c r="A76" s="25"/>
+      <c r="B76" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="19">
         <v>49.68</v>
       </c>
       <c r="D76" s="22">
         <v>51</v>
       </c>
-      <c r="E76" s="10"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="11"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="13"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="11"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="11"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="11"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="11"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="11"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="11"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="13"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="12"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="13"/>
-      <c r="B85" s="20" t="s">
+      <c r="A85" s="25"/>
+      <c r="B85" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="19">
         <v>53.98</v>
       </c>
       <c r="D85" s="22">
         <v>64</v>
       </c>
-      <c r="E85" s="10"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="13"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="11"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="13"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="11"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="13"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="11"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="13"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="11"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="11"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="13"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="11"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="13"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="11"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="13"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="12"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="14"/>
     </row>
     <row r="94" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="24"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="8">
         <f>SUM(C67:C93)/3</f>
         <v>56.203333333333326</v>
@@ -4198,359 +4202,367 @@
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C95" s="20">
         <v>85.16</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="23">
         <v>82</v>
       </c>
-      <c r="E95" s="10"/>
+      <c r="E95" s="12">
+        <v>84</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="13"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="11"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="13"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="11"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="13"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="11"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="13"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="11"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="13"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="11"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="13"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="11"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="13"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="11"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="13"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="12"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="14"/>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="13"/>
-      <c r="B104" s="20" t="s">
+      <c r="A104" s="25"/>
+      <c r="B104" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="19">
         <v>86.45</v>
       </c>
       <c r="D104" s="22">
         <v>82</v>
       </c>
-      <c r="E104" s="10"/>
+      <c r="E104" s="12">
+        <v>85</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="13"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="11"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="13"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="11"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="13"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="11"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="13"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="13"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="11"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="13"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="13"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="11"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="13"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="13"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="11"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="13"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="13"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="11"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="13"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="13"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="12"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="14"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="13"/>
-      <c r="B113" s="20" t="s">
+      <c r="A113" s="25"/>
+      <c r="B113" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="19">
         <v>89.68</v>
       </c>
       <c r="D113" s="22">
         <v>92</v>
       </c>
-      <c r="E113" s="10"/>
+      <c r="E113" s="12">
+        <v>91</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="13"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="11"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115" s="13"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="11"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="13"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116" s="13"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="11"/>
+      <c r="A116" s="25"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="13"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117" s="13"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="11"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118" s="13"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="11"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="13"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="11"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="13"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120" s="13"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="11"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="13"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121" s="13"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="12"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="14"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122" s="13"/>
-      <c r="B122" s="20" t="s">
+      <c r="A122" s="25"/>
+      <c r="B122" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="21">
+      <c r="C122" s="19">
         <v>86.67</v>
       </c>
       <c r="D122" s="22">
         <v>84</v>
       </c>
-      <c r="E122" s="10"/>
+      <c r="E122" s="12">
+        <v>88</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123" s="13"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="11"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" s="13"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="11"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A125" s="13"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="11"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126" s="13"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="11"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="13"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127" s="13"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="11"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A128" s="13"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="11"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="13"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A129" s="13"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="11"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="13"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A130" s="13"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="12"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="14"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A131" s="13"/>
-      <c r="B131" s="20" t="s">
+      <c r="A131" s="25"/>
+      <c r="B131" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="21">
+      <c r="C131" s="19">
         <v>94.41</v>
       </c>
       <c r="D131" s="22">
         <v>91</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="12">
         <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A132" s="13"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="11"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="13"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133" s="13"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="11"/>
+      <c r="A133" s="25"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="13"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" s="13"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="11"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="13"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" s="13"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="11"/>
+      <c r="A135" s="25"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="13"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" s="13"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="11"/>
+      <c r="A136" s="25"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="13"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137" s="13"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="11"/>
+      <c r="A137" s="25"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138" s="13"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="11"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="13"/>
     </row>
     <row r="139" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="13"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="12"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="14"/>
     </row>
     <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="23" t="s">
+      <c r="A140" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B140" s="24"/>
+      <c r="B140" s="11"/>
       <c r="C140" s="9">
         <f>SUM(C95:C139)/5</f>
         <v>88.474000000000004</v>
@@ -4559,10 +4571,65 @@
         <f xml:space="preserve"> SUM(D95:D139)/5</f>
         <v>86.2</v>
       </c>
-      <c r="E140" s="7"/>
+      <c r="E140" s="7">
+        <f>SUM(E95:E139)/5</f>
+        <v>88.2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="A39:A65"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="D76:D84"/>
+    <mergeCell ref="E76:E84"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:A93"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="A95:A139"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="D95:D103"/>
+    <mergeCell ref="E95:E103"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="C104:C112"/>
+    <mergeCell ref="E122:E130"/>
+    <mergeCell ref="E131:E139"/>
+    <mergeCell ref="E104:E112"/>
+    <mergeCell ref="E113:E121"/>
     <mergeCell ref="A140:B140"/>
     <mergeCell ref="E85:E93"/>
     <mergeCell ref="E67:E75"/>
@@ -4579,58 +4646,6 @@
     <mergeCell ref="C113:C121"/>
     <mergeCell ref="D113:D121"/>
     <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:A139"/>
-    <mergeCell ref="B95:B103"/>
-    <mergeCell ref="C95:C103"/>
-    <mergeCell ref="D95:D103"/>
-    <mergeCell ref="E95:E103"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="C104:C112"/>
-    <mergeCell ref="E122:E130"/>
-    <mergeCell ref="E131:E139"/>
-    <mergeCell ref="E104:E112"/>
-    <mergeCell ref="E113:E121"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="C76:C84"/>
-    <mergeCell ref="D76:D84"/>
-    <mergeCell ref="E76:E84"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:A93"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="A39:A65"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E29:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4639,10 +4654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E277BC-F87C-4ABA-847E-22FC479E5A03}">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="54" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="54" workbookViewId="0">
+      <selection activeCell="O108" sqref="O108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4655,19 +4670,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="41" t="s">
@@ -4675,11 +4690,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -4701,76 +4716,76 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="34"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="34"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="34"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="34"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="34"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="34"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="34"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="34"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="34"/>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23">
         <f>100-7</f>
         <v>93</v>
       </c>
@@ -4780,58 +4795,58 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="34"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="34"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="34"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="34"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="34"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="34"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="34"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -4846,12 +4861,12 @@
       <c r="A21" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23">
         <f>100-12</f>
         <v>88</v>
       </c>
@@ -4861,76 +4876,76 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="34"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="34"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="34"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="34"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="34"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="34"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="34"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="34"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="34"/>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23">
         <f>100-12</f>
         <v>88</v>
       </c>
@@ -4940,58 +4955,58 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="34"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="34"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="34"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="34"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="34"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="34"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="34"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -5021,76 +5036,76 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="34"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="34"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="34"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="34"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="34"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="34"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="34"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="34"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="34"/>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18">
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23">
         <f>100-9</f>
         <v>91</v>
       </c>
@@ -5100,58 +5115,58 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="34"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="34"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
       <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="34"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
       <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="34"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
       <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="34"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
       <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="34"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
       <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="34"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
       <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -5179,76 +5194,76 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="34"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
       <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="34"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
       <c r="F59" s="30"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="34"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
       <c r="F60" s="30"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="34"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
       <c r="F61" s="30"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="34"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
       <c r="F62" s="30"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="34"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
       <c r="F63" s="30"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="34"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
       <c r="F64" s="30"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="34"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
       <c r="F65" s="30"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="34"/>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18">
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23">
         <f>100-15</f>
         <v>85</v>
       </c>
@@ -5256,58 +5271,58 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="34"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
       <c r="F67" s="30"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="34"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
       <c r="F68" s="30"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="34"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
       <c r="F69" s="30"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="34"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="34"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
       <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="34"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
       <c r="F72" s="30"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="34"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
       <c r="F73" s="30"/>
     </row>
     <row r="74" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -5335,76 +5350,76 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="34"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
       <c r="F76" s="30"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="34"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
       <c r="F77" s="30"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="34"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
       <c r="F78" s="30"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="34"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
       <c r="F79" s="30"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="34"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
       <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="34"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
       <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="34"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
       <c r="F82" s="30"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="34"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
       <c r="F83" s="30"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="34"/>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18">
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23">
         <f>100-18</f>
         <v>82</v>
       </c>
@@ -5412,58 +5427,58 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="34"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="34"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
       <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="34"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
       <c r="F87" s="30"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="34"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
       <c r="F88" s="30"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="34"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
       <c r="F89" s="30"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="34"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="30"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="34"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
       <c r="F91" s="30"/>
     </row>
     <row r="92" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -5477,150 +5492,147 @@
     <row r="93" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="33" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C94" s="36"/>
       <c r="D94" s="36"/>
       <c r="E94" s="36">
-        <f>100-16</f>
-        <v>84</v>
+        <f>100-31</f>
+        <v>69</v>
       </c>
       <c r="F94" s="29"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="34"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
       <c r="F95" s="30"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="34"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
       <c r="F96" s="30"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="34"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
       <c r="F97" s="30"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="34"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
       <c r="F98" s="30"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="34"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
       <c r="F99" s="30"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="34"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
       <c r="F100" s="30"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="34"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
       <c r="F101" s="30"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="34"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
       <c r="F102" s="30"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="34"/>
-      <c r="B103" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18">
-        <f>100-18</f>
-        <v>82</v>
-      </c>
+      <c r="B103" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
       <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="34"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
       <c r="F104" s="30"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="34"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
       <c r="F105" s="30"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="34"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
       <c r="F106" s="30"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="34"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
       <c r="F107" s="30"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="34"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
       <c r="F108" s="30"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="34"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
       <c r="F109" s="30"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="34"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
       <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -5631,8 +5643,1421 @@
       <c r="E111" s="31"/>
       <c r="F111" s="32"/>
     </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="29"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" s="34"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="30"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="34"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="30"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="34"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="30"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" s="34"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="30"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="34"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="30"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="34"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="30"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="34"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="30"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="34"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="30"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="34"/>
+      <c r="B121" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="30"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="34"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="30"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="34"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="30"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="34"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="30"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="34"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="30"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="34"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="30"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="34"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="30"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="34"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="30"/>
+    </row>
+    <row r="129" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A129" s="35"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="32"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="29"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="34"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="30"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" s="34"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="30"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" s="34"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="30"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="34"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="30"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="34"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="30"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" s="34"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="30"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="34"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="30"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" s="34"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="30"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="34"/>
+      <c r="B139" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="30"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" s="34"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="30"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" s="34"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="30"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" s="34"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="30"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="34"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="30"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" s="34"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="30"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" s="34"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="30"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" s="34"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="30"/>
+    </row>
+    <row r="147" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A147" s="35"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="32"/>
+    </row>
+    <row r="148" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B149" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C149" s="36"/>
+      <c r="D149" s="36"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="29"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" s="34"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="30"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" s="34"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="30"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152" s="34"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="30"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" s="34"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="30"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" s="34"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="30"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" s="34"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="30"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" s="34"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="30"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" s="34"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="30"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" s="34"/>
+      <c r="B158" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="30"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159" s="34"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="30"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160" s="34"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="30"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A161" s="34"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="30"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162" s="34"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="30"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163" s="34"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="30"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A164" s="34"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="30"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A165" s="34"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="30"/>
+    </row>
+    <row r="166" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A166" s="35"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="32"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A167" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C167" s="36"/>
+      <c r="D167" s="36"/>
+      <c r="E167" s="36"/>
+      <c r="F167" s="29"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A168" s="34"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="30"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169" s="34"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="30"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A170" s="34"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="30"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171" s="34"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="30"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A172" s="34"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="23"/>
+      <c r="F172" s="30"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A173" s="34"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="30"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A174" s="34"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="30"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A175" s="34"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="30"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A176" s="34"/>
+      <c r="B176" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="30"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A177" s="34"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="30"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178" s="34"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="30"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A179" s="34"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="30"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A180" s="34"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="23"/>
+      <c r="F180" s="30"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A181" s="34"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="30"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A182" s="34"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="23"/>
+      <c r="D182" s="23"/>
+      <c r="E182" s="23"/>
+      <c r="F182" s="30"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A183" s="34"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="23"/>
+      <c r="D183" s="23"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="30"/>
+    </row>
+    <row r="184" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A184" s="35"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="31"/>
+      <c r="F184" s="32"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A185" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B185" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C185" s="36"/>
+      <c r="D185" s="36"/>
+      <c r="E185" s="36"/>
+      <c r="F185" s="29"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A186" s="34"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="23"/>
+      <c r="D186" s="23"/>
+      <c r="E186" s="23"/>
+      <c r="F186" s="30"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A187" s="34"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="23"/>
+      <c r="D187" s="23"/>
+      <c r="E187" s="23"/>
+      <c r="F187" s="30"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A188" s="34"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="23"/>
+      <c r="D188" s="23"/>
+      <c r="E188" s="23"/>
+      <c r="F188" s="30"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A189" s="34"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="23"/>
+      <c r="D189" s="23"/>
+      <c r="E189" s="23"/>
+      <c r="F189" s="30"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A190" s="34"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="23"/>
+      <c r="D190" s="23"/>
+      <c r="E190" s="23"/>
+      <c r="F190" s="30"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A191" s="34"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="23"/>
+      <c r="D191" s="23"/>
+      <c r="E191" s="23"/>
+      <c r="F191" s="30"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A192" s="34"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="23"/>
+      <c r="D192" s="23"/>
+      <c r="E192" s="23"/>
+      <c r="F192" s="30"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A193" s="34"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="23"/>
+      <c r="D193" s="23"/>
+      <c r="E193" s="23"/>
+      <c r="F193" s="30"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A194" s="34"/>
+      <c r="B194" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C194" s="23"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="23"/>
+      <c r="F194" s="30"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A195" s="34"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="30"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A196" s="34"/>
+      <c r="B196" s="23"/>
+      <c r="C196" s="23"/>
+      <c r="D196" s="23"/>
+      <c r="E196" s="23"/>
+      <c r="F196" s="30"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A197" s="34"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="23"/>
+      <c r="D197" s="23"/>
+      <c r="E197" s="23"/>
+      <c r="F197" s="30"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A198" s="34"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="23"/>
+      <c r="D198" s="23"/>
+      <c r="E198" s="23"/>
+      <c r="F198" s="30"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A199" s="34"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="23"/>
+      <c r="D199" s="23"/>
+      <c r="E199" s="23"/>
+      <c r="F199" s="30"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A200" s="34"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="23"/>
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="30"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A201" s="34"/>
+      <c r="B201" s="23"/>
+      <c r="C201" s="23"/>
+      <c r="D201" s="23"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="30"/>
+    </row>
+    <row r="202" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A202" s="35"/>
+      <c r="B202" s="31"/>
+      <c r="C202" s="31"/>
+      <c r="D202" s="31"/>
+      <c r="E202" s="31"/>
+      <c r="F202" s="32"/>
+    </row>
+    <row r="203" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A204" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B204" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C204" s="36"/>
+      <c r="D204" s="36"/>
+      <c r="E204" s="36"/>
+      <c r="F204" s="29"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A205" s="34"/>
+      <c r="B205" s="23"/>
+      <c r="C205" s="23"/>
+      <c r="D205" s="23"/>
+      <c r="E205" s="23"/>
+      <c r="F205" s="30"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A206" s="34"/>
+      <c r="B206" s="23"/>
+      <c r="C206" s="23"/>
+      <c r="D206" s="23"/>
+      <c r="E206" s="23"/>
+      <c r="F206" s="30"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A207" s="34"/>
+      <c r="B207" s="23"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="23"/>
+      <c r="E207" s="23"/>
+      <c r="F207" s="30"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A208" s="34"/>
+      <c r="B208" s="23"/>
+      <c r="C208" s="23"/>
+      <c r="D208" s="23"/>
+      <c r="E208" s="23"/>
+      <c r="F208" s="30"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A209" s="34"/>
+      <c r="B209" s="23"/>
+      <c r="C209" s="23"/>
+      <c r="D209" s="23"/>
+      <c r="E209" s="23"/>
+      <c r="F209" s="30"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A210" s="34"/>
+      <c r="B210" s="23"/>
+      <c r="C210" s="23"/>
+      <c r="D210" s="23"/>
+      <c r="E210" s="23"/>
+      <c r="F210" s="30"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A211" s="34"/>
+      <c r="B211" s="23"/>
+      <c r="C211" s="23"/>
+      <c r="D211" s="23"/>
+      <c r="E211" s="23"/>
+      <c r="F211" s="30"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A212" s="34"/>
+      <c r="B212" s="23"/>
+      <c r="C212" s="23"/>
+      <c r="D212" s="23"/>
+      <c r="E212" s="23"/>
+      <c r="F212" s="30"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A213" s="34"/>
+      <c r="B213" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C213" s="23"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="30"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A214" s="34"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
+      <c r="D214" s="23"/>
+      <c r="E214" s="23"/>
+      <c r="F214" s="30"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A215" s="34"/>
+      <c r="B215" s="23"/>
+      <c r="C215" s="23"/>
+      <c r="D215" s="23"/>
+      <c r="E215" s="23"/>
+      <c r="F215" s="30"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A216" s="34"/>
+      <c r="B216" s="23"/>
+      <c r="C216" s="23"/>
+      <c r="D216" s="23"/>
+      <c r="E216" s="23"/>
+      <c r="F216" s="30"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A217" s="34"/>
+      <c r="B217" s="23"/>
+      <c r="C217" s="23"/>
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="30"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A218" s="34"/>
+      <c r="B218" s="23"/>
+      <c r="C218" s="23"/>
+      <c r="D218" s="23"/>
+      <c r="E218" s="23"/>
+      <c r="F218" s="30"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A219" s="34"/>
+      <c r="B219" s="23"/>
+      <c r="C219" s="23"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="30"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A220" s="34"/>
+      <c r="B220" s="23"/>
+      <c r="C220" s="23"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
+      <c r="F220" s="30"/>
+    </row>
+    <row r="221" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A221" s="35"/>
+      <c r="B221" s="31"/>
+      <c r="C221" s="31"/>
+      <c r="D221" s="31"/>
+      <c r="E221" s="31"/>
+      <c r="F221" s="32"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A222" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B222" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C222" s="36"/>
+      <c r="D222" s="36"/>
+      <c r="E222" s="36"/>
+      <c r="F222" s="29"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A223" s="34"/>
+      <c r="B223" s="23"/>
+      <c r="C223" s="23"/>
+      <c r="D223" s="23"/>
+      <c r="E223" s="23"/>
+      <c r="F223" s="30"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A224" s="34"/>
+      <c r="B224" s="23"/>
+      <c r="C224" s="23"/>
+      <c r="D224" s="23"/>
+      <c r="E224" s="23"/>
+      <c r="F224" s="30"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A225" s="34"/>
+      <c r="B225" s="23"/>
+      <c r="C225" s="23"/>
+      <c r="D225" s="23"/>
+      <c r="E225" s="23"/>
+      <c r="F225" s="30"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A226" s="34"/>
+      <c r="B226" s="23"/>
+      <c r="C226" s="23"/>
+      <c r="D226" s="23"/>
+      <c r="E226" s="23"/>
+      <c r="F226" s="30"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A227" s="34"/>
+      <c r="B227" s="23"/>
+      <c r="C227" s="23"/>
+      <c r="D227" s="23"/>
+      <c r="E227" s="23"/>
+      <c r="F227" s="30"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A228" s="34"/>
+      <c r="B228" s="23"/>
+      <c r="C228" s="23"/>
+      <c r="D228" s="23"/>
+      <c r="E228" s="23"/>
+      <c r="F228" s="30"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A229" s="34"/>
+      <c r="B229" s="23"/>
+      <c r="C229" s="23"/>
+      <c r="D229" s="23"/>
+      <c r="E229" s="23"/>
+      <c r="F229" s="30"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A230" s="34"/>
+      <c r="B230" s="23"/>
+      <c r="C230" s="23"/>
+      <c r="D230" s="23"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="30"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A231" s="34"/>
+      <c r="B231" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C231" s="23"/>
+      <c r="D231" s="23"/>
+      <c r="E231" s="23"/>
+      <c r="F231" s="30"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A232" s="34"/>
+      <c r="B232" s="23"/>
+      <c r="C232" s="23"/>
+      <c r="D232" s="23"/>
+      <c r="E232" s="23"/>
+      <c r="F232" s="30"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A233" s="34"/>
+      <c r="B233" s="23"/>
+      <c r="C233" s="23"/>
+      <c r="D233" s="23"/>
+      <c r="E233" s="23"/>
+      <c r="F233" s="30"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A234" s="34"/>
+      <c r="B234" s="23"/>
+      <c r="C234" s="23"/>
+      <c r="D234" s="23"/>
+      <c r="E234" s="23"/>
+      <c r="F234" s="30"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A235" s="34"/>
+      <c r="B235" s="23"/>
+      <c r="C235" s="23"/>
+      <c r="D235" s="23"/>
+      <c r="E235" s="23"/>
+      <c r="F235" s="30"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A236" s="34"/>
+      <c r="B236" s="23"/>
+      <c r="C236" s="23"/>
+      <c r="D236" s="23"/>
+      <c r="E236" s="23"/>
+      <c r="F236" s="30"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A237" s="34"/>
+      <c r="B237" s="23"/>
+      <c r="C237" s="23"/>
+      <c r="D237" s="23"/>
+      <c r="E237" s="23"/>
+      <c r="F237" s="30"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A238" s="34"/>
+      <c r="B238" s="23"/>
+      <c r="C238" s="23"/>
+      <c r="D238" s="23"/>
+      <c r="E238" s="23"/>
+      <c r="F238" s="30"/>
+    </row>
+    <row r="239" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A239" s="35"/>
+      <c r="B239" s="31"/>
+      <c r="C239" s="31"/>
+      <c r="D239" s="31"/>
+      <c r="E239" s="31"/>
+      <c r="F239" s="32"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A240" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B240" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C240" s="36"/>
+      <c r="D240" s="36"/>
+      <c r="E240" s="36"/>
+      <c r="F240" s="29"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A241" s="34"/>
+      <c r="B241" s="23"/>
+      <c r="C241" s="23"/>
+      <c r="D241" s="23"/>
+      <c r="E241" s="23"/>
+      <c r="F241" s="30"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A242" s="34"/>
+      <c r="B242" s="23"/>
+      <c r="C242" s="23"/>
+      <c r="D242" s="23"/>
+      <c r="E242" s="23"/>
+      <c r="F242" s="30"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A243" s="34"/>
+      <c r="B243" s="23"/>
+      <c r="C243" s="23"/>
+      <c r="D243" s="23"/>
+      <c r="E243" s="23"/>
+      <c r="F243" s="30"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A244" s="34"/>
+      <c r="B244" s="23"/>
+      <c r="C244" s="23"/>
+      <c r="D244" s="23"/>
+      <c r="E244" s="23"/>
+      <c r="F244" s="30"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A245" s="34"/>
+      <c r="B245" s="23"/>
+      <c r="C245" s="23"/>
+      <c r="D245" s="23"/>
+      <c r="E245" s="23"/>
+      <c r="F245" s="30"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A246" s="34"/>
+      <c r="B246" s="23"/>
+      <c r="C246" s="23"/>
+      <c r="D246" s="23"/>
+      <c r="E246" s="23"/>
+      <c r="F246" s="30"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A247" s="34"/>
+      <c r="B247" s="23"/>
+      <c r="C247" s="23"/>
+      <c r="D247" s="23"/>
+      <c r="E247" s="23"/>
+      <c r="F247" s="30"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A248" s="34"/>
+      <c r="B248" s="23"/>
+      <c r="C248" s="23"/>
+      <c r="D248" s="23"/>
+      <c r="E248" s="23"/>
+      <c r="F248" s="30"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A249" s="34"/>
+      <c r="B249" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C249" s="23"/>
+      <c r="D249" s="23"/>
+      <c r="E249" s="23"/>
+      <c r="F249" s="30"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A250" s="34"/>
+      <c r="B250" s="23"/>
+      <c r="C250" s="23"/>
+      <c r="D250" s="23"/>
+      <c r="E250" s="23"/>
+      <c r="F250" s="30"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A251" s="34"/>
+      <c r="B251" s="23"/>
+      <c r="C251" s="23"/>
+      <c r="D251" s="23"/>
+      <c r="E251" s="23"/>
+      <c r="F251" s="30"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A252" s="34"/>
+      <c r="B252" s="23"/>
+      <c r="C252" s="23"/>
+      <c r="D252" s="23"/>
+      <c r="E252" s="23"/>
+      <c r="F252" s="30"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A253" s="34"/>
+      <c r="B253" s="23"/>
+      <c r="C253" s="23"/>
+      <c r="D253" s="23"/>
+      <c r="E253" s="23"/>
+      <c r="F253" s="30"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A254" s="34"/>
+      <c r="B254" s="23"/>
+      <c r="C254" s="23"/>
+      <c r="D254" s="23"/>
+      <c r="E254" s="23"/>
+      <c r="F254" s="30"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A255" s="34"/>
+      <c r="B255" s="23"/>
+      <c r="C255" s="23"/>
+      <c r="D255" s="23"/>
+      <c r="E255" s="23"/>
+      <c r="F255" s="30"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A256" s="34"/>
+      <c r="B256" s="23"/>
+      <c r="C256" s="23"/>
+      <c r="D256" s="23"/>
+      <c r="E256" s="23"/>
+      <c r="F256" s="30"/>
+    </row>
+    <row r="257" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A257" s="35"/>
+      <c r="B257" s="31"/>
+      <c r="C257" s="31"/>
+      <c r="D257" s="31"/>
+      <c r="E257" s="31"/>
+      <c r="F257" s="32"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A258" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B258" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C258" s="36"/>
+      <c r="D258" s="36"/>
+      <c r="E258" s="36"/>
+      <c r="F258" s="29"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A259" s="34"/>
+      <c r="B259" s="23"/>
+      <c r="C259" s="23"/>
+      <c r="D259" s="23"/>
+      <c r="E259" s="23"/>
+      <c r="F259" s="30"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A260" s="34"/>
+      <c r="B260" s="23"/>
+      <c r="C260" s="23"/>
+      <c r="D260" s="23"/>
+      <c r="E260" s="23"/>
+      <c r="F260" s="30"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A261" s="34"/>
+      <c r="B261" s="23"/>
+      <c r="C261" s="23"/>
+      <c r="D261" s="23"/>
+      <c r="E261" s="23"/>
+      <c r="F261" s="30"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A262" s="34"/>
+      <c r="B262" s="23"/>
+      <c r="C262" s="23"/>
+      <c r="D262" s="23"/>
+      <c r="E262" s="23"/>
+      <c r="F262" s="30"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A263" s="34"/>
+      <c r="B263" s="23"/>
+      <c r="C263" s="23"/>
+      <c r="D263" s="23"/>
+      <c r="E263" s="23"/>
+      <c r="F263" s="30"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A264" s="34"/>
+      <c r="B264" s="23"/>
+      <c r="C264" s="23"/>
+      <c r="D264" s="23"/>
+      <c r="E264" s="23"/>
+      <c r="F264" s="30"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A265" s="34"/>
+      <c r="B265" s="23"/>
+      <c r="C265" s="23"/>
+      <c r="D265" s="23"/>
+      <c r="E265" s="23"/>
+      <c r="F265" s="30"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A266" s="34"/>
+      <c r="B266" s="23"/>
+      <c r="C266" s="23"/>
+      <c r="D266" s="23"/>
+      <c r="E266" s="23"/>
+      <c r="F266" s="30"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A267" s="34"/>
+      <c r="B267" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C267" s="23"/>
+      <c r="D267" s="23"/>
+      <c r="E267" s="23"/>
+      <c r="F267" s="30"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A268" s="34"/>
+      <c r="B268" s="23"/>
+      <c r="C268" s="23"/>
+      <c r="D268" s="23"/>
+      <c r="E268" s="23"/>
+      <c r="F268" s="30"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A269" s="34"/>
+      <c r="B269" s="23"/>
+      <c r="C269" s="23"/>
+      <c r="D269" s="23"/>
+      <c r="E269" s="23"/>
+      <c r="F269" s="30"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A270" s="34"/>
+      <c r="B270" s="23"/>
+      <c r="C270" s="23"/>
+      <c r="D270" s="23"/>
+      <c r="E270" s="23"/>
+      <c r="F270" s="30"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A271" s="34"/>
+      <c r="B271" s="23"/>
+      <c r="C271" s="23"/>
+      <c r="D271" s="23"/>
+      <c r="E271" s="23"/>
+      <c r="F271" s="30"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A272" s="34"/>
+      <c r="B272" s="23"/>
+      <c r="C272" s="23"/>
+      <c r="D272" s="23"/>
+      <c r="E272" s="23"/>
+      <c r="F272" s="30"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A273" s="34"/>
+      <c r="B273" s="23"/>
+      <c r="C273" s="23"/>
+      <c r="D273" s="23"/>
+      <c r="E273" s="23"/>
+      <c r="F273" s="30"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A274" s="34"/>
+      <c r="B274" s="23"/>
+      <c r="C274" s="23"/>
+      <c r="D274" s="23"/>
+      <c r="E274" s="23"/>
+      <c r="F274" s="30"/>
+    </row>
+    <row r="275" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A275" s="35"/>
+      <c r="B275" s="31"/>
+      <c r="C275" s="31"/>
+      <c r="D275" s="31"/>
+      <c r="E275" s="31"/>
+      <c r="F275" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="171">
+    <mergeCell ref="A75:A92"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="D75:D83"/>
+    <mergeCell ref="E75:E83"/>
+    <mergeCell ref="F75:F83"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="C84:C92"/>
+    <mergeCell ref="D84:D92"/>
+    <mergeCell ref="E84:E92"/>
+    <mergeCell ref="F84:F92"/>
+    <mergeCell ref="A57:A74"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="F57:F65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="D66:D74"/>
+    <mergeCell ref="E66:E74"/>
+    <mergeCell ref="F66:F74"/>
+    <mergeCell ref="A39:A56"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="F39:F47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="F48:F56"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C38"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E30:E38"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="E12:E20"/>
+    <mergeCell ref="F12:F20"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="F3:F11"/>
     <mergeCell ref="F94:F102"/>
     <mergeCell ref="B103:B111"/>
     <mergeCell ref="C103:C111"/>
@@ -5644,67 +7069,105 @@
     <mergeCell ref="C94:C102"/>
     <mergeCell ref="D94:D102"/>
     <mergeCell ref="E94:E102"/>
-    <mergeCell ref="F30:F38"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="E12:E20"/>
-    <mergeCell ref="F12:F20"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="F3:F11"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C29"/>
-    <mergeCell ref="D21:D29"/>
-    <mergeCell ref="E21:E29"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C38"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="E30:E38"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="A39:A56"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="F39:F47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="F48:F56"/>
-    <mergeCell ref="A57:A74"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="F57:F65"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C74"/>
-    <mergeCell ref="D66:D74"/>
-    <mergeCell ref="E66:E74"/>
-    <mergeCell ref="F66:F74"/>
-    <mergeCell ref="A75:A92"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="D75:D83"/>
-    <mergeCell ref="E75:E83"/>
-    <mergeCell ref="F75:F83"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="C84:C92"/>
-    <mergeCell ref="D84:D92"/>
-    <mergeCell ref="E84:E92"/>
-    <mergeCell ref="F84:F92"/>
+    <mergeCell ref="F112:F120"/>
+    <mergeCell ref="B121:B129"/>
+    <mergeCell ref="C121:C129"/>
+    <mergeCell ref="D121:D129"/>
+    <mergeCell ref="E121:E129"/>
+    <mergeCell ref="F121:F129"/>
+    <mergeCell ref="A112:A129"/>
+    <mergeCell ref="B112:B120"/>
+    <mergeCell ref="C112:C120"/>
+    <mergeCell ref="D112:D120"/>
+    <mergeCell ref="E112:E120"/>
+    <mergeCell ref="F130:F138"/>
+    <mergeCell ref="B139:B147"/>
+    <mergeCell ref="C139:C147"/>
+    <mergeCell ref="D139:D147"/>
+    <mergeCell ref="E139:E147"/>
+    <mergeCell ref="F139:F147"/>
+    <mergeCell ref="A130:A147"/>
+    <mergeCell ref="B130:B138"/>
+    <mergeCell ref="C130:C138"/>
+    <mergeCell ref="D130:D138"/>
+    <mergeCell ref="E130:E138"/>
+    <mergeCell ref="F149:F157"/>
+    <mergeCell ref="B158:B166"/>
+    <mergeCell ref="C158:C166"/>
+    <mergeCell ref="D158:D166"/>
+    <mergeCell ref="E158:E166"/>
+    <mergeCell ref="F158:F166"/>
+    <mergeCell ref="A149:A166"/>
+    <mergeCell ref="B149:B157"/>
+    <mergeCell ref="C149:C157"/>
+    <mergeCell ref="D149:D157"/>
+    <mergeCell ref="E149:E157"/>
+    <mergeCell ref="F167:F175"/>
+    <mergeCell ref="B176:B184"/>
+    <mergeCell ref="C176:C184"/>
+    <mergeCell ref="D176:D184"/>
+    <mergeCell ref="E176:E184"/>
+    <mergeCell ref="F176:F184"/>
+    <mergeCell ref="A167:A184"/>
+    <mergeCell ref="B167:B175"/>
+    <mergeCell ref="C167:C175"/>
+    <mergeCell ref="D167:D175"/>
+    <mergeCell ref="E167:E175"/>
+    <mergeCell ref="F185:F193"/>
+    <mergeCell ref="B194:B202"/>
+    <mergeCell ref="C194:C202"/>
+    <mergeCell ref="D194:D202"/>
+    <mergeCell ref="E194:E202"/>
+    <mergeCell ref="F194:F202"/>
+    <mergeCell ref="A185:A202"/>
+    <mergeCell ref="B185:B193"/>
+    <mergeCell ref="C185:C193"/>
+    <mergeCell ref="D185:D193"/>
+    <mergeCell ref="E185:E193"/>
+    <mergeCell ref="F204:F212"/>
+    <mergeCell ref="B213:B221"/>
+    <mergeCell ref="C213:C221"/>
+    <mergeCell ref="D213:D221"/>
+    <mergeCell ref="E213:E221"/>
+    <mergeCell ref="F213:F221"/>
+    <mergeCell ref="A204:A221"/>
+    <mergeCell ref="B204:B212"/>
+    <mergeCell ref="C204:C212"/>
+    <mergeCell ref="D204:D212"/>
+    <mergeCell ref="E204:E212"/>
+    <mergeCell ref="F222:F230"/>
+    <mergeCell ref="B231:B239"/>
+    <mergeCell ref="C231:C239"/>
+    <mergeCell ref="D231:D239"/>
+    <mergeCell ref="E231:E239"/>
+    <mergeCell ref="F231:F239"/>
+    <mergeCell ref="A222:A239"/>
+    <mergeCell ref="B222:B230"/>
+    <mergeCell ref="C222:C230"/>
+    <mergeCell ref="D222:D230"/>
+    <mergeCell ref="E222:E230"/>
+    <mergeCell ref="F240:F248"/>
+    <mergeCell ref="B249:B257"/>
+    <mergeCell ref="C249:C257"/>
+    <mergeCell ref="D249:D257"/>
+    <mergeCell ref="E249:E257"/>
+    <mergeCell ref="F249:F257"/>
+    <mergeCell ref="A240:A257"/>
+    <mergeCell ref="B240:B248"/>
+    <mergeCell ref="C240:C248"/>
+    <mergeCell ref="D240:D248"/>
+    <mergeCell ref="E240:E248"/>
+    <mergeCell ref="F258:F266"/>
+    <mergeCell ref="B267:B275"/>
+    <mergeCell ref="C267:C275"/>
+    <mergeCell ref="D267:D275"/>
+    <mergeCell ref="E267:E275"/>
+    <mergeCell ref="F267:F275"/>
+    <mergeCell ref="A258:A275"/>
+    <mergeCell ref="B258:B266"/>
+    <mergeCell ref="C258:C266"/>
+    <mergeCell ref="D258:D266"/>
+    <mergeCell ref="E258:E266"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5716,7 +7179,7 @@
   <dimension ref="L1:O120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="L2:M118"/>
+      <selection activeCell="L2" sqref="L2:M118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5731,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.640625</v>
+        <v>0.78125</v>
       </c>
       <c r="N2">
         <f>1+L2</f>
@@ -5739,7 +7202,7 @@
       </c>
       <c r="O2">
         <f>100*(1-M2)</f>
-        <v>35.9375</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="3" spans="12:15" x14ac:dyDescent="0.45">
@@ -5747,7 +7210,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.359375</v>
+        <v>0.71875</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -5755,7 +7218,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>64.0625</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -5763,7 +7226,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.21875</v>
+        <v>0.53125</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -5771,7 +7234,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -5779,7 +7242,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.203125</v>
+        <v>0.46875</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -5787,7 +7250,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -5795,7 +7258,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.203125</v>
+        <v>0.421875</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -5803,7 +7266,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -5811,7 +7274,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.171875</v>
+        <v>0.421875</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -5819,7 +7282,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -5827,7 +7290,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.15625</v>
+        <v>0.390625</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -5835,7 +7298,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -5843,7 +7306,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -5851,7 +7314,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -5859,7 +7322,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>6.25E-2</v>
+        <v>0.3125</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -5867,7 +7330,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>93.75</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -5875,7 +7338,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.125</v>
+        <v>0.390625</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -5883,7 +7346,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -5891,7 +7354,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.1875</v>
+        <v>0.390625</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -5899,7 +7362,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -5907,7 +7370,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.1875</v>
+        <v>0.390625</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -5915,7 +7378,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -5923,7 +7386,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.171875</v>
+        <v>0.359375</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -5931,7 +7394,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -5939,7 +7402,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.234375</v>
+        <v>0.375</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -5947,7 +7410,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -5955,7 +7418,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.234375</v>
+        <v>0.40625</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -5963,7 +7426,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -5971,7 +7434,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.453125</v>
+        <v>0.40625</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -5979,7 +7442,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -5987,7 +7450,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.1875</v>
+        <v>0.390625</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -5995,7 +7458,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -6003,7 +7466,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -6011,7 +7474,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -6019,7 +7482,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>7.8125E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -6027,7 +7490,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -6035,7 +7498,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.15625</v>
+        <v>0.4375</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -6043,7 +7506,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -6051,7 +7514,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.21875</v>
+        <v>0.375</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -6059,7 +7522,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>78.125</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -6067,7 +7530,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.140625</v>
+        <v>0.375</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -6075,7 +7538,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -6083,7 +7546,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.109375</v>
+        <v>0.515625</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -6091,7 +7554,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -6099,7 +7562,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.203125</v>
+        <v>0.4375</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -6107,7 +7570,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -6115,7 +7578,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.171875</v>
+        <v>0.40625</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -6123,7 +7586,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -6131,7 +7594,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>7.8125E-2</v>
+        <v>0.34375</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -6139,7 +7602,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>65.625</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -6147,7 +7610,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>7.8125E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -6155,7 +7618,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -6163,7 +7626,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.109375</v>
+        <v>0.375</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -6171,7 +7634,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -6179,7 +7642,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.15625</v>
+        <v>0.4375</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -6187,7 +7650,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -6195,7 +7658,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.453125</v>
+        <v>0.390625</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -6203,7 +7666,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -6211,7 +7674,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.1875</v>
+        <v>0.390625</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -6219,7 +7682,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -6227,7 +7690,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.171875</v>
+        <v>0.453125</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -6235,7 +7698,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -6243,7 +7706,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.125</v>
+        <v>0.421875</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -6251,7 +7714,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -6259,7 +7722,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>9.375E-2</v>
+        <v>0.421875</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -6267,7 +7730,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -6275,7 +7738,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.140625</v>
+        <v>0.421875</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -6283,7 +7746,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -6291,7 +7754,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.109375</v>
+        <v>0.453125</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -6299,7 +7762,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -6307,7 +7770,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>9.375E-2</v>
+        <v>0.546875</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -6315,7 +7778,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -6323,7 +7786,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.203125</v>
+        <v>0.4375</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -6331,7 +7794,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -6339,7 +7802,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.234375</v>
+        <v>0.375</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -6347,7 +7810,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -6355,7 +7818,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.203125</v>
+        <v>0.375</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -6363,7 +7826,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -6371,7 +7834,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.1875</v>
+        <v>0.390625</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -6379,7 +7842,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -6387,7 +7850,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.125</v>
+        <v>0.53125</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -6395,7 +7858,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -6403,7 +7866,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.140625</v>
+        <v>0.421875</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -6411,7 +7874,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -6419,7 +7882,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.109375</v>
+        <v>0.359375</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -6427,7 +7890,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -6435,7 +7898,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.109375</v>
+        <v>0.375</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -6443,7 +7906,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -6451,7 +7914,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.109375</v>
+        <v>0.390625</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -6459,7 +7922,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -6467,7 +7930,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.109375</v>
+        <v>0.40625</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -6475,7 +7938,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -6483,7 +7946,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -6491,7 +7954,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -6499,7 +7962,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -6507,7 +7970,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -6515,7 +7978,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.109375</v>
+        <v>0.40625</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -6523,7 +7986,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -6531,7 +7994,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -6539,7 +8002,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -6547,7 +8010,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.125</v>
+        <v>0.40625</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -6555,7 +8018,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -6563,7 +8026,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -6571,7 +8034,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -6579,7 +8042,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.109375</v>
+        <v>0.40625</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -6587,7 +8050,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>89.0625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -6595,7 +8058,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -6603,7 +8066,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -6611,7 +8074,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>9.375E-2</v>
+        <v>0.421875</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -6619,7 +8082,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -6627,7 +8090,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>7.8125E-2</v>
+        <v>0.421875</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -6635,7 +8098,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -6643,7 +8106,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>7.8125E-2</v>
+        <v>0.421875</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -6651,7 +8114,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -6659,7 +8122,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>7.8125E-2</v>
+        <v>0.421875</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -6667,7 +8130,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -6675,7 +8138,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>7.8125E-2</v>
+        <v>0.4375</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -6683,7 +8146,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -6691,7 +8154,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>7.8125E-2</v>
+        <v>0.4375</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -6699,7 +8162,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -6707,7 +8170,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>7.8125E-2</v>
+        <v>0.4375</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -6715,7 +8178,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -6723,7 +8186,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>7.8125E-2</v>
+        <v>0.453125</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -6731,7 +8194,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -6739,7 +8202,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>7.8125E-2</v>
+        <v>0.421875</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -6747,7 +8210,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>92.1875</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -6755,7 +8218,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>9.375E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -6763,7 +8226,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>90.625</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -6771,7 +8234,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>9.375E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -6779,7 +8242,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>90.625</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -6787,7 +8250,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>9.375E-2</v>
+        <v>0.375</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -6795,7 +8258,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -6803,7 +8266,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>7.8125E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -6811,7 +8274,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -6819,7 +8282,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>7.8125E-2</v>
+        <v>0.359375</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -6827,7 +8290,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -6835,7 +8298,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>7.8125E-2</v>
+        <v>0.375</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -6843,7 +8306,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -6851,7 +8314,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>7.8125E-2</v>
+        <v>0.375</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -6859,7 +8322,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -6867,7 +8330,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>7.8125E-2</v>
+        <v>0.375</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -6875,7 +8338,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -6883,7 +8346,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>7.8125E-2</v>
+        <v>0.375</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -6891,7 +8354,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -6899,7 +8362,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>7.8125E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -6907,7 +8370,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -6915,7 +8378,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>7.8125E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -6923,7 +8386,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -6931,7 +8394,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>7.8125E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -6939,7 +8402,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -6947,7 +8410,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>7.8125E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -6955,7 +8418,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -6963,7 +8426,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>7.8125E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -6971,7 +8434,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -6979,7 +8442,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>7.8125E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -6987,7 +8450,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -6995,7 +8458,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>7.8125E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -7003,7 +8466,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -7011,7 +8474,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>7.8125E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -7019,7 +8482,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -7027,7 +8490,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>7.8125E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -7035,7 +8498,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -7043,7 +8506,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>7.8125E-2</v>
+        <v>0.375</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -7051,7 +8514,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -7059,7 +8522,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>7.8125E-2</v>
+        <v>0.375</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -7067,7 +8530,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>92.1875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -7075,7 +8538,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>9.375E-2</v>
+        <v>0.375</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -7083,7 +8546,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -7091,7 +8554,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>9.375E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -7099,7 +8562,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -7107,7 +8570,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>9.375E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -7115,7 +8578,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -7123,7 +8586,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>9.375E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -7131,7 +8594,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -7139,7 +8602,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>9.375E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -7147,7 +8610,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -7155,7 +8618,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>9.375E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -7163,7 +8626,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -7171,7 +8634,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>9.375E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -7179,7 +8642,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -7187,7 +8650,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>9.375E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -7195,7 +8658,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -7203,7 +8666,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>9.375E-2</v>
+        <v>0.390625</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -7211,7 +8674,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -7219,7 +8682,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -7227,7 +8690,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -7235,7 +8698,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -7243,7 +8706,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -7251,7 +8714,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -7259,7 +8722,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -7267,7 +8730,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -7275,7 +8738,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -7283,7 +8746,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -7291,7 +8754,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -7299,7 +8762,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -7307,7 +8770,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -7315,7 +8778,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -7323,15 +8786,15 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L102" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M102">
-        <v>9.375E-2</v>
+        <v>0.40625</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -7339,15 +8802,15 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L103" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M103">
-        <v>0.25</v>
+        <v>0.390625</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -7355,15 +8818,15 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L104" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M104">
-        <v>0.171875</v>
+        <v>0.25</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -7371,15 +8834,15 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L105" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M105">
-        <v>0.21875</v>
+        <v>0.328125</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -7387,15 +8850,15 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>78.125</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L106" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M106">
-        <v>0.21875</v>
+        <v>0.25</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -7403,15 +8866,15 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>78.125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L107" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M107">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -7419,15 +8882,15 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>81.25</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L108" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M108">
-        <v>0.25</v>
+        <v>0.28125</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -7435,15 +8898,15 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L109" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M109">
-        <v>0.21875</v>
+        <v>0.28125</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -7451,15 +8914,15 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>78.125</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L110" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M110">
-        <v>0.125</v>
+        <v>0.359375</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -7467,15 +8930,15 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L111" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M111">
-        <v>0.1875</v>
+        <v>0.421875</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -7483,15 +8946,15 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>81.25</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L112" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M112">
-        <v>9.375E-2</v>
+        <v>0.328125</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -7499,15 +8962,15 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>90.625</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L113" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M113">
-        <v>0.1875</v>
+        <v>0.28125</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -7515,15 +8978,15 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>81.25</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L114" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M114">
-        <v>0.15625</v>
+        <v>0.21875</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -7531,15 +8994,15 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L115" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M115">
-        <v>0.234375</v>
+        <v>0.296875</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -7547,15 +9010,15 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>76.5625</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L116" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M116">
-        <v>0.203125</v>
+        <v>0.3125</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -7563,15 +9026,15 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L117" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M117">
-        <v>0.265625</v>
+        <v>0.28125</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -7579,15 +9042,15 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>73.4375</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
       <c r="L118" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M118">
-        <v>6.5573770491803282E-2</v>
+        <v>0.31147540983606559</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -7595,7 +9058,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>93.442622950819683</v>
+        <v>68.852459016393439</v>
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthic Speaker (Data Augmentation).xlsx
+++ b/Dysarthic Speaker (Data Augmentation).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE49FF44-C7BD-4D43-8AF0-8B544F2AFFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0F346F-E181-440E-BD05-D694DFF82A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
   </bookViews>
@@ -268,7 +268,7 @@
     <t>Augmented_M04_E1</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f53f262f3d0&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f82c112c9d0&gt;</t>
   </si>
 </sst>
 </file>
@@ -972,304 +972,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>21.875</c:v>
+                  <c:v>20.3125</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.875</c:v>
+                  <c:v>42.1875</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.8125</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.8125</c:v>
+                  <c:v>64.0625</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>60.9375</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>59.375</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>60.9375</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60.9375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60.9375</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64.0625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>60.9375</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48.4375</c:v>
+                  <c:v>64.0625</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>56.25</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>59.375</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>65.625</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="39">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>62.5</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>60.9375</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>60.9375</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>60.9375</c:v>
-                </c:pt>
                 <c:pt idx="41">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>46.875</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>64.0625</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62.5</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>60.9375</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>59.375</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>59.375</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>59.375</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>59.375</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59.375</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>59.375</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>59.375</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>59.375</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>59.375</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>57.8125</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57.8125</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57.8125</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>57.8125</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>56.25</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>56.25</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>56.25</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>54.6875</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>57.8125</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>62.5</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>64.0625</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>62.5</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>62.5</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>62.5</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>62.5</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>59.375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>59.375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>62.5</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>62.5</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>62.5</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>59.375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>59.375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>59.375</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>59.375</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>59.375</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>59.375</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>59.375</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2970,13 +2970,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>52917</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>158751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5173</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>17638</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2165282</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>123474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2999,8 +2999,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4833056" y="17383126"/>
-          <a:ext cx="2245311" cy="1340555"/>
+          <a:off x="4833056" y="17383127"/>
+          <a:ext cx="2112365" cy="1261180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3051,6 +3051,100 @@
         <a:xfrm>
           <a:off x="2672292" y="17286113"/>
           <a:ext cx="2046111" cy="1534583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88195</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>185208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2162008</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>123472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E631A6E-3804-6BAA-0A47-4F5B16FDCA99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4868334" y="19076458"/>
+          <a:ext cx="2073813" cy="1234723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114653</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>61737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2101968</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>70556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92BC87C-7004-5026-38BE-5176AC20A6C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2672292" y="18952987"/>
+          <a:ext cx="1987315" cy="1490486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4656,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E277BC-F87C-4ABA-847E-22FC479E5A03}">
   <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="54" workbookViewId="0">
-      <selection activeCell="O108" sqref="O108"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="54" workbookViewId="0">
+      <selection activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5576,7 +5670,10 @@
       </c>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
+      <c r="E103" s="23">
+        <f>100-28</f>
+        <v>72</v>
+      </c>
       <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
@@ -7194,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.78125</v>
+        <v>0.796875</v>
       </c>
       <c r="N2">
         <f>1+L2</f>
@@ -7202,7 +7299,7 @@
       </c>
       <c r="O2">
         <f>100*(1-M2)</f>
-        <v>21.875</v>
+        <v>20.3125</v>
       </c>
     </row>
     <row r="3" spans="12:15" x14ac:dyDescent="0.45">
@@ -7226,7 +7323,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.53125</v>
+        <v>0.578125</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -7234,7 +7331,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -7258,7 +7355,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.421875</v>
+        <v>0.40625</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -7266,7 +7363,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -7274,7 +7371,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.421875</v>
+        <v>0.359375</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -7282,7 +7379,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -7290,7 +7387,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.390625</v>
+        <v>0.359375</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -7298,7 +7395,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -7306,7 +7403,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.40625</v>
+        <v>0.34375</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -7314,7 +7411,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>65.625</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -7322,7 +7419,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -7330,7 +7427,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -7338,7 +7435,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.390625</v>
+        <v>0.359375</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -7346,7 +7443,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -7354,7 +7451,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.390625</v>
+        <v>0.359375</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -7362,7 +7459,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -7370,7 +7467,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.390625</v>
+        <v>0.4375</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -7378,7 +7475,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -7386,7 +7483,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.359375</v>
+        <v>0.453125</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -7394,7 +7491,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -7402,7 +7499,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.375</v>
+        <v>0.390625</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -7410,7 +7507,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -7418,7 +7515,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.40625</v>
+        <v>0.359375</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -7426,7 +7523,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -7434,7 +7531,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.40625</v>
+        <v>0.359375</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -7442,7 +7539,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -7450,7 +7547,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.390625</v>
+        <v>0.40625</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -7458,7 +7555,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -7466,7 +7563,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.40625</v>
+        <v>0.375</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -7474,7 +7571,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -7482,7 +7579,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.40625</v>
+        <v>0.359375</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -7490,7 +7587,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -7498,7 +7595,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.4375</v>
+        <v>0.359375</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -7506,7 +7603,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -7514,7 +7611,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.375</v>
+        <v>0.390625</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -7522,7 +7619,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -7546,7 +7643,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.515625</v>
+        <v>0.359375</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -7554,7 +7651,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -7562,7 +7659,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.4375</v>
+        <v>0.484375</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -7570,7 +7667,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -7578,7 +7675,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.40625</v>
+        <v>0.375</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -7586,7 +7683,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -7594,7 +7691,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.34375</v>
+        <v>0.453125</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -7602,7 +7699,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>65.625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -7610,7 +7707,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.40625</v>
+        <v>0.453125</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -7618,7 +7715,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -7626,7 +7723,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.375</v>
+        <v>0.40625</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -7634,7 +7731,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -7642,7 +7739,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.4375</v>
+        <v>0.390625</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -7650,7 +7747,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -7658,7 +7755,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.390625</v>
+        <v>0.453125</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -7666,7 +7763,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -7674,7 +7771,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.390625</v>
+        <v>0.453125</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -7682,7 +7779,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -7690,7 +7787,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.453125</v>
+        <v>0.4375</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -7698,7 +7795,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -7706,7 +7803,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.421875</v>
+        <v>0.5</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -7714,7 +7811,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -7722,7 +7819,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.421875</v>
+        <v>0.484375</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -7730,7 +7827,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -7738,7 +7835,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.421875</v>
+        <v>0.453125</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -7746,7 +7843,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -7754,7 +7851,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.453125</v>
+        <v>0.375</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -7762,7 +7859,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -7770,7 +7867,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.546875</v>
+        <v>0.34375</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -7778,7 +7875,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>65.625</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -7786,7 +7883,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.4375</v>
+        <v>0.296875</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -7794,7 +7891,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -7802,7 +7899,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.375</v>
+        <v>0.40625</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -7810,7 +7907,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -7818,7 +7915,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.375</v>
+        <v>0.390625</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -7826,7 +7923,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -7834,7 +7931,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.390625</v>
+        <v>0.375</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -7842,7 +7939,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -7850,7 +7947,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.53125</v>
+        <v>0.5625</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -7858,7 +7955,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -7866,7 +7963,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.421875</v>
+        <v>0.53125</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -7874,7 +7971,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -7898,7 +7995,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.375</v>
+        <v>0.390625</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -7906,7 +8003,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -7914,7 +8011,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.390625</v>
+        <v>0.296875</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -7922,7 +8019,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -7930,7 +8027,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.40625</v>
+        <v>0.34375</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -7938,7 +8035,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>65.625</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -7946,7 +8043,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.40625</v>
+        <v>0.328125</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -7954,7 +8051,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -7962,7 +8059,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.40625</v>
+        <v>0.34375</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -7970,7 +8067,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>65.625</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -7978,7 +8075,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.40625</v>
+        <v>0.328125</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -7986,7 +8083,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -7994,7 +8091,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.40625</v>
+        <v>0.328125</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -8002,7 +8099,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -8010,7 +8107,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.40625</v>
+        <v>0.328125</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -8018,7 +8115,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -8026,7 +8123,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.40625</v>
+        <v>0.328125</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -8034,7 +8131,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -8042,7 +8139,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.40625</v>
+        <v>0.328125</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -8050,7 +8147,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -8058,7 +8155,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.40625</v>
+        <v>0.328125</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -8066,7 +8163,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -8074,7 +8171,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.421875</v>
+        <v>0.328125</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -8082,7 +8179,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -8090,7 +8187,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.421875</v>
+        <v>0.328125</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -8098,7 +8195,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -8106,7 +8203,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.421875</v>
+        <v>0.328125</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -8114,7 +8211,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -8122,7 +8219,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.421875</v>
+        <v>0.3125</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -8130,7 +8227,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -8138,7 +8235,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.4375</v>
+        <v>0.3125</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -8146,7 +8243,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -8154,7 +8251,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.4375</v>
+        <v>0.3125</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -8162,7 +8259,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -8170,7 +8267,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.4375</v>
+        <v>0.3125</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -8178,7 +8275,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -8186,7 +8283,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.453125</v>
+        <v>0.3125</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -8194,7 +8291,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -8202,7 +8299,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.421875</v>
+        <v>0.3125</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -8210,7 +8307,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -8218,7 +8315,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -8226,7 +8323,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -8234,7 +8331,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -8242,7 +8339,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -8250,7 +8347,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -8258,7 +8355,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -8266,7 +8363,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -8274,7 +8371,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -8282,7 +8379,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.359375</v>
+        <v>0.3125</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -8290,7 +8387,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>64.0625</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -8298,7 +8395,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -8306,7 +8403,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -8314,7 +8411,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -8322,7 +8419,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -8330,7 +8427,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -8338,7 +8435,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -8346,7 +8443,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -8354,7 +8451,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -8362,7 +8459,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -8370,7 +8467,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -8378,7 +8475,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.40625</v>
+        <v>0.3125</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -8386,7 +8483,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -8394,7 +8491,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -8402,7 +8499,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -8410,7 +8507,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -8418,7 +8515,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -8426,7 +8523,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -8434,7 +8531,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -8442,7 +8539,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -8450,7 +8547,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -8458,7 +8555,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -8466,7 +8563,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -8474,7 +8571,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.40625</v>
+        <v>0.3125</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -8482,7 +8579,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -8490,7 +8587,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -8498,7 +8595,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -8506,7 +8603,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -8514,7 +8611,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -8522,7 +8619,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -8530,7 +8627,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -8538,7 +8635,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.375</v>
+        <v>0.3125</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -8546,7 +8643,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -8554,7 +8651,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -8562,7 +8659,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -8570,7 +8667,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -8578,7 +8675,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -8586,7 +8683,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -8594,7 +8691,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -8602,7 +8699,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -8610,7 +8707,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -8618,7 +8715,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -8626,7 +8723,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -8634,7 +8731,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -8642,7 +8739,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -8650,7 +8747,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -8658,7 +8755,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -8666,7 +8763,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -8674,7 +8771,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -8682,7 +8779,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.40625</v>
+        <v>0.3125</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -8690,7 +8787,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -8698,7 +8795,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.40625</v>
+        <v>0.3125</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -8706,7 +8803,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -8714,7 +8811,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.40625</v>
+        <v>0.296875</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -8722,7 +8819,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -8730,7 +8827,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.40625</v>
+        <v>0.296875</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -8738,7 +8835,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -8746,7 +8843,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.40625</v>
+        <v>0.296875</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -8754,7 +8851,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -8762,7 +8859,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.40625</v>
+        <v>0.296875</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -8770,7 +8867,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -8778,7 +8875,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.40625</v>
+        <v>0.296875</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -8786,7 +8883,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -8794,7 +8891,7 @@
         <v>76</v>
       </c>
       <c r="M102">
-        <v>0.40625</v>
+        <v>0.296875</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -8802,7 +8899,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -8810,7 +8907,7 @@
         <v>76</v>
       </c>
       <c r="M103">
-        <v>0.390625</v>
+        <v>0.3125</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -8818,7 +8915,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -8858,7 +8955,7 @@
         <v>76</v>
       </c>
       <c r="M106">
-        <v>0.25</v>
+        <v>0.265625</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -8866,7 +8963,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -8874,7 +8971,7 @@
         <v>76</v>
       </c>
       <c r="M107">
-        <v>0.203125</v>
+        <v>0.15625</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -8882,7 +8979,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
@@ -8890,7 +8987,7 @@
         <v>76</v>
       </c>
       <c r="M108">
-        <v>0.28125</v>
+        <v>0.21875</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -8898,7 +8995,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>71.875</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -8906,7 +9003,7 @@
         <v>76</v>
       </c>
       <c r="M109">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -8914,7 +9011,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>71.875</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -8922,7 +9019,7 @@
         <v>76</v>
       </c>
       <c r="M110">
-        <v>0.359375</v>
+        <v>0.34375</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -8930,7 +9027,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>64.0625</v>
+        <v>65.625</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -8938,7 +9035,7 @@
         <v>76</v>
       </c>
       <c r="M111">
-        <v>0.421875</v>
+        <v>0.390625</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -8946,7 +9043,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>57.8125</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -8954,7 +9051,7 @@
         <v>76</v>
       </c>
       <c r="M112">
-        <v>0.328125</v>
+        <v>0.28125</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -8962,7 +9059,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>67.1875</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -8986,7 +9083,7 @@
         <v>76</v>
       </c>
       <c r="M114">
-        <v>0.21875</v>
+        <v>0.203125</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -8994,7 +9091,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>78.125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
@@ -9002,7 +9099,7 @@
         <v>76</v>
       </c>
       <c r="M115">
-        <v>0.296875</v>
+        <v>0.359375</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -9010,7 +9107,7 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>70.3125</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
@@ -9018,7 +9115,7 @@
         <v>76</v>
       </c>
       <c r="M116">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -9026,7 +9123,7 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
@@ -9034,7 +9131,7 @@
         <v>76</v>
       </c>
       <c r="M117">
-        <v>0.28125</v>
+        <v>0.328125</v>
       </c>
       <c r="N117" t="e">
         <f t="shared" si="2"/>
@@ -9042,7 +9139,7 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>71.875</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
@@ -9050,7 +9147,7 @@
         <v>76</v>
       </c>
       <c r="M118">
-        <v>0.31147540983606559</v>
+        <v>0.24590163934426229</v>
       </c>
       <c r="N118" t="e">
         <f t="shared" si="2"/>
@@ -9058,7 +9155,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>68.852459016393439</v>
+        <v>75.409836065573771</v>
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthic Speaker (Data Augmentation).xlsx
+++ b/Dysarthic Speaker (Data Augmentation).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0F346F-E181-440E-BD05-D694DFF82A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F14726-ADA9-4309-B28F-60B39E450048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>Intelligibility</t>
   </si>
@@ -268,7 +268,7 @@
     <t>Augmented_M04_E1</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f82c112c9d0&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f8b14679b20&gt;</t>
   </si>
 </sst>
 </file>
@@ -972,79 +972,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>20.3125</c:v>
+                  <c:v>15.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.125</c:v>
+                  <c:v>26.5625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.1875</c:v>
+                  <c:v>32.8125</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64.0625</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.0625</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65.625</c:v>
+                  <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.0625</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.0625</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>56.25</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>60.9375</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64.0625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>64.0625</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>64.0625</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>64.0625</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>60.9375</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>64.0625</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>54.6875</c:v>
@@ -1053,10 +1053,10 @@
                   <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>59.375</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>60.9375</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>54.6875</c:v>
@@ -1065,211 +1065,211 @@
                   <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>56.25</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>51.5625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>62.5</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>65.625</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70.3125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>59.375</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>60.9375</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>62.5</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>43.75</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="60">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>46.875</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>64.0625</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>60.9375</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>70.3125</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>65.625</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>67.1875</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>65.625</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>67.1875</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>67.1875</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>67.1875</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>67.1875</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>67.1875</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>67.1875</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>67.1875</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>67.1875</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>67.1875</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>68.75</c:v>
-                </c:pt>
                 <c:pt idx="74">
-                  <c:v>68.75</c:v>
+                  <c:v>34.375</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>68.75</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>68.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>68.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>68.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>68.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>68.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>68.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>68.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>68.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>68.75</c:v>
+                  <c:v>48.4375</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>68.75</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>68.75</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>68.75</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>68.75</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>68.75</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>68.75</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>68.75</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>68.75</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>68.75</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>68.75</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>70.3125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>70.3125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>70.3125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>70.3125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>70.3125</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,6 +3153,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>70555</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>17641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2248580</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>8819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED05E07-7AE3-7401-DE4E-7F13C5228282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4850694" y="20760974"/>
+          <a:ext cx="2178025" cy="1287638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88194</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2099026</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>105832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0464C1-99F2-889F-2C08-5D055EB7AA1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2645833" y="20637501"/>
+          <a:ext cx="2010832" cy="1508124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4750,8 +4844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E277BC-F87C-4ABA-847E-22FC479E5A03}">
   <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="54" workbookViewId="0">
-      <selection activeCell="K116" sqref="K116"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="54" workbookViewId="0">
+      <selection activeCell="N116" sqref="N116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5749,7 +5843,10 @@
       </c>
       <c r="C112" s="36"/>
       <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
+      <c r="E112" s="36">
+        <f>100-45</f>
+        <v>55</v>
+      </c>
       <c r="F112" s="29"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
@@ -7291,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.796875</v>
+        <v>0.84375</v>
       </c>
       <c r="N2">
         <f>1+L2</f>
@@ -7299,7 +7396,7 @@
       </c>
       <c r="O2">
         <f>100*(1-M2)</f>
-        <v>20.3125</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="3" spans="12:15" x14ac:dyDescent="0.45">
@@ -7307,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.71875</v>
+        <v>0.734375</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -7315,7 +7412,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>28.125</v>
+        <v>26.5625</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -7323,7 +7420,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.578125</v>
+        <v>0.671875</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -7331,7 +7428,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>32.8125</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -7339,7 +7436,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.46875</v>
+        <v>0.546875</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -7347,7 +7444,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -7355,7 +7452,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.40625</v>
+        <v>0.515625</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -7363,7 +7460,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -7371,7 +7468,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.359375</v>
+        <v>0.46875</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -7379,7 +7476,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -7387,7 +7484,7 @@
         <v>6</v>
       </c>
       <c r="M8">
-        <v>0.359375</v>
+        <v>0.484375</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
@@ -7395,7 +7492,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="9" spans="12:15" x14ac:dyDescent="0.45">
@@ -7403,7 +7500,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.34375</v>
+        <v>0.546875</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -7411,7 +7508,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>65.625</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -7419,7 +7516,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -7427,7 +7524,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -7435,7 +7532,7 @@
         <v>9</v>
       </c>
       <c r="M11">
-        <v>0.359375</v>
+        <v>0.46875</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
@@ -7443,7 +7540,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="12" spans="12:15" x14ac:dyDescent="0.45">
@@ -7451,7 +7548,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.359375</v>
+        <v>0.46875</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -7459,7 +7556,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -7467,7 +7564,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.4375</v>
+        <v>0.546875</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -7475,7 +7572,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -7483,7 +7580,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.453125</v>
+        <v>0.5</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -7491,7 +7588,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -7499,7 +7596,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.390625</v>
+        <v>0.46875</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -7507,7 +7604,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -7515,7 +7612,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.359375</v>
+        <v>0.53125</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -7523,7 +7620,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -7531,7 +7628,7 @@
         <v>15</v>
       </c>
       <c r="M17">
-        <v>0.359375</v>
+        <v>0.46875</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
@@ -7539,7 +7636,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="18" spans="12:15" x14ac:dyDescent="0.45">
@@ -7547,7 +7644,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.40625</v>
+        <v>0.5</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -7555,7 +7652,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -7563,7 +7660,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.375</v>
+        <v>0.453125</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -7571,7 +7668,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -7579,7 +7676,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.359375</v>
+        <v>0.4375</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -7587,7 +7684,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -7595,7 +7692,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.359375</v>
+        <v>0.546875</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -7603,7 +7700,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -7611,7 +7708,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.390625</v>
+        <v>0.515625</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -7619,7 +7716,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -7627,7 +7724,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.375</v>
+        <v>0.515625</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -7635,7 +7732,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -7643,7 +7740,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.359375</v>
+        <v>0.484375</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -7651,7 +7748,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -7659,7 +7756,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.484375</v>
+        <v>0.46875</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -7667,7 +7764,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -7675,7 +7772,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.375</v>
+        <v>0.453125</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -7683,7 +7780,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -7723,7 +7820,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.40625</v>
+        <v>0.453125</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -7731,7 +7828,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -7739,7 +7836,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.390625</v>
+        <v>0.453125</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -7747,7 +7844,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -7787,7 +7884,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.4375</v>
+        <v>0.453125</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -7795,7 +7892,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -7803,7 +7900,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.5</v>
+        <v>0.453125</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -7811,7 +7908,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -7819,7 +7916,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -7827,7 +7924,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -7851,7 +7948,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.375</v>
+        <v>0.453125</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -7859,7 +7956,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -7867,7 +7964,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.34375</v>
+        <v>0.453125</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -7875,7 +7972,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>65.625</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -7883,7 +7980,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.296875</v>
+        <v>0.453125</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -7891,7 +7988,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>70.3125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -7899,7 +7996,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.40625</v>
+        <v>0.453125</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -7907,7 +8004,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -7915,7 +8012,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.390625</v>
+        <v>0.453125</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -7923,7 +8020,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -7931,7 +8028,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.375</v>
+        <v>0.46875</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -7939,7 +8036,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -7947,7 +8044,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.5625</v>
+        <v>0.4375</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -7955,7 +8052,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -7963,7 +8060,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -7971,7 +8068,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -7979,7 +8076,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.359375</v>
+        <v>0.4375</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -7987,7 +8084,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -7995,7 +8092,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.390625</v>
+        <v>0.4375</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -8003,7 +8100,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -8011,7 +8108,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.296875</v>
+        <v>0.4375</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -8019,7 +8116,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>70.3125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -8027,7 +8124,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.34375</v>
+        <v>0.4375</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -8035,7 +8132,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>65.625</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -8043,7 +8140,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.328125</v>
+        <v>0.4375</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -8051,7 +8148,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -8059,7 +8156,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.34375</v>
+        <v>0.4375</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -8067,7 +8164,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>65.625</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -8075,7 +8172,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.328125</v>
+        <v>0.4375</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -8083,7 +8180,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -8091,7 +8188,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.328125</v>
+        <v>0.4375</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -8099,7 +8196,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -8107,7 +8204,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.328125</v>
+        <v>0.4375</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -8115,7 +8212,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -8123,7 +8220,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.328125</v>
+        <v>0.4375</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -8131,7 +8228,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -8139,7 +8236,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.328125</v>
+        <v>0.4375</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -8147,7 +8244,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -8155,7 +8252,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.328125</v>
+        <v>0.4375</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -8163,7 +8260,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -8171,7 +8268,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.328125</v>
+        <v>0.4375</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -8179,7 +8276,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -8187,7 +8284,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.328125</v>
+        <v>0.4375</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -8195,7 +8292,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -8203,7 +8300,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.328125</v>
+        <v>0.4375</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -8211,7 +8308,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -8219,7 +8316,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.3125</v>
+        <v>0.453125</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -8227,7 +8324,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -8235,7 +8332,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.3125</v>
+        <v>0.5625</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -8243,7 +8340,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -8251,7 +8348,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.3125</v>
+        <v>0.484375</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -8259,7 +8356,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -8267,7 +8364,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.3125</v>
+        <v>0.46875</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -8275,7 +8372,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -8283,7 +8380,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.3125</v>
+        <v>0.453125</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -8291,7 +8388,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -8299,7 +8396,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.3125</v>
+        <v>0.46875</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -8307,7 +8404,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -8315,7 +8412,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.3125</v>
+        <v>0.46875</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -8323,7 +8420,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -8331,7 +8428,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.3125</v>
+        <v>0.46875</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -8339,7 +8436,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>68.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -8347,7 +8444,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.3125</v>
+        <v>0.46875</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -8355,7 +8452,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -8363,7 +8460,7 @@
         <v>67</v>
       </c>
       <c r="M69">
-        <v>0.3125</v>
+        <v>0.46875</v>
       </c>
       <c r="N69">
         <f t="shared" si="2"/>
@@ -8371,7 +8468,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="70" spans="12:15" x14ac:dyDescent="0.45">
@@ -8379,7 +8476,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.3125</v>
+        <v>0.46875</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -8387,7 +8484,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -8395,7 +8492,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.3125</v>
+        <v>0.453125</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -8403,7 +8500,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -8411,7 +8508,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.3125</v>
+        <v>0.5</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -8419,7 +8516,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -8427,7 +8524,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.3125</v>
+        <v>0.546875</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -8435,7 +8532,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -8443,7 +8540,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.3125</v>
+        <v>0.5625</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -8451,7 +8548,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -8459,7 +8556,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.3125</v>
+        <v>0.53125</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -8467,7 +8564,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -8475,7 +8572,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.3125</v>
+        <v>0.65625</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -8483,7 +8580,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>34.375</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -8491,7 +8588,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.3125</v>
+        <v>0.625</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -8499,7 +8596,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -8507,7 +8604,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.3125</v>
+        <v>0.515625</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -8515,7 +8612,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -8523,7 +8620,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.3125</v>
+        <v>0.515625</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -8531,7 +8628,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -8539,7 +8636,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.3125</v>
+        <v>0.515625</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -8547,7 +8644,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -8555,7 +8652,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.3125</v>
+        <v>0.515625</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -8563,7 +8660,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -8571,7 +8668,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.3125</v>
+        <v>0.515625</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -8579,7 +8676,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -8587,7 +8684,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.3125</v>
+        <v>0.515625</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -8595,7 +8692,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -8603,7 +8700,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.3125</v>
+        <v>0.515625</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -8611,7 +8708,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -8619,7 +8716,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.3125</v>
+        <v>0.515625</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -8627,7 +8724,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -8635,7 +8732,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.3125</v>
+        <v>0.515625</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -8643,7 +8740,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -8651,7 +8748,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.3125</v>
+        <v>0.484375</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -8659,7 +8756,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -8667,7 +8764,7 @@
         <v>86</v>
       </c>
       <c r="M88">
-        <v>0.3125</v>
+        <v>0.46875</v>
       </c>
       <c r="N88">
         <f t="shared" si="2"/>
@@ -8675,7 +8772,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="89" spans="12:15" x14ac:dyDescent="0.45">
@@ -8683,7 +8780,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.3125</v>
+        <v>0.453125</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -8691,7 +8788,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -8699,7 +8796,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.3125</v>
+        <v>0.453125</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -8707,7 +8804,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -8715,7 +8812,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.3125</v>
+        <v>0.453125</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -8723,7 +8820,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -8731,7 +8828,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.3125</v>
+        <v>0.453125</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -8739,7 +8836,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -8747,7 +8844,7 @@
         <v>91</v>
       </c>
       <c r="M93">
-        <v>0.3125</v>
+        <v>0.453125</v>
       </c>
       <c r="N93">
         <f t="shared" si="2"/>
@@ -8755,7 +8852,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="94" spans="12:15" x14ac:dyDescent="0.45">
@@ -8763,7 +8860,7 @@
         <v>92</v>
       </c>
       <c r="M94">
-        <v>0.3125</v>
+        <v>0.453125</v>
       </c>
       <c r="N94">
         <f t="shared" si="2"/>
@@ -8771,7 +8868,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="95" spans="12:15" x14ac:dyDescent="0.45">
@@ -8779,7 +8876,7 @@
         <v>93</v>
       </c>
       <c r="M95">
-        <v>0.3125</v>
+        <v>0.453125</v>
       </c>
       <c r="N95">
         <f t="shared" si="2"/>
@@ -8787,7 +8884,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="96" spans="12:15" x14ac:dyDescent="0.45">
@@ -8795,7 +8892,7 @@
         <v>94</v>
       </c>
       <c r="M96">
-        <v>0.3125</v>
+        <v>0.453125</v>
       </c>
       <c r="N96">
         <f t="shared" si="2"/>
@@ -8803,7 +8900,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="97" spans="12:15" x14ac:dyDescent="0.45">
@@ -8811,7 +8908,7 @@
         <v>95</v>
       </c>
       <c r="M97">
-        <v>0.296875</v>
+        <v>0.453125</v>
       </c>
       <c r="N97">
         <f t="shared" si="2"/>
@@ -8819,7 +8916,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>70.3125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="98" spans="12:15" x14ac:dyDescent="0.45">
@@ -8827,7 +8924,7 @@
         <v>96</v>
       </c>
       <c r="M98">
-        <v>0.296875</v>
+        <v>0.453125</v>
       </c>
       <c r="N98">
         <f t="shared" si="2"/>
@@ -8835,7 +8932,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>70.3125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="99" spans="12:15" x14ac:dyDescent="0.45">
@@ -8843,7 +8940,7 @@
         <v>97</v>
       </c>
       <c r="M99">
-        <v>0.296875</v>
+        <v>0.453125</v>
       </c>
       <c r="N99">
         <f t="shared" si="2"/>
@@ -8851,7 +8948,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>70.3125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="100" spans="12:15" x14ac:dyDescent="0.45">
@@ -8859,7 +8956,7 @@
         <v>98</v>
       </c>
       <c r="M100">
-        <v>0.296875</v>
+        <v>0.453125</v>
       </c>
       <c r="N100">
         <f t="shared" si="2"/>
@@ -8867,7 +8964,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>70.3125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="101" spans="12:15" x14ac:dyDescent="0.45">
@@ -8875,7 +8972,7 @@
         <v>99</v>
       </c>
       <c r="M101">
-        <v>0.296875</v>
+        <v>0.453125</v>
       </c>
       <c r="N101">
         <f t="shared" si="2"/>
@@ -8883,7 +8980,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>70.3125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="102" spans="12:15" x14ac:dyDescent="0.45">
@@ -8891,7 +8988,7 @@
         <v>76</v>
       </c>
       <c r="M102">
-        <v>0.296875</v>
+        <v>0.453125</v>
       </c>
       <c r="N102" t="e">
         <f t="shared" si="2"/>
@@ -8899,7 +8996,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>70.3125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="103" spans="12:15" x14ac:dyDescent="0.45">
@@ -8907,7 +9004,7 @@
         <v>76</v>
       </c>
       <c r="M103">
-        <v>0.3125</v>
+        <v>0.390625</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -8915,7 +9012,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -8923,7 +9020,7 @@
         <v>76</v>
       </c>
       <c r="M104">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -8931,7 +9028,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -8939,7 +9036,7 @@
         <v>76</v>
       </c>
       <c r="M105">
-        <v>0.328125</v>
+        <v>0.53125</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -8947,7 +9044,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>67.1875</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -8955,7 +9052,7 @@
         <v>76</v>
       </c>
       <c r="M106">
-        <v>0.265625</v>
+        <v>0.5</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -8963,7 +9060,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>73.4375</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -8971,7 +9068,7 @@
         <v>76</v>
       </c>
       <c r="M107">
-        <v>0.15625</v>
+        <v>0.515625</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -8979,7 +9076,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>84.375</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
@@ -8987,7 +9084,7 @@
         <v>76</v>
       </c>
       <c r="M108">
-        <v>0.21875</v>
+        <v>0.40625</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -8995,7 +9092,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>78.125</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -9003,7 +9100,7 @@
         <v>76</v>
       </c>
       <c r="M109">
-        <v>0.25</v>
+        <v>0.390625</v>
       </c>
       <c r="N109" t="e">
         <f t="shared" si="2"/>
@@ -9011,7 +9108,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="110" spans="12:15" x14ac:dyDescent="0.45">
@@ -9019,7 +9116,7 @@
         <v>76</v>
       </c>
       <c r="M110">
-        <v>0.34375</v>
+        <v>0.375</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -9027,7 +9124,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>65.625</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -9035,7 +9132,7 @@
         <v>76</v>
       </c>
       <c r="M111">
-        <v>0.390625</v>
+        <v>0.4375</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -9043,7 +9140,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -9051,7 +9148,7 @@
         <v>76</v>
       </c>
       <c r="M112">
-        <v>0.28125</v>
+        <v>0.40625</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -9059,7 +9156,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>71.875</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -9067,7 +9164,7 @@
         <v>76</v>
       </c>
       <c r="M113">
-        <v>0.28125</v>
+        <v>0.4375</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -9075,7 +9172,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>71.875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
@@ -9083,7 +9180,7 @@
         <v>76</v>
       </c>
       <c r="M114">
-        <v>0.203125</v>
+        <v>0.5</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -9091,7 +9188,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
@@ -9099,7 +9196,7 @@
         <v>76</v>
       </c>
       <c r="M115">
-        <v>0.359375</v>
+        <v>0.40625</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -9107,7 +9204,7 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>64.0625</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
@@ -9115,7 +9212,7 @@
         <v>76</v>
       </c>
       <c r="M116">
-        <v>0.25</v>
+        <v>0.47058823529411759</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -9123,39 +9220,27 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>52.941176470588246</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">
-      <c r="L117" t="s">
-        <v>76</v>
-      </c>
-      <c r="M117">
-        <v>0.328125</v>
-      </c>
-      <c r="N117" t="e">
+      <c r="N117">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>67.1875</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="12:15" x14ac:dyDescent="0.45">
-      <c r="L118" t="s">
-        <v>76</v>
-      </c>
-      <c r="M118">
-        <v>0.24590163934426229</v>
-      </c>
-      <c r="N118" t="e">
+      <c r="N118">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>75.409836065573771</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthic Speaker (Data Augmentation).xlsx
+++ b/Dysarthic Speaker (Data Augmentation).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F14726-ADA9-4309-B28F-60B39E450048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0600A2-B857-4201-B144-EDA9C2D6A111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="12195" windowHeight="9442" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Combine Sheet" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
     <t>Augmented_M04_E1</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7f8b14679b20&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7efb9b46dca0&gt;</t>
   </si>
 </sst>
 </file>
@@ -773,12 +773,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -788,10 +782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -800,17 +791,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -818,7 +803,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -828,6 +825,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -842,28 +854,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -975,274 +975,274 @@
                   <c:v>15.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.5625</c:v>
+                  <c:v>21.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.8125</c:v>
+                  <c:v>34.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.3125</c:v>
+                  <c:v>43.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.3125</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>54.6875</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53.125</c:v>
+                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>45.3125</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>54.6875</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="66">
                   <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>54.6875</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>53.125</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="72">
                   <c:v>54.6875</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="73">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>46.875</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>34.375</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>48.4375</c:v>
-                </c:pt>
                 <c:pt idx="80">
-                  <c:v>48.4375</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>48.4375</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>48.4375</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>48.4375</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>48.4375</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>51.5625</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>54.6875</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>54.6875</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>54.6875</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>54.6875</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>54.6875</c:v>
@@ -3247,6 +3247,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2160764</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>138906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE61A61C-2250-B192-33DC-04A69183DF6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2557639" y="22225000"/>
+          <a:ext cx="2160764" cy="1620573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52916</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>17638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2088944</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>132291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{805E1E4C-2444-6944-0C97-F480764CA1D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4833055" y="22427847"/>
+          <a:ext cx="2036028" cy="1225903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3621,316 +3715,316 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>10.94</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="18">
         <v>7</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="25"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="25"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="25"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="25"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="25"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="25"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="25"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="25"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="21">
         <v>32.47</v>
       </c>
       <c r="D11" s="22">
         <f>100-71</f>
         <v>29</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="10"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="25"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="11"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="25"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="11"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="25"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="11"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="25"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="11"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="25"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="13"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="11"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="25"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="13"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="11"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="13"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="11"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="25"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="12"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="25"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="21">
         <v>40.65</v>
       </c>
       <c r="D20" s="22">
         <v>19</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="10"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="25"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="11"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="25"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="11"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="25"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="11"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="25"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="11"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="25"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="11"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="25"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="11"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="25"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="13"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="11"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="25"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="12"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="25"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="21">
         <v>28.39</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="10"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="25"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="13"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="11"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="25"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="13"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="11"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="25"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="13"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="11"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="25"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="11"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="25"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="13"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="11"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="25"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="11"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="25"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="13"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="11"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="25"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="12"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="8">
         <f xml:space="preserve"> SUM(C2:C37)/4</f>
         <v>28.112500000000001</v>
@@ -3942,219 +4036,219 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="16">
         <v>69.459999999999994</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="18">
         <v>53</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="27"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="13"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="27"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="13"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="27"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="13"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="27"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="13"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="27"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="13"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="27"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="13"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="27"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="13"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="27"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="14"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="27"/>
-      <c r="B48" s="16" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="21">
         <v>67.02</v>
       </c>
       <c r="D48" s="22">
         <v>52</v>
       </c>
-      <c r="E48" s="12"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="27"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="13"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="27"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="13"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="27"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="13"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="27"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="13"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="27"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="13"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="27"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="13"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="27"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="13"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="27"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="14"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="27"/>
-      <c r="B57" s="16" t="s">
+      <c r="A57" s="26"/>
+      <c r="B57" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="21">
         <v>55.91</v>
       </c>
       <c r="D57" s="22">
         <v>57</v>
       </c>
-      <c r="E57" s="12"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="27"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="13"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="27"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="13"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="27"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="13"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="27"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="13"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="27"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="13"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="27"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="13"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="27"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="13"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="28"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="14"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="11"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="8">
         <f>SUM(C39:C65)/3</f>
         <v>64.13</v>
@@ -4166,219 +4260,219 @@
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="16">
         <v>64.95</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="18">
         <v>55</v>
       </c>
-      <c r="E67" s="12"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="25"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="13"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="25"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="13"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="25"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="13"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="25"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="13"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="25"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="13"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="25"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="13"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="25"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="13"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="25"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="14"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="25"/>
-      <c r="B76" s="16" t="s">
+      <c r="A76" s="13"/>
+      <c r="B76" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="21">
         <v>49.68</v>
       </c>
       <c r="D76" s="22">
         <v>51</v>
       </c>
-      <c r="E76" s="12"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="25"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="13"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="25"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="13"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="25"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="13"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="25"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="13"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="25"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="13"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="25"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="13"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="25"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="13"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="25"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="14"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="25"/>
-      <c r="B85" s="16" t="s">
+      <c r="A85" s="13"/>
+      <c r="B85" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C85" s="21">
         <v>53.98</v>
       </c>
       <c r="D85" s="22">
         <v>64</v>
       </c>
-      <c r="E85" s="12"/>
+      <c r="E85" s="10"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="25"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="13"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="25"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="13"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="25"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="13"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="25"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="13"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="25"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="13"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="25"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="13"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="25"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="13"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="25"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="14"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="11"/>
+      <c r="B94" s="24"/>
       <c r="C94" s="8">
         <f>SUM(C67:C93)/3</f>
         <v>56.203333333333326</v>
@@ -4390,367 +4484,367 @@
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C95" s="16">
         <v>85.16</v>
       </c>
-      <c r="D95" s="23">
+      <c r="D95" s="18">
         <v>82</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="10">
         <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="25"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="13"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="25"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="13"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="25"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="13"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="25"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="13"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="25"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="13"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="25"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="13"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="25"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="13"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="25"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="14"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="12"/>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="25"/>
-      <c r="B104" s="16" t="s">
+      <c r="A104" s="13"/>
+      <c r="B104" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="19">
+      <c r="C104" s="21">
         <v>86.45</v>
       </c>
       <c r="D104" s="22">
         <v>82</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E104" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="25"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="13"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="25"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="13"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="25"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="13"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="25"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="13"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="25"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="13"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="11"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="25"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="13"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="25"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="13"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="11"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="25"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="14"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="25"/>
-      <c r="B113" s="16" t="s">
+      <c r="A113" s="13"/>
+      <c r="B113" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="19">
+      <c r="C113" s="21">
         <v>89.68</v>
       </c>
       <c r="D113" s="22">
         <v>92</v>
       </c>
-      <c r="E113" s="12">
+      <c r="E113" s="10">
         <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="25"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="13"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="11"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115" s="25"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="13"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="11"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116" s="25"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="13"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="11"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117" s="25"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="13"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="11"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118" s="25"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="13"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="11"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="25"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="13"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="11"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120" s="25"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="13"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="11"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121" s="25"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="14"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="12"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122" s="25"/>
-      <c r="B122" s="16" t="s">
+      <c r="A122" s="13"/>
+      <c r="B122" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="19">
+      <c r="C122" s="21">
         <v>86.67</v>
       </c>
       <c r="D122" s="22">
         <v>84</v>
       </c>
-      <c r="E122" s="12">
+      <c r="E122" s="10">
         <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123" s="25"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="13"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="11"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" s="25"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="13"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="11"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A125" s="25"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="13"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="11"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126" s="25"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="13"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="11"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127" s="25"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="13"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="11"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A128" s="25"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="13"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="11"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A129" s="25"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="13"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="11"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A130" s="25"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="14"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="12"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A131" s="25"/>
-      <c r="B131" s="16" t="s">
+      <c r="A131" s="13"/>
+      <c r="B131" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="19">
+      <c r="C131" s="21">
         <v>94.41</v>
       </c>
       <c r="D131" s="22">
         <v>91</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E131" s="10">
         <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A132" s="25"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="13"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="11"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133" s="25"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="13"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="11"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" s="25"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="13"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="11"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" s="25"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="13"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="11"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" s="25"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="13"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="11"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137" s="25"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="13"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="11"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138" s="25"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="13"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="11"/>
     </row>
     <row r="139" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="25"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="14"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="12"/>
     </row>
     <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B140" s="11"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="9">
         <f>SUM(C95:C139)/5</f>
         <v>88.474000000000004</v>
@@ -4766,58 +4860,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E29:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="A39:A65"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="C76:C84"/>
-    <mergeCell ref="D76:D84"/>
-    <mergeCell ref="E76:E84"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:A93"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="A95:A139"/>
-    <mergeCell ref="B95:B103"/>
-    <mergeCell ref="C95:C103"/>
-    <mergeCell ref="D95:D103"/>
-    <mergeCell ref="E95:E103"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="C104:C112"/>
-    <mergeCell ref="E122:E130"/>
-    <mergeCell ref="E131:E139"/>
-    <mergeCell ref="E104:E112"/>
-    <mergeCell ref="E113:E121"/>
     <mergeCell ref="A140:B140"/>
     <mergeCell ref="E85:E93"/>
     <mergeCell ref="E67:E75"/>
@@ -4834,6 +4876,58 @@
     <mergeCell ref="C113:C121"/>
     <mergeCell ref="D113:D121"/>
     <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:A139"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="D95:D103"/>
+    <mergeCell ref="E95:E103"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="C104:C112"/>
+    <mergeCell ref="E122:E130"/>
+    <mergeCell ref="E131:E139"/>
+    <mergeCell ref="E104:E112"/>
+    <mergeCell ref="E113:E121"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="D76:D84"/>
+    <mergeCell ref="E76:E84"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:A93"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="A39:A65"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="E29:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4844,8 +4938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E277BC-F87C-4ABA-847E-22FC479E5A03}">
   <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="54" workbookViewId="0">
-      <selection activeCell="N116" sqref="N116"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="54" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4858,19 +4952,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="39" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="41" t="s">
@@ -4878,2319 +4972,2482 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="34"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="34"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="30"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="34"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="30"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="34"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="30"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="34"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="34"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="30"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="34"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="30"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="34"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="34"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="34"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="30"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="34"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="30"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="34"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="30"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="34"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="34"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="30"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="34"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="30"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="34"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="30"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="35"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
         <f>100-12</f>
         <v>88</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="34"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="30"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="34"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="30"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="34"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="30"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="34"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="30"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="34"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="30"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="34"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="30"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="34"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="30"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="34"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="30"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="34"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="34"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
         <f>100-12</f>
         <v>88</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="34"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="30"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="34"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="30"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="34"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="34"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="30"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="34"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="30"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="34"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="34"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="30"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="34"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="30"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="34"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="34"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="30"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="34"/>
     </row>
     <row r="38" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="35"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36">
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32">
         <f>100-9</f>
         <v>91</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="33">
         <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="34"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="30"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="34"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="34"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="30"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="34"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="30"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="34"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="34"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="30"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="34"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="34"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="30"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="34"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="34"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="30"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="34"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="34"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="30"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="34"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="30"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="34"/>
-      <c r="B48" s="23" t="s">
+      <c r="A48" s="30"/>
+      <c r="B48" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23">
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18">
         <f>100-9</f>
         <v>91</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="34"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="30"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="34"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="34"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="30"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="34"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="34"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="30"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="34"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="34"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="30"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="34"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="34"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="30"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="34"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="34"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="30"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="34"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="34"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="30"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="34"/>
     </row>
     <row r="56" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="35"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="32"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="36"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36">
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32">
         <f>100-16</f>
         <v>84</v>
       </c>
-      <c r="F57" s="29"/>
+      <c r="F57" s="33"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="34"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="30"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="34"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="34"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="30"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="34"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="34"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="30"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="34"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="34"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="30"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="34"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="34"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="30"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="34"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="34"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="30"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="34"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="34"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="30"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="34"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="34"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="30"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="34"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="34"/>
-      <c r="B66" s="23" t="s">
+      <c r="A66" s="30"/>
+      <c r="B66" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23">
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18">
         <f>100-15</f>
         <v>85</v>
       </c>
-      <c r="F66" s="30"/>
+      <c r="F66" s="34"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="34"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="30"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="34"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="34"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="30"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="34"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="34"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="30"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="34"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="34"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="30"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="34"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="34"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="30"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="34"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="34"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="30"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="34"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="34"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="30"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="34"/>
     </row>
     <row r="74" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="35"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="32"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="36"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36">
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32">
         <f>100-16</f>
         <v>84</v>
       </c>
-      <c r="F75" s="29"/>
+      <c r="F75" s="33"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="34"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="30"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="34"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="34"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="30"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="34"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="34"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="30"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="34"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="34"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="30"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="34"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="34"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="30"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="34"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="34"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="30"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="34"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="34"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="30"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="34"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="34"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="30"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="34"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="34"/>
-      <c r="B84" s="23" t="s">
+      <c r="A84" s="30"/>
+      <c r="B84" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23">
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18">
         <f>100-18</f>
         <v>82</v>
       </c>
-      <c r="F84" s="30"/>
+      <c r="F84" s="34"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="34"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="30"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="34"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="34"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="30"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="34"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="34"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="30"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="34"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="34"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="30"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="34"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="34"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="30"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="34"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="34"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="30"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="34"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="34"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="30"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="34"/>
     </row>
     <row r="92" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="35"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="32"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="36"/>
     </row>
     <row r="93" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36">
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32">
         <f>100-31</f>
         <v>69</v>
       </c>
-      <c r="F94" s="29"/>
+      <c r="F94" s="33"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A95" s="34"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="30"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="34"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A96" s="34"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="30"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="34"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A97" s="34"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="30"/>
+      <c r="A97" s="30"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="34"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A98" s="34"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="30"/>
+      <c r="A98" s="30"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="34"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A99" s="34"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="30"/>
+      <c r="A99" s="30"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="34"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A100" s="34"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="30"/>
+      <c r="A100" s="30"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="34"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A101" s="34"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="30"/>
+      <c r="A101" s="30"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="34"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A102" s="34"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="30"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="34"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A103" s="34"/>
-      <c r="B103" s="23" t="s">
+      <c r="A103" s="30"/>
+      <c r="B103" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23">
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18">
         <f>100-28</f>
         <v>72</v>
       </c>
-      <c r="F103" s="30"/>
+      <c r="F103" s="34"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A104" s="34"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="30"/>
+      <c r="A104" s="30"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="34"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A105" s="34"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="30"/>
+      <c r="A105" s="30"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="34"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A106" s="34"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="30"/>
+      <c r="A106" s="30"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="34"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A107" s="34"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="30"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="34"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A108" s="34"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="30"/>
+      <c r="A108" s="30"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="34"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A109" s="34"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="30"/>
+      <c r="A109" s="30"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="34"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A110" s="34"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="30"/>
+      <c r="A110" s="30"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="34"/>
     </row>
     <row r="111" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A111" s="35"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="32"/>
+      <c r="A111" s="31"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="36"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A112" s="33" t="s">
+      <c r="A112" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36">
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32">
         <f>100-45</f>
         <v>55</v>
       </c>
-      <c r="F112" s="29"/>
+      <c r="F112" s="33"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A113" s="34"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="30"/>
+      <c r="A113" s="30"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="34"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A114" s="34"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="30"/>
+      <c r="A114" s="30"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="34"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A115" s="34"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="30"/>
+      <c r="A115" s="30"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="34"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A116" s="34"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="30"/>
+      <c r="A116" s="30"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="34"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A117" s="34"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="30"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="34"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A118" s="34"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="30"/>
+      <c r="A118" s="30"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="34"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A119" s="34"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="30"/>
+      <c r="A119" s="30"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="34"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A120" s="34"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="30"/>
+      <c r="A120" s="30"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="34"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A121" s="34"/>
-      <c r="B121" s="23" t="s">
+      <c r="A121" s="30"/>
+      <c r="B121" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="30"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18">
+        <f>100-42</f>
+        <v>58</v>
+      </c>
+      <c r="F121" s="34"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A122" s="34"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="30"/>
+      <c r="A122" s="30"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="34"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A123" s="34"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="30"/>
+      <c r="A123" s="30"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="34"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A124" s="34"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
-      <c r="F124" s="30"/>
+      <c r="A124" s="30"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="34"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A125" s="34"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="30"/>
+      <c r="A125" s="30"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="34"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A126" s="34"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="30"/>
+      <c r="A126" s="30"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="34"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A127" s="34"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="30"/>
+      <c r="A127" s="30"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="34"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A128" s="34"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="30"/>
+      <c r="A128" s="30"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="34"/>
     </row>
     <row r="129" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A129" s="35"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="31"/>
-      <c r="E129" s="31"/>
-      <c r="F129" s="32"/>
+      <c r="A129" s="31"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="36"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A130" s="33" t="s">
+      <c r="A130" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B130" s="36" t="s">
+      <c r="B130" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C130" s="36"/>
-      <c r="D130" s="36"/>
-      <c r="E130" s="36"/>
-      <c r="F130" s="29"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="33"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A131" s="34"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="30"/>
+      <c r="A131" s="30"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="34"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A132" s="34"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="30"/>
+      <c r="A132" s="30"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="34"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A133" s="34"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
-      <c r="F133" s="30"/>
+      <c r="A133" s="30"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="34"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A134" s="34"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
-      <c r="F134" s="30"/>
+      <c r="A134" s="30"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="34"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A135" s="34"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="30"/>
+      <c r="A135" s="30"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="34"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A136" s="34"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="23"/>
-      <c r="F136" s="30"/>
+      <c r="A136" s="30"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="34"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A137" s="34"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="30"/>
+      <c r="A137" s="30"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="34"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A138" s="34"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="30"/>
+      <c r="A138" s="30"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="34"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A139" s="34"/>
-      <c r="B139" s="23" t="s">
+      <c r="A139" s="30"/>
+      <c r="B139" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C139" s="23"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="23"/>
-      <c r="F139" s="30"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="34"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A140" s="34"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="23"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
-      <c r="F140" s="30"/>
+      <c r="A140" s="30"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="34"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A141" s="34"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="23"/>
-      <c r="D141" s="23"/>
-      <c r="E141" s="23"/>
-      <c r="F141" s="30"/>
+      <c r="A141" s="30"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="34"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A142" s="34"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="23"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="23"/>
-      <c r="F142" s="30"/>
+      <c r="A142" s="30"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="34"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A143" s="34"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="23"/>
-      <c r="D143" s="23"/>
-      <c r="E143" s="23"/>
-      <c r="F143" s="30"/>
+      <c r="A143" s="30"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="34"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A144" s="34"/>
-      <c r="B144" s="23"/>
-      <c r="C144" s="23"/>
-      <c r="D144" s="23"/>
-      <c r="E144" s="23"/>
-      <c r="F144" s="30"/>
+      <c r="A144" s="30"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="34"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A145" s="34"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="23"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="23"/>
-      <c r="F145" s="30"/>
+      <c r="A145" s="30"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="34"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A146" s="34"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="30"/>
+      <c r="A146" s="30"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="34"/>
     </row>
     <row r="147" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A147" s="35"/>
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="31"/>
-      <c r="F147" s="32"/>
+      <c r="A147" s="31"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="35"/>
+      <c r="F147" s="36"/>
     </row>
     <row r="148" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A149" s="33" t="s">
+      <c r="A149" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B149" s="36" t="s">
+      <c r="B149" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C149" s="36"/>
-      <c r="D149" s="36"/>
-      <c r="E149" s="36"/>
-      <c r="F149" s="29"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="33"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A150" s="34"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="30"/>
+      <c r="A150" s="30"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="34"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A151" s="34"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="23"/>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
-      <c r="F151" s="30"/>
+      <c r="A151" s="30"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="34"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A152" s="34"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="23"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="23"/>
-      <c r="F152" s="30"/>
+      <c r="A152" s="30"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="34"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A153" s="34"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
-      <c r="F153" s="30"/>
+      <c r="A153" s="30"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="34"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A154" s="34"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="23"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="30"/>
+      <c r="A154" s="30"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="34"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A155" s="34"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="23"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="23"/>
-      <c r="F155" s="30"/>
+      <c r="A155" s="30"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="34"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A156" s="34"/>
-      <c r="B156" s="23"/>
-      <c r="C156" s="23"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="23"/>
-      <c r="F156" s="30"/>
+      <c r="A156" s="30"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="34"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A157" s="34"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="23"/>
-      <c r="D157" s="23"/>
-      <c r="E157" s="23"/>
-      <c r="F157" s="30"/>
+      <c r="A157" s="30"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="34"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A158" s="34"/>
-      <c r="B158" s="23" t="s">
+      <c r="A158" s="30"/>
+      <c r="B158" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C158" s="23"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="23"/>
-      <c r="F158" s="30"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="34"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A159" s="34"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="23"/>
-      <c r="D159" s="23"/>
-      <c r="E159" s="23"/>
-      <c r="F159" s="30"/>
+      <c r="A159" s="30"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="34"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A160" s="34"/>
-      <c r="B160" s="23"/>
-      <c r="C160" s="23"/>
-      <c r="D160" s="23"/>
-      <c r="E160" s="23"/>
-      <c r="F160" s="30"/>
+      <c r="A160" s="30"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="34"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A161" s="34"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="23"/>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="30"/>
+      <c r="A161" s="30"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="34"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A162" s="34"/>
-      <c r="B162" s="23"/>
-      <c r="C162" s="23"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
-      <c r="F162" s="30"/>
+      <c r="A162" s="30"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="34"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A163" s="34"/>
-      <c r="B163" s="23"/>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
-      <c r="F163" s="30"/>
+      <c r="A163" s="30"/>
+      <c r="B163" s="18"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="34"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A164" s="34"/>
-      <c r="B164" s="23"/>
-      <c r="C164" s="23"/>
-      <c r="D164" s="23"/>
-      <c r="E164" s="23"/>
-      <c r="F164" s="30"/>
+      <c r="A164" s="30"/>
+      <c r="B164" s="18"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="34"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A165" s="34"/>
-      <c r="B165" s="23"/>
-      <c r="C165" s="23"/>
-      <c r="D165" s="23"/>
-      <c r="E165" s="23"/>
-      <c r="F165" s="30"/>
+      <c r="A165" s="30"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="34"/>
     </row>
     <row r="166" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A166" s="35"/>
-      <c r="B166" s="31"/>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="31"/>
-      <c r="F166" s="32"/>
+      <c r="A166" s="31"/>
+      <c r="B166" s="35"/>
+      <c r="C166" s="35"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="35"/>
+      <c r="F166" s="36"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A167" s="33" t="s">
+      <c r="A167" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B167" s="36" t="s">
+      <c r="B167" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C167" s="36"/>
-      <c r="D167" s="36"/>
-      <c r="E167" s="36"/>
-      <c r="F167" s="29"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="33"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A168" s="34"/>
-      <c r="B168" s="23"/>
-      <c r="C168" s="23"/>
-      <c r="D168" s="23"/>
-      <c r="E168" s="23"/>
-      <c r="F168" s="30"/>
+      <c r="A168" s="30"/>
+      <c r="B168" s="18"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="34"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A169" s="34"/>
-      <c r="B169" s="23"/>
-      <c r="C169" s="23"/>
-      <c r="D169" s="23"/>
-      <c r="E169" s="23"/>
-      <c r="F169" s="30"/>
+      <c r="A169" s="30"/>
+      <c r="B169" s="18"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="34"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A170" s="34"/>
-      <c r="B170" s="23"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
-      <c r="E170" s="23"/>
-      <c r="F170" s="30"/>
+      <c r="A170" s="30"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="34"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A171" s="34"/>
-      <c r="B171" s="23"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="23"/>
-      <c r="E171" s="23"/>
-      <c r="F171" s="30"/>
+      <c r="A171" s="30"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="34"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A172" s="34"/>
-      <c r="B172" s="23"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="23"/>
-      <c r="E172" s="23"/>
-      <c r="F172" s="30"/>
+      <c r="A172" s="30"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="34"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A173" s="34"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="23"/>
-      <c r="D173" s="23"/>
-      <c r="E173" s="23"/>
-      <c r="F173" s="30"/>
+      <c r="A173" s="30"/>
+      <c r="B173" s="18"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="34"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A174" s="34"/>
-      <c r="B174" s="23"/>
-      <c r="C174" s="23"/>
-      <c r="D174" s="23"/>
-      <c r="E174" s="23"/>
-      <c r="F174" s="30"/>
+      <c r="A174" s="30"/>
+      <c r="B174" s="18"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="34"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A175" s="34"/>
-      <c r="B175" s="23"/>
-      <c r="C175" s="23"/>
-      <c r="D175" s="23"/>
-      <c r="E175" s="23"/>
-      <c r="F175" s="30"/>
+      <c r="A175" s="30"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="34"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A176" s="34"/>
-      <c r="B176" s="23" t="s">
+      <c r="A176" s="30"/>
+      <c r="B176" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C176" s="23"/>
-      <c r="D176" s="23"/>
-      <c r="E176" s="23"/>
-      <c r="F176" s="30"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="34"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A177" s="34"/>
-      <c r="B177" s="23"/>
-      <c r="C177" s="23"/>
-      <c r="D177" s="23"/>
-      <c r="E177" s="23"/>
-      <c r="F177" s="30"/>
+      <c r="A177" s="30"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="34"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A178" s="34"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="30"/>
+      <c r="A178" s="30"/>
+      <c r="B178" s="18"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="34"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A179" s="34"/>
-      <c r="B179" s="23"/>
-      <c r="C179" s="23"/>
-      <c r="D179" s="23"/>
-      <c r="E179" s="23"/>
-      <c r="F179" s="30"/>
+      <c r="A179" s="30"/>
+      <c r="B179" s="18"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="34"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A180" s="34"/>
-      <c r="B180" s="23"/>
-      <c r="C180" s="23"/>
-      <c r="D180" s="23"/>
-      <c r="E180" s="23"/>
-      <c r="F180" s="30"/>
+      <c r="A180" s="30"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="34"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A181" s="34"/>
-      <c r="B181" s="23"/>
-      <c r="C181" s="23"/>
-      <c r="D181" s="23"/>
-      <c r="E181" s="23"/>
-      <c r="F181" s="30"/>
+      <c r="A181" s="30"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="34"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A182" s="34"/>
-      <c r="B182" s="23"/>
-      <c r="C182" s="23"/>
-      <c r="D182" s="23"/>
-      <c r="E182" s="23"/>
-      <c r="F182" s="30"/>
+      <c r="A182" s="30"/>
+      <c r="B182" s="18"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="18"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="34"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A183" s="34"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="23"/>
-      <c r="D183" s="23"/>
-      <c r="E183" s="23"/>
-      <c r="F183" s="30"/>
+      <c r="A183" s="30"/>
+      <c r="B183" s="18"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="18"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="34"/>
     </row>
     <row r="184" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A184" s="35"/>
-      <c r="B184" s="31"/>
-      <c r="C184" s="31"/>
-      <c r="D184" s="31"/>
-      <c r="E184" s="31"/>
-      <c r="F184" s="32"/>
+      <c r="A184" s="31"/>
+      <c r="B184" s="35"/>
+      <c r="C184" s="35"/>
+      <c r="D184" s="35"/>
+      <c r="E184" s="35"/>
+      <c r="F184" s="36"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A185" s="33" t="s">
+      <c r="A185" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B185" s="36" t="s">
+      <c r="B185" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C185" s="36"/>
-      <c r="D185" s="36"/>
-      <c r="E185" s="36"/>
-      <c r="F185" s="29"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="33"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A186" s="34"/>
-      <c r="B186" s="23"/>
-      <c r="C186" s="23"/>
-      <c r="D186" s="23"/>
-      <c r="E186" s="23"/>
-      <c r="F186" s="30"/>
+      <c r="A186" s="30"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="34"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A187" s="34"/>
-      <c r="B187" s="23"/>
-      <c r="C187" s="23"/>
-      <c r="D187" s="23"/>
-      <c r="E187" s="23"/>
-      <c r="F187" s="30"/>
+      <c r="A187" s="30"/>
+      <c r="B187" s="18"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="18"/>
+      <c r="E187" s="18"/>
+      <c r="F187" s="34"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A188" s="34"/>
-      <c r="B188" s="23"/>
-      <c r="C188" s="23"/>
-      <c r="D188" s="23"/>
-      <c r="E188" s="23"/>
-      <c r="F188" s="30"/>
+      <c r="A188" s="30"/>
+      <c r="B188" s="18"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="18"/>
+      <c r="E188" s="18"/>
+      <c r="F188" s="34"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A189" s="34"/>
-      <c r="B189" s="23"/>
-      <c r="C189" s="23"/>
-      <c r="D189" s="23"/>
-      <c r="E189" s="23"/>
-      <c r="F189" s="30"/>
+      <c r="A189" s="30"/>
+      <c r="B189" s="18"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="18"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="34"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A190" s="34"/>
-      <c r="B190" s="23"/>
-      <c r="C190" s="23"/>
-      <c r="D190" s="23"/>
-      <c r="E190" s="23"/>
-      <c r="F190" s="30"/>
+      <c r="A190" s="30"/>
+      <c r="B190" s="18"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="18"/>
+      <c r="E190" s="18"/>
+      <c r="F190" s="34"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A191" s="34"/>
-      <c r="B191" s="23"/>
-      <c r="C191" s="23"/>
-      <c r="D191" s="23"/>
-      <c r="E191" s="23"/>
-      <c r="F191" s="30"/>
+      <c r="A191" s="30"/>
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="18"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="34"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A192" s="34"/>
-      <c r="B192" s="23"/>
-      <c r="C192" s="23"/>
-      <c r="D192" s="23"/>
-      <c r="E192" s="23"/>
-      <c r="F192" s="30"/>
+      <c r="A192" s="30"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="18"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="34"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A193" s="34"/>
-      <c r="B193" s="23"/>
-      <c r="C193" s="23"/>
-      <c r="D193" s="23"/>
-      <c r="E193" s="23"/>
-      <c r="F193" s="30"/>
+      <c r="A193" s="30"/>
+      <c r="B193" s="18"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="34"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A194" s="34"/>
-      <c r="B194" s="23" t="s">
+      <c r="A194" s="30"/>
+      <c r="B194" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C194" s="23"/>
-      <c r="D194" s="23"/>
-      <c r="E194" s="23"/>
-      <c r="F194" s="30"/>
+      <c r="C194" s="18"/>
+      <c r="D194" s="18"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="34"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A195" s="34"/>
-      <c r="B195" s="23"/>
-      <c r="C195" s="23"/>
-      <c r="D195" s="23"/>
-      <c r="E195" s="23"/>
-      <c r="F195" s="30"/>
+      <c r="A195" s="30"/>
+      <c r="B195" s="18"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="18"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="34"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A196" s="34"/>
-      <c r="B196" s="23"/>
-      <c r="C196" s="23"/>
-      <c r="D196" s="23"/>
-      <c r="E196" s="23"/>
-      <c r="F196" s="30"/>
+      <c r="A196" s="30"/>
+      <c r="B196" s="18"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="18"/>
+      <c r="E196" s="18"/>
+      <c r="F196" s="34"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A197" s="34"/>
-      <c r="B197" s="23"/>
-      <c r="C197" s="23"/>
-      <c r="D197" s="23"/>
-      <c r="E197" s="23"/>
-      <c r="F197" s="30"/>
+      <c r="A197" s="30"/>
+      <c r="B197" s="18"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="18"/>
+      <c r="E197" s="18"/>
+      <c r="F197" s="34"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A198" s="34"/>
-      <c r="B198" s="23"/>
-      <c r="C198" s="23"/>
-      <c r="D198" s="23"/>
-      <c r="E198" s="23"/>
-      <c r="F198" s="30"/>
+      <c r="A198" s="30"/>
+      <c r="B198" s="18"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="18"/>
+      <c r="E198" s="18"/>
+      <c r="F198" s="34"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A199" s="34"/>
-      <c r="B199" s="23"/>
-      <c r="C199" s="23"/>
-      <c r="D199" s="23"/>
-      <c r="E199" s="23"/>
-      <c r="F199" s="30"/>
+      <c r="A199" s="30"/>
+      <c r="B199" s="18"/>
+      <c r="C199" s="18"/>
+      <c r="D199" s="18"/>
+      <c r="E199" s="18"/>
+      <c r="F199" s="34"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A200" s="34"/>
-      <c r="B200" s="23"/>
-      <c r="C200" s="23"/>
-      <c r="D200" s="23"/>
-      <c r="E200" s="23"/>
-      <c r="F200" s="30"/>
+      <c r="A200" s="30"/>
+      <c r="B200" s="18"/>
+      <c r="C200" s="18"/>
+      <c r="D200" s="18"/>
+      <c r="E200" s="18"/>
+      <c r="F200" s="34"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A201" s="34"/>
-      <c r="B201" s="23"/>
-      <c r="C201" s="23"/>
-      <c r="D201" s="23"/>
-      <c r="E201" s="23"/>
-      <c r="F201" s="30"/>
+      <c r="A201" s="30"/>
+      <c r="B201" s="18"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="18"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="34"/>
     </row>
     <row r="202" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A202" s="35"/>
-      <c r="B202" s="31"/>
-      <c r="C202" s="31"/>
-      <c r="D202" s="31"/>
-      <c r="E202" s="31"/>
-      <c r="F202" s="32"/>
+      <c r="A202" s="31"/>
+      <c r="B202" s="35"/>
+      <c r="C202" s="35"/>
+      <c r="D202" s="35"/>
+      <c r="E202" s="35"/>
+      <c r="F202" s="36"/>
     </row>
     <row r="203" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A204" s="33" t="s">
+      <c r="A204" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B204" s="36" t="s">
+      <c r="B204" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C204" s="36"/>
-      <c r="D204" s="36"/>
-      <c r="E204" s="36"/>
-      <c r="F204" s="29"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="33"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A205" s="34"/>
-      <c r="B205" s="23"/>
-      <c r="C205" s="23"/>
-      <c r="D205" s="23"/>
-      <c r="E205" s="23"/>
-      <c r="F205" s="30"/>
+      <c r="A205" s="30"/>
+      <c r="B205" s="18"/>
+      <c r="C205" s="18"/>
+      <c r="D205" s="18"/>
+      <c r="E205" s="18"/>
+      <c r="F205" s="34"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A206" s="34"/>
-      <c r="B206" s="23"/>
-      <c r="C206" s="23"/>
-      <c r="D206" s="23"/>
-      <c r="E206" s="23"/>
-      <c r="F206" s="30"/>
+      <c r="A206" s="30"/>
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18"/>
+      <c r="E206" s="18"/>
+      <c r="F206" s="34"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A207" s="34"/>
-      <c r="B207" s="23"/>
-      <c r="C207" s="23"/>
-      <c r="D207" s="23"/>
-      <c r="E207" s="23"/>
-      <c r="F207" s="30"/>
+      <c r="A207" s="30"/>
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="34"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A208" s="34"/>
-      <c r="B208" s="23"/>
-      <c r="C208" s="23"/>
-      <c r="D208" s="23"/>
-      <c r="E208" s="23"/>
-      <c r="F208" s="30"/>
+      <c r="A208" s="30"/>
+      <c r="B208" s="18"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="18"/>
+      <c r="E208" s="18"/>
+      <c r="F208" s="34"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A209" s="34"/>
-      <c r="B209" s="23"/>
-      <c r="C209" s="23"/>
-      <c r="D209" s="23"/>
-      <c r="E209" s="23"/>
-      <c r="F209" s="30"/>
+      <c r="A209" s="30"/>
+      <c r="B209" s="18"/>
+      <c r="C209" s="18"/>
+      <c r="D209" s="18"/>
+      <c r="E209" s="18"/>
+      <c r="F209" s="34"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A210" s="34"/>
-      <c r="B210" s="23"/>
-      <c r="C210" s="23"/>
-      <c r="D210" s="23"/>
-      <c r="E210" s="23"/>
-      <c r="F210" s="30"/>
+      <c r="A210" s="30"/>
+      <c r="B210" s="18"/>
+      <c r="C210" s="18"/>
+      <c r="D210" s="18"/>
+      <c r="E210" s="18"/>
+      <c r="F210" s="34"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A211" s="34"/>
-      <c r="B211" s="23"/>
-      <c r="C211" s="23"/>
-      <c r="D211" s="23"/>
-      <c r="E211" s="23"/>
-      <c r="F211" s="30"/>
+      <c r="A211" s="30"/>
+      <c r="B211" s="18"/>
+      <c r="C211" s="18"/>
+      <c r="D211" s="18"/>
+      <c r="E211" s="18"/>
+      <c r="F211" s="34"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A212" s="34"/>
-      <c r="B212" s="23"/>
-      <c r="C212" s="23"/>
-      <c r="D212" s="23"/>
-      <c r="E212" s="23"/>
-      <c r="F212" s="30"/>
+      <c r="A212" s="30"/>
+      <c r="B212" s="18"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="18"/>
+      <c r="E212" s="18"/>
+      <c r="F212" s="34"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A213" s="34"/>
-      <c r="B213" s="23" t="s">
+      <c r="A213" s="30"/>
+      <c r="B213" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C213" s="23"/>
-      <c r="D213" s="23"/>
-      <c r="E213" s="23"/>
-      <c r="F213" s="30"/>
+      <c r="C213" s="18"/>
+      <c r="D213" s="18"/>
+      <c r="E213" s="18"/>
+      <c r="F213" s="34"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A214" s="34"/>
-      <c r="B214" s="23"/>
-      <c r="C214" s="23"/>
-      <c r="D214" s="23"/>
-      <c r="E214" s="23"/>
-      <c r="F214" s="30"/>
+      <c r="A214" s="30"/>
+      <c r="B214" s="18"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="18"/>
+      <c r="E214" s="18"/>
+      <c r="F214" s="34"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A215" s="34"/>
-      <c r="B215" s="23"/>
-      <c r="C215" s="23"/>
-      <c r="D215" s="23"/>
-      <c r="E215" s="23"/>
-      <c r="F215" s="30"/>
+      <c r="A215" s="30"/>
+      <c r="B215" s="18"/>
+      <c r="C215" s="18"/>
+      <c r="D215" s="18"/>
+      <c r="E215" s="18"/>
+      <c r="F215" s="34"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A216" s="34"/>
-      <c r="B216" s="23"/>
-      <c r="C216" s="23"/>
-      <c r="D216" s="23"/>
-      <c r="E216" s="23"/>
-      <c r="F216" s="30"/>
+      <c r="A216" s="30"/>
+      <c r="B216" s="18"/>
+      <c r="C216" s="18"/>
+      <c r="D216" s="18"/>
+      <c r="E216" s="18"/>
+      <c r="F216" s="34"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A217" s="34"/>
-      <c r="B217" s="23"/>
-      <c r="C217" s="23"/>
-      <c r="D217" s="23"/>
-      <c r="E217" s="23"/>
-      <c r="F217" s="30"/>
+      <c r="A217" s="30"/>
+      <c r="B217" s="18"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="18"/>
+      <c r="E217" s="18"/>
+      <c r="F217" s="34"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A218" s="34"/>
-      <c r="B218" s="23"/>
-      <c r="C218" s="23"/>
-      <c r="D218" s="23"/>
-      <c r="E218" s="23"/>
-      <c r="F218" s="30"/>
+      <c r="A218" s="30"/>
+      <c r="B218" s="18"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="18"/>
+      <c r="E218" s="18"/>
+      <c r="F218" s="34"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A219" s="34"/>
-      <c r="B219" s="23"/>
-      <c r="C219" s="23"/>
-      <c r="D219" s="23"/>
-      <c r="E219" s="23"/>
-      <c r="F219" s="30"/>
+      <c r="A219" s="30"/>
+      <c r="B219" s="18"/>
+      <c r="C219" s="18"/>
+      <c r="D219" s="18"/>
+      <c r="E219" s="18"/>
+      <c r="F219" s="34"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A220" s="34"/>
-      <c r="B220" s="23"/>
-      <c r="C220" s="23"/>
-      <c r="D220" s="23"/>
-      <c r="E220" s="23"/>
-      <c r="F220" s="30"/>
+      <c r="A220" s="30"/>
+      <c r="B220" s="18"/>
+      <c r="C220" s="18"/>
+      <c r="D220" s="18"/>
+      <c r="E220" s="18"/>
+      <c r="F220" s="34"/>
     </row>
     <row r="221" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A221" s="35"/>
-      <c r="B221" s="31"/>
-      <c r="C221" s="31"/>
-      <c r="D221" s="31"/>
-      <c r="E221" s="31"/>
-      <c r="F221" s="32"/>
+      <c r="A221" s="31"/>
+      <c r="B221" s="35"/>
+      <c r="C221" s="35"/>
+      <c r="D221" s="35"/>
+      <c r="E221" s="35"/>
+      <c r="F221" s="36"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A222" s="33" t="s">
+      <c r="A222" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B222" s="36" t="s">
+      <c r="B222" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C222" s="36"/>
-      <c r="D222" s="36"/>
-      <c r="E222" s="36"/>
-      <c r="F222" s="29"/>
+      <c r="C222" s="32"/>
+      <c r="D222" s="32"/>
+      <c r="E222" s="32"/>
+      <c r="F222" s="33"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A223" s="34"/>
-      <c r="B223" s="23"/>
-      <c r="C223" s="23"/>
-      <c r="D223" s="23"/>
-      <c r="E223" s="23"/>
-      <c r="F223" s="30"/>
+      <c r="A223" s="30"/>
+      <c r="B223" s="18"/>
+      <c r="C223" s="18"/>
+      <c r="D223" s="18"/>
+      <c r="E223" s="18"/>
+      <c r="F223" s="34"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A224" s="34"/>
-      <c r="B224" s="23"/>
-      <c r="C224" s="23"/>
-      <c r="D224" s="23"/>
-      <c r="E224" s="23"/>
-      <c r="F224" s="30"/>
+      <c r="A224" s="30"/>
+      <c r="B224" s="18"/>
+      <c r="C224" s="18"/>
+      <c r="D224" s="18"/>
+      <c r="E224" s="18"/>
+      <c r="F224" s="34"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A225" s="34"/>
-      <c r="B225" s="23"/>
-      <c r="C225" s="23"/>
-      <c r="D225" s="23"/>
-      <c r="E225" s="23"/>
-      <c r="F225" s="30"/>
+      <c r="A225" s="30"/>
+      <c r="B225" s="18"/>
+      <c r="C225" s="18"/>
+      <c r="D225" s="18"/>
+      <c r="E225" s="18"/>
+      <c r="F225" s="34"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A226" s="34"/>
-      <c r="B226" s="23"/>
-      <c r="C226" s="23"/>
-      <c r="D226" s="23"/>
-      <c r="E226" s="23"/>
-      <c r="F226" s="30"/>
+      <c r="A226" s="30"/>
+      <c r="B226" s="18"/>
+      <c r="C226" s="18"/>
+      <c r="D226" s="18"/>
+      <c r="E226" s="18"/>
+      <c r="F226" s="34"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A227" s="34"/>
-      <c r="B227" s="23"/>
-      <c r="C227" s="23"/>
-      <c r="D227" s="23"/>
-      <c r="E227" s="23"/>
-      <c r="F227" s="30"/>
+      <c r="A227" s="30"/>
+      <c r="B227" s="18"/>
+      <c r="C227" s="18"/>
+      <c r="D227" s="18"/>
+      <c r="E227" s="18"/>
+      <c r="F227" s="34"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A228" s="34"/>
-      <c r="B228" s="23"/>
-      <c r="C228" s="23"/>
-      <c r="D228" s="23"/>
-      <c r="E228" s="23"/>
-      <c r="F228" s="30"/>
+      <c r="A228" s="30"/>
+      <c r="B228" s="18"/>
+      <c r="C228" s="18"/>
+      <c r="D228" s="18"/>
+      <c r="E228" s="18"/>
+      <c r="F228" s="34"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A229" s="34"/>
-      <c r="B229" s="23"/>
-      <c r="C229" s="23"/>
-      <c r="D229" s="23"/>
-      <c r="E229" s="23"/>
-      <c r="F229" s="30"/>
+      <c r="A229" s="30"/>
+      <c r="B229" s="18"/>
+      <c r="C229" s="18"/>
+      <c r="D229" s="18"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="34"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A230" s="34"/>
-      <c r="B230" s="23"/>
-      <c r="C230" s="23"/>
-      <c r="D230" s="23"/>
-      <c r="E230" s="23"/>
-      <c r="F230" s="30"/>
+      <c r="A230" s="30"/>
+      <c r="B230" s="18"/>
+      <c r="C230" s="18"/>
+      <c r="D230" s="18"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="34"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A231" s="34"/>
-      <c r="B231" s="23" t="s">
+      <c r="A231" s="30"/>
+      <c r="B231" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C231" s="23"/>
-      <c r="D231" s="23"/>
-      <c r="E231" s="23"/>
-      <c r="F231" s="30"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="18"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="34"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A232" s="34"/>
-      <c r="B232" s="23"/>
-      <c r="C232" s="23"/>
-      <c r="D232" s="23"/>
-      <c r="E232" s="23"/>
-      <c r="F232" s="30"/>
+      <c r="A232" s="30"/>
+      <c r="B232" s="18"/>
+      <c r="C232" s="18"/>
+      <c r="D232" s="18"/>
+      <c r="E232" s="18"/>
+      <c r="F232" s="34"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A233" s="34"/>
-      <c r="B233" s="23"/>
-      <c r="C233" s="23"/>
-      <c r="D233" s="23"/>
-      <c r="E233" s="23"/>
-      <c r="F233" s="30"/>
+      <c r="A233" s="30"/>
+      <c r="B233" s="18"/>
+      <c r="C233" s="18"/>
+      <c r="D233" s="18"/>
+      <c r="E233" s="18"/>
+      <c r="F233" s="34"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A234" s="34"/>
-      <c r="B234" s="23"/>
-      <c r="C234" s="23"/>
-      <c r="D234" s="23"/>
-      <c r="E234" s="23"/>
-      <c r="F234" s="30"/>
+      <c r="A234" s="30"/>
+      <c r="B234" s="18"/>
+      <c r="C234" s="18"/>
+      <c r="D234" s="18"/>
+      <c r="E234" s="18"/>
+      <c r="F234" s="34"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A235" s="34"/>
-      <c r="B235" s="23"/>
-      <c r="C235" s="23"/>
-      <c r="D235" s="23"/>
-      <c r="E235" s="23"/>
-      <c r="F235" s="30"/>
+      <c r="A235" s="30"/>
+      <c r="B235" s="18"/>
+      <c r="C235" s="18"/>
+      <c r="D235" s="18"/>
+      <c r="E235" s="18"/>
+      <c r="F235" s="34"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A236" s="34"/>
-      <c r="B236" s="23"/>
-      <c r="C236" s="23"/>
-      <c r="D236" s="23"/>
-      <c r="E236" s="23"/>
-      <c r="F236" s="30"/>
+      <c r="A236" s="30"/>
+      <c r="B236" s="18"/>
+      <c r="C236" s="18"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="34"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A237" s="34"/>
-      <c r="B237" s="23"/>
-      <c r="C237" s="23"/>
-      <c r="D237" s="23"/>
-      <c r="E237" s="23"/>
-      <c r="F237" s="30"/>
+      <c r="A237" s="30"/>
+      <c r="B237" s="18"/>
+      <c r="C237" s="18"/>
+      <c r="D237" s="18"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="34"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A238" s="34"/>
-      <c r="B238" s="23"/>
-      <c r="C238" s="23"/>
-      <c r="D238" s="23"/>
-      <c r="E238" s="23"/>
-      <c r="F238" s="30"/>
+      <c r="A238" s="30"/>
+      <c r="B238" s="18"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="18"/>
+      <c r="E238" s="18"/>
+      <c r="F238" s="34"/>
     </row>
     <row r="239" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A239" s="35"/>
-      <c r="B239" s="31"/>
-      <c r="C239" s="31"/>
-      <c r="D239" s="31"/>
-      <c r="E239" s="31"/>
-      <c r="F239" s="32"/>
+      <c r="A239" s="31"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="35"/>
+      <c r="D239" s="35"/>
+      <c r="E239" s="35"/>
+      <c r="F239" s="36"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A240" s="33" t="s">
+      <c r="A240" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B240" s="36" t="s">
+      <c r="B240" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C240" s="36"/>
-      <c r="D240" s="36"/>
-      <c r="E240" s="36"/>
-      <c r="F240" s="29"/>
+      <c r="C240" s="32"/>
+      <c r="D240" s="32"/>
+      <c r="E240" s="32"/>
+      <c r="F240" s="33"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A241" s="34"/>
-      <c r="B241" s="23"/>
-      <c r="C241" s="23"/>
-      <c r="D241" s="23"/>
-      <c r="E241" s="23"/>
-      <c r="F241" s="30"/>
+      <c r="A241" s="30"/>
+      <c r="B241" s="18"/>
+      <c r="C241" s="18"/>
+      <c r="D241" s="18"/>
+      <c r="E241" s="18"/>
+      <c r="F241" s="34"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A242" s="34"/>
-      <c r="B242" s="23"/>
-      <c r="C242" s="23"/>
-      <c r="D242" s="23"/>
-      <c r="E242" s="23"/>
-      <c r="F242" s="30"/>
+      <c r="A242" s="30"/>
+      <c r="B242" s="18"/>
+      <c r="C242" s="18"/>
+      <c r="D242" s="18"/>
+      <c r="E242" s="18"/>
+      <c r="F242" s="34"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A243" s="34"/>
-      <c r="B243" s="23"/>
-      <c r="C243" s="23"/>
-      <c r="D243" s="23"/>
-      <c r="E243" s="23"/>
-      <c r="F243" s="30"/>
+      <c r="A243" s="30"/>
+      <c r="B243" s="18"/>
+      <c r="C243" s="18"/>
+      <c r="D243" s="18"/>
+      <c r="E243" s="18"/>
+      <c r="F243" s="34"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A244" s="34"/>
-      <c r="B244" s="23"/>
-      <c r="C244" s="23"/>
-      <c r="D244" s="23"/>
-      <c r="E244" s="23"/>
-      <c r="F244" s="30"/>
+      <c r="A244" s="30"/>
+      <c r="B244" s="18"/>
+      <c r="C244" s="18"/>
+      <c r="D244" s="18"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="34"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A245" s="34"/>
-      <c r="B245" s="23"/>
-      <c r="C245" s="23"/>
-      <c r="D245" s="23"/>
-      <c r="E245" s="23"/>
-      <c r="F245" s="30"/>
+      <c r="A245" s="30"/>
+      <c r="B245" s="18"/>
+      <c r="C245" s="18"/>
+      <c r="D245" s="18"/>
+      <c r="E245" s="18"/>
+      <c r="F245" s="34"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A246" s="34"/>
-      <c r="B246" s="23"/>
-      <c r="C246" s="23"/>
-      <c r="D246" s="23"/>
-      <c r="E246" s="23"/>
-      <c r="F246" s="30"/>
+      <c r="A246" s="30"/>
+      <c r="B246" s="18"/>
+      <c r="C246" s="18"/>
+      <c r="D246" s="18"/>
+      <c r="E246" s="18"/>
+      <c r="F246" s="34"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A247" s="34"/>
-      <c r="B247" s="23"/>
-      <c r="C247" s="23"/>
-      <c r="D247" s="23"/>
-      <c r="E247" s="23"/>
-      <c r="F247" s="30"/>
+      <c r="A247" s="30"/>
+      <c r="B247" s="18"/>
+      <c r="C247" s="18"/>
+      <c r="D247" s="18"/>
+      <c r="E247" s="18"/>
+      <c r="F247" s="34"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A248" s="34"/>
-      <c r="B248" s="23"/>
-      <c r="C248" s="23"/>
-      <c r="D248" s="23"/>
-      <c r="E248" s="23"/>
-      <c r="F248" s="30"/>
+      <c r="A248" s="30"/>
+      <c r="B248" s="18"/>
+      <c r="C248" s="18"/>
+      <c r="D248" s="18"/>
+      <c r="E248" s="18"/>
+      <c r="F248" s="34"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A249" s="34"/>
-      <c r="B249" s="23" t="s">
+      <c r="A249" s="30"/>
+      <c r="B249" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C249" s="23"/>
-      <c r="D249" s="23"/>
-      <c r="E249" s="23"/>
-      <c r="F249" s="30"/>
+      <c r="C249" s="18"/>
+      <c r="D249" s="18"/>
+      <c r="E249" s="18"/>
+      <c r="F249" s="34"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A250" s="34"/>
-      <c r="B250" s="23"/>
-      <c r="C250" s="23"/>
-      <c r="D250" s="23"/>
-      <c r="E250" s="23"/>
-      <c r="F250" s="30"/>
+      <c r="A250" s="30"/>
+      <c r="B250" s="18"/>
+      <c r="C250" s="18"/>
+      <c r="D250" s="18"/>
+      <c r="E250" s="18"/>
+      <c r="F250" s="34"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A251" s="34"/>
-      <c r="B251" s="23"/>
-      <c r="C251" s="23"/>
-      <c r="D251" s="23"/>
-      <c r="E251" s="23"/>
-      <c r="F251" s="30"/>
+      <c r="A251" s="30"/>
+      <c r="B251" s="18"/>
+      <c r="C251" s="18"/>
+      <c r="D251" s="18"/>
+      <c r="E251" s="18"/>
+      <c r="F251" s="34"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A252" s="34"/>
-      <c r="B252" s="23"/>
-      <c r="C252" s="23"/>
-      <c r="D252" s="23"/>
-      <c r="E252" s="23"/>
-      <c r="F252" s="30"/>
+      <c r="A252" s="30"/>
+      <c r="B252" s="18"/>
+      <c r="C252" s="18"/>
+      <c r="D252" s="18"/>
+      <c r="E252" s="18"/>
+      <c r="F252" s="34"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A253" s="34"/>
-      <c r="B253" s="23"/>
-      <c r="C253" s="23"/>
-      <c r="D253" s="23"/>
-      <c r="E253" s="23"/>
-      <c r="F253" s="30"/>
+      <c r="A253" s="30"/>
+      <c r="B253" s="18"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="18"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="34"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A254" s="34"/>
-      <c r="B254" s="23"/>
-      <c r="C254" s="23"/>
-      <c r="D254" s="23"/>
-      <c r="E254" s="23"/>
-      <c r="F254" s="30"/>
+      <c r="A254" s="30"/>
+      <c r="B254" s="18"/>
+      <c r="C254" s="18"/>
+      <c r="D254" s="18"/>
+      <c r="E254" s="18"/>
+      <c r="F254" s="34"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A255" s="34"/>
-      <c r="B255" s="23"/>
-      <c r="C255" s="23"/>
-      <c r="D255" s="23"/>
-      <c r="E255" s="23"/>
-      <c r="F255" s="30"/>
+      <c r="A255" s="30"/>
+      <c r="B255" s="18"/>
+      <c r="C255" s="18"/>
+      <c r="D255" s="18"/>
+      <c r="E255" s="18"/>
+      <c r="F255" s="34"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A256" s="34"/>
-      <c r="B256" s="23"/>
-      <c r="C256" s="23"/>
-      <c r="D256" s="23"/>
-      <c r="E256" s="23"/>
-      <c r="F256" s="30"/>
+      <c r="A256" s="30"/>
+      <c r="B256" s="18"/>
+      <c r="C256" s="18"/>
+      <c r="D256" s="18"/>
+      <c r="E256" s="18"/>
+      <c r="F256" s="34"/>
     </row>
     <row r="257" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A257" s="35"/>
-      <c r="B257" s="31"/>
-      <c r="C257" s="31"/>
-      <c r="D257" s="31"/>
-      <c r="E257" s="31"/>
-      <c r="F257" s="32"/>
+      <c r="A257" s="31"/>
+      <c r="B257" s="35"/>
+      <c r="C257" s="35"/>
+      <c r="D257" s="35"/>
+      <c r="E257" s="35"/>
+      <c r="F257" s="36"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A258" s="33" t="s">
+      <c r="A258" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B258" s="36" t="s">
+      <c r="B258" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C258" s="36"/>
-      <c r="D258" s="36"/>
-      <c r="E258" s="36"/>
-      <c r="F258" s="29"/>
+      <c r="C258" s="32"/>
+      <c r="D258" s="32"/>
+      <c r="E258" s="32"/>
+      <c r="F258" s="33"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A259" s="34"/>
-      <c r="B259" s="23"/>
-      <c r="C259" s="23"/>
-      <c r="D259" s="23"/>
-      <c r="E259" s="23"/>
-      <c r="F259" s="30"/>
+      <c r="A259" s="30"/>
+      <c r="B259" s="18"/>
+      <c r="C259" s="18"/>
+      <c r="D259" s="18"/>
+      <c r="E259" s="18"/>
+      <c r="F259" s="34"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A260" s="34"/>
-      <c r="B260" s="23"/>
-      <c r="C260" s="23"/>
-      <c r="D260" s="23"/>
-      <c r="E260" s="23"/>
-      <c r="F260" s="30"/>
+      <c r="A260" s="30"/>
+      <c r="B260" s="18"/>
+      <c r="C260" s="18"/>
+      <c r="D260" s="18"/>
+      <c r="E260" s="18"/>
+      <c r="F260" s="34"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A261" s="34"/>
-      <c r="B261" s="23"/>
-      <c r="C261" s="23"/>
-      <c r="D261" s="23"/>
-      <c r="E261" s="23"/>
-      <c r="F261" s="30"/>
+      <c r="A261" s="30"/>
+      <c r="B261" s="18"/>
+      <c r="C261" s="18"/>
+      <c r="D261" s="18"/>
+      <c r="E261" s="18"/>
+      <c r="F261" s="34"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A262" s="34"/>
-      <c r="B262" s="23"/>
-      <c r="C262" s="23"/>
-      <c r="D262" s="23"/>
-      <c r="E262" s="23"/>
-      <c r="F262" s="30"/>
+      <c r="A262" s="30"/>
+      <c r="B262" s="18"/>
+      <c r="C262" s="18"/>
+      <c r="D262" s="18"/>
+      <c r="E262" s="18"/>
+      <c r="F262" s="34"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A263" s="34"/>
-      <c r="B263" s="23"/>
-      <c r="C263" s="23"/>
-      <c r="D263" s="23"/>
-      <c r="E263" s="23"/>
-      <c r="F263" s="30"/>
+      <c r="A263" s="30"/>
+      <c r="B263" s="18"/>
+      <c r="C263" s="18"/>
+      <c r="D263" s="18"/>
+      <c r="E263" s="18"/>
+      <c r="F263" s="34"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A264" s="34"/>
-      <c r="B264" s="23"/>
-      <c r="C264" s="23"/>
-      <c r="D264" s="23"/>
-      <c r="E264" s="23"/>
-      <c r="F264" s="30"/>
+      <c r="A264" s="30"/>
+      <c r="B264" s="18"/>
+      <c r="C264" s="18"/>
+      <c r="D264" s="18"/>
+      <c r="E264" s="18"/>
+      <c r="F264" s="34"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A265" s="34"/>
-      <c r="B265" s="23"/>
-      <c r="C265" s="23"/>
-      <c r="D265" s="23"/>
-      <c r="E265" s="23"/>
-      <c r="F265" s="30"/>
+      <c r="A265" s="30"/>
+      <c r="B265" s="18"/>
+      <c r="C265" s="18"/>
+      <c r="D265" s="18"/>
+      <c r="E265" s="18"/>
+      <c r="F265" s="34"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A266" s="34"/>
-      <c r="B266" s="23"/>
-      <c r="C266" s="23"/>
-      <c r="D266" s="23"/>
-      <c r="E266" s="23"/>
-      <c r="F266" s="30"/>
+      <c r="A266" s="30"/>
+      <c r="B266" s="18"/>
+      <c r="C266" s="18"/>
+      <c r="D266" s="18"/>
+      <c r="E266" s="18"/>
+      <c r="F266" s="34"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A267" s="34"/>
-      <c r="B267" s="23" t="s">
+      <c r="A267" s="30"/>
+      <c r="B267" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C267" s="23"/>
-      <c r="D267" s="23"/>
-      <c r="E267" s="23"/>
-      <c r="F267" s="30"/>
+      <c r="C267" s="18"/>
+      <c r="D267" s="18"/>
+      <c r="E267" s="18"/>
+      <c r="F267" s="34"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A268" s="34"/>
-      <c r="B268" s="23"/>
-      <c r="C268" s="23"/>
-      <c r="D268" s="23"/>
-      <c r="E268" s="23"/>
-      <c r="F268" s="30"/>
+      <c r="A268" s="30"/>
+      <c r="B268" s="18"/>
+      <c r="C268" s="18"/>
+      <c r="D268" s="18"/>
+      <c r="E268" s="18"/>
+      <c r="F268" s="34"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A269" s="34"/>
-      <c r="B269" s="23"/>
-      <c r="C269" s="23"/>
-      <c r="D269" s="23"/>
-      <c r="E269" s="23"/>
-      <c r="F269" s="30"/>
+      <c r="A269" s="30"/>
+      <c r="B269" s="18"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="18"/>
+      <c r="E269" s="18"/>
+      <c r="F269" s="34"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A270" s="34"/>
-      <c r="B270" s="23"/>
-      <c r="C270" s="23"/>
-      <c r="D270" s="23"/>
-      <c r="E270" s="23"/>
-      <c r="F270" s="30"/>
+      <c r="A270" s="30"/>
+      <c r="B270" s="18"/>
+      <c r="C270" s="18"/>
+      <c r="D270" s="18"/>
+      <c r="E270" s="18"/>
+      <c r="F270" s="34"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A271" s="34"/>
-      <c r="B271" s="23"/>
-      <c r="C271" s="23"/>
-      <c r="D271" s="23"/>
-      <c r="E271" s="23"/>
-      <c r="F271" s="30"/>
+      <c r="A271" s="30"/>
+      <c r="B271" s="18"/>
+      <c r="C271" s="18"/>
+      <c r="D271" s="18"/>
+      <c r="E271" s="18"/>
+      <c r="F271" s="34"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A272" s="34"/>
-      <c r="B272" s="23"/>
-      <c r="C272" s="23"/>
-      <c r="D272" s="23"/>
-      <c r="E272" s="23"/>
-      <c r="F272" s="30"/>
+      <c r="A272" s="30"/>
+      <c r="B272" s="18"/>
+      <c r="C272" s="18"/>
+      <c r="D272" s="18"/>
+      <c r="E272" s="18"/>
+      <c r="F272" s="34"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A273" s="34"/>
-      <c r="B273" s="23"/>
-      <c r="C273" s="23"/>
-      <c r="D273" s="23"/>
-      <c r="E273" s="23"/>
-      <c r="F273" s="30"/>
+      <c r="A273" s="30"/>
+      <c r="B273" s="18"/>
+      <c r="C273" s="18"/>
+      <c r="D273" s="18"/>
+      <c r="E273" s="18"/>
+      <c r="F273" s="34"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A274" s="34"/>
-      <c r="B274" s="23"/>
-      <c r="C274" s="23"/>
-      <c r="D274" s="23"/>
-      <c r="E274" s="23"/>
-      <c r="F274" s="30"/>
+      <c r="A274" s="30"/>
+      <c r="B274" s="18"/>
+      <c r="C274" s="18"/>
+      <c r="D274" s="18"/>
+      <c r="E274" s="18"/>
+      <c r="F274" s="34"/>
     </row>
     <row r="275" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A275" s="35"/>
-      <c r="B275" s="31"/>
-      <c r="C275" s="31"/>
-      <c r="D275" s="31"/>
-      <c r="E275" s="31"/>
-      <c r="F275" s="32"/>
+      <c r="A275" s="31"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="35"/>
+      <c r="D275" s="35"/>
+      <c r="E275" s="35"/>
+      <c r="F275" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="171">
+    <mergeCell ref="F258:F266"/>
+    <mergeCell ref="B267:B275"/>
+    <mergeCell ref="C267:C275"/>
+    <mergeCell ref="D267:D275"/>
+    <mergeCell ref="E267:E275"/>
+    <mergeCell ref="F267:F275"/>
+    <mergeCell ref="A258:A275"/>
+    <mergeCell ref="B258:B266"/>
+    <mergeCell ref="C258:C266"/>
+    <mergeCell ref="D258:D266"/>
+    <mergeCell ref="E258:E266"/>
+    <mergeCell ref="F240:F248"/>
+    <mergeCell ref="B249:B257"/>
+    <mergeCell ref="C249:C257"/>
+    <mergeCell ref="D249:D257"/>
+    <mergeCell ref="E249:E257"/>
+    <mergeCell ref="F249:F257"/>
+    <mergeCell ref="A240:A257"/>
+    <mergeCell ref="B240:B248"/>
+    <mergeCell ref="C240:C248"/>
+    <mergeCell ref="D240:D248"/>
+    <mergeCell ref="E240:E248"/>
+    <mergeCell ref="F222:F230"/>
+    <mergeCell ref="B231:B239"/>
+    <mergeCell ref="C231:C239"/>
+    <mergeCell ref="D231:D239"/>
+    <mergeCell ref="E231:E239"/>
+    <mergeCell ref="F231:F239"/>
+    <mergeCell ref="A222:A239"/>
+    <mergeCell ref="B222:B230"/>
+    <mergeCell ref="C222:C230"/>
+    <mergeCell ref="D222:D230"/>
+    <mergeCell ref="E222:E230"/>
+    <mergeCell ref="F204:F212"/>
+    <mergeCell ref="B213:B221"/>
+    <mergeCell ref="C213:C221"/>
+    <mergeCell ref="D213:D221"/>
+    <mergeCell ref="E213:E221"/>
+    <mergeCell ref="F213:F221"/>
+    <mergeCell ref="A204:A221"/>
+    <mergeCell ref="B204:B212"/>
+    <mergeCell ref="C204:C212"/>
+    <mergeCell ref="D204:D212"/>
+    <mergeCell ref="E204:E212"/>
+    <mergeCell ref="F185:F193"/>
+    <mergeCell ref="B194:B202"/>
+    <mergeCell ref="C194:C202"/>
+    <mergeCell ref="D194:D202"/>
+    <mergeCell ref="E194:E202"/>
+    <mergeCell ref="F194:F202"/>
+    <mergeCell ref="A185:A202"/>
+    <mergeCell ref="B185:B193"/>
+    <mergeCell ref="C185:C193"/>
+    <mergeCell ref="D185:D193"/>
+    <mergeCell ref="E185:E193"/>
+    <mergeCell ref="F167:F175"/>
+    <mergeCell ref="B176:B184"/>
+    <mergeCell ref="C176:C184"/>
+    <mergeCell ref="D176:D184"/>
+    <mergeCell ref="E176:E184"/>
+    <mergeCell ref="F176:F184"/>
+    <mergeCell ref="A167:A184"/>
+    <mergeCell ref="B167:B175"/>
+    <mergeCell ref="C167:C175"/>
+    <mergeCell ref="D167:D175"/>
+    <mergeCell ref="E167:E175"/>
+    <mergeCell ref="F149:F157"/>
+    <mergeCell ref="B158:B166"/>
+    <mergeCell ref="C158:C166"/>
+    <mergeCell ref="D158:D166"/>
+    <mergeCell ref="E158:E166"/>
+    <mergeCell ref="F158:F166"/>
+    <mergeCell ref="A149:A166"/>
+    <mergeCell ref="B149:B157"/>
+    <mergeCell ref="C149:C157"/>
+    <mergeCell ref="D149:D157"/>
+    <mergeCell ref="E149:E157"/>
+    <mergeCell ref="F130:F138"/>
+    <mergeCell ref="B139:B147"/>
+    <mergeCell ref="C139:C147"/>
+    <mergeCell ref="D139:D147"/>
+    <mergeCell ref="E139:E147"/>
+    <mergeCell ref="F139:F147"/>
+    <mergeCell ref="A130:A147"/>
+    <mergeCell ref="B130:B138"/>
+    <mergeCell ref="C130:C138"/>
+    <mergeCell ref="D130:D138"/>
+    <mergeCell ref="E130:E138"/>
+    <mergeCell ref="F112:F120"/>
+    <mergeCell ref="B121:B129"/>
+    <mergeCell ref="C121:C129"/>
+    <mergeCell ref="D121:D129"/>
+    <mergeCell ref="E121:E129"/>
+    <mergeCell ref="F121:F129"/>
+    <mergeCell ref="A112:A129"/>
+    <mergeCell ref="B112:B120"/>
+    <mergeCell ref="C112:C120"/>
+    <mergeCell ref="D112:D120"/>
+    <mergeCell ref="E112:E120"/>
+    <mergeCell ref="F94:F102"/>
+    <mergeCell ref="B103:B111"/>
+    <mergeCell ref="C103:C111"/>
+    <mergeCell ref="D103:D111"/>
+    <mergeCell ref="E103:E111"/>
+    <mergeCell ref="F103:F111"/>
+    <mergeCell ref="A94:A111"/>
+    <mergeCell ref="B94:B102"/>
+    <mergeCell ref="C94:C102"/>
+    <mergeCell ref="D94:D102"/>
+    <mergeCell ref="E94:E102"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="E12:E20"/>
+    <mergeCell ref="F12:F20"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="F3:F11"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C30:C38"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E30:E38"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="A39:A56"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="F39:F47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="F48:F56"/>
+    <mergeCell ref="A57:A74"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="F57:F65"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="D66:D74"/>
+    <mergeCell ref="E66:E74"/>
+    <mergeCell ref="F66:F74"/>
     <mergeCell ref="A75:A92"/>
     <mergeCell ref="B75:B83"/>
     <mergeCell ref="C75:C83"/>
@@ -7202,166 +7459,6 @@
     <mergeCell ref="D84:D92"/>
     <mergeCell ref="E84:E92"/>
     <mergeCell ref="F84:F92"/>
-    <mergeCell ref="A57:A74"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="F57:F65"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C66:C74"/>
-    <mergeCell ref="D66:D74"/>
-    <mergeCell ref="E66:E74"/>
-    <mergeCell ref="F66:F74"/>
-    <mergeCell ref="A39:A56"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="F39:F47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="F48:F56"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C29"/>
-    <mergeCell ref="D21:D29"/>
-    <mergeCell ref="E21:E29"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C30:C38"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="E30:E38"/>
-    <mergeCell ref="F30:F38"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="E12:E20"/>
-    <mergeCell ref="F12:F20"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="F3:F11"/>
-    <mergeCell ref="F94:F102"/>
-    <mergeCell ref="B103:B111"/>
-    <mergeCell ref="C103:C111"/>
-    <mergeCell ref="D103:D111"/>
-    <mergeCell ref="E103:E111"/>
-    <mergeCell ref="F103:F111"/>
-    <mergeCell ref="A94:A111"/>
-    <mergeCell ref="B94:B102"/>
-    <mergeCell ref="C94:C102"/>
-    <mergeCell ref="D94:D102"/>
-    <mergeCell ref="E94:E102"/>
-    <mergeCell ref="F112:F120"/>
-    <mergeCell ref="B121:B129"/>
-    <mergeCell ref="C121:C129"/>
-    <mergeCell ref="D121:D129"/>
-    <mergeCell ref="E121:E129"/>
-    <mergeCell ref="F121:F129"/>
-    <mergeCell ref="A112:A129"/>
-    <mergeCell ref="B112:B120"/>
-    <mergeCell ref="C112:C120"/>
-    <mergeCell ref="D112:D120"/>
-    <mergeCell ref="E112:E120"/>
-    <mergeCell ref="F130:F138"/>
-    <mergeCell ref="B139:B147"/>
-    <mergeCell ref="C139:C147"/>
-    <mergeCell ref="D139:D147"/>
-    <mergeCell ref="E139:E147"/>
-    <mergeCell ref="F139:F147"/>
-    <mergeCell ref="A130:A147"/>
-    <mergeCell ref="B130:B138"/>
-    <mergeCell ref="C130:C138"/>
-    <mergeCell ref="D130:D138"/>
-    <mergeCell ref="E130:E138"/>
-    <mergeCell ref="F149:F157"/>
-    <mergeCell ref="B158:B166"/>
-    <mergeCell ref="C158:C166"/>
-    <mergeCell ref="D158:D166"/>
-    <mergeCell ref="E158:E166"/>
-    <mergeCell ref="F158:F166"/>
-    <mergeCell ref="A149:A166"/>
-    <mergeCell ref="B149:B157"/>
-    <mergeCell ref="C149:C157"/>
-    <mergeCell ref="D149:D157"/>
-    <mergeCell ref="E149:E157"/>
-    <mergeCell ref="F167:F175"/>
-    <mergeCell ref="B176:B184"/>
-    <mergeCell ref="C176:C184"/>
-    <mergeCell ref="D176:D184"/>
-    <mergeCell ref="E176:E184"/>
-    <mergeCell ref="F176:F184"/>
-    <mergeCell ref="A167:A184"/>
-    <mergeCell ref="B167:B175"/>
-    <mergeCell ref="C167:C175"/>
-    <mergeCell ref="D167:D175"/>
-    <mergeCell ref="E167:E175"/>
-    <mergeCell ref="F185:F193"/>
-    <mergeCell ref="B194:B202"/>
-    <mergeCell ref="C194:C202"/>
-    <mergeCell ref="D194:D202"/>
-    <mergeCell ref="E194:E202"/>
-    <mergeCell ref="F194:F202"/>
-    <mergeCell ref="A185:A202"/>
-    <mergeCell ref="B185:B193"/>
-    <mergeCell ref="C185:C193"/>
-    <mergeCell ref="D185:D193"/>
-    <mergeCell ref="E185:E193"/>
-    <mergeCell ref="F204:F212"/>
-    <mergeCell ref="B213:B221"/>
-    <mergeCell ref="C213:C221"/>
-    <mergeCell ref="D213:D221"/>
-    <mergeCell ref="E213:E221"/>
-    <mergeCell ref="F213:F221"/>
-    <mergeCell ref="A204:A221"/>
-    <mergeCell ref="B204:B212"/>
-    <mergeCell ref="C204:C212"/>
-    <mergeCell ref="D204:D212"/>
-    <mergeCell ref="E204:E212"/>
-    <mergeCell ref="F222:F230"/>
-    <mergeCell ref="B231:B239"/>
-    <mergeCell ref="C231:C239"/>
-    <mergeCell ref="D231:D239"/>
-    <mergeCell ref="E231:E239"/>
-    <mergeCell ref="F231:F239"/>
-    <mergeCell ref="A222:A239"/>
-    <mergeCell ref="B222:B230"/>
-    <mergeCell ref="C222:C230"/>
-    <mergeCell ref="D222:D230"/>
-    <mergeCell ref="E222:E230"/>
-    <mergeCell ref="F240:F248"/>
-    <mergeCell ref="B249:B257"/>
-    <mergeCell ref="C249:C257"/>
-    <mergeCell ref="D249:D257"/>
-    <mergeCell ref="E249:E257"/>
-    <mergeCell ref="F249:F257"/>
-    <mergeCell ref="A240:A257"/>
-    <mergeCell ref="B240:B248"/>
-    <mergeCell ref="C240:C248"/>
-    <mergeCell ref="D240:D248"/>
-    <mergeCell ref="E240:E248"/>
-    <mergeCell ref="F258:F266"/>
-    <mergeCell ref="B267:B275"/>
-    <mergeCell ref="C267:C275"/>
-    <mergeCell ref="D267:D275"/>
-    <mergeCell ref="E267:E275"/>
-    <mergeCell ref="F267:F275"/>
-    <mergeCell ref="A258:A275"/>
-    <mergeCell ref="B258:B266"/>
-    <mergeCell ref="C258:C266"/>
-    <mergeCell ref="D258:D266"/>
-    <mergeCell ref="E258:E266"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7372,7 +7469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661A2774-BFE6-48DC-9918-21EEE8F96420}">
   <dimension ref="L1:O120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:M118"/>
     </sheetView>
   </sheetViews>
@@ -7404,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.734375</v>
+        <v>0.78125</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="0">1+L3</f>
@@ -7412,7 +7509,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="1">100*(1-M3)</f>
-        <v>26.5625</v>
+        <v>21.875</v>
       </c>
     </row>
     <row r="4" spans="12:15" x14ac:dyDescent="0.45">
@@ -7420,7 +7517,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>0.671875</v>
+        <v>0.65625</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
@@ -7428,7 +7525,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>32.8125</v>
+        <v>34.375</v>
       </c>
     </row>
     <row r="5" spans="12:15" x14ac:dyDescent="0.45">
@@ -7436,7 +7533,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>0.546875</v>
+        <v>0.5625</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
@@ -7444,7 +7541,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="6" spans="12:15" x14ac:dyDescent="0.45">
@@ -7452,7 +7549,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>0.515625</v>
+        <v>0.53125</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
@@ -7460,7 +7557,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="7" spans="12:15" x14ac:dyDescent="0.45">
@@ -7468,7 +7565,7 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0.46875</v>
+        <v>0.515625</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
@@ -7476,7 +7573,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="8" spans="12:15" x14ac:dyDescent="0.45">
@@ -7500,7 +7597,7 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0.546875</v>
+        <v>0.421875</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
@@ -7508,7 +7605,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="10" spans="12:15" x14ac:dyDescent="0.45">
@@ -7516,7 +7613,7 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>0.5</v>
+        <v>0.453125</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
@@ -7524,7 +7621,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="11" spans="12:15" x14ac:dyDescent="0.45">
@@ -7548,7 +7645,7 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>0.46875</v>
+        <v>0.53125</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
@@ -7556,7 +7653,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="13" spans="12:15" x14ac:dyDescent="0.45">
@@ -7564,7 +7661,7 @@
         <v>11</v>
       </c>
       <c r="M13">
-        <v>0.546875</v>
+        <v>0.53125</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
@@ -7572,7 +7669,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="14" spans="12:15" x14ac:dyDescent="0.45">
@@ -7580,7 +7677,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
@@ -7588,7 +7685,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="15" spans="12:15" x14ac:dyDescent="0.45">
@@ -7596,7 +7693,7 @@
         <v>13</v>
       </c>
       <c r="M15">
-        <v>0.46875</v>
+        <v>0.546875</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
@@ -7604,7 +7701,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="16" spans="12:15" x14ac:dyDescent="0.45">
@@ -7612,7 +7709,7 @@
         <v>14</v>
       </c>
       <c r="M16">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
@@ -7620,7 +7717,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="12:15" x14ac:dyDescent="0.45">
@@ -7644,7 +7741,7 @@
         <v>16</v>
       </c>
       <c r="M18">
-        <v>0.5</v>
+        <v>0.484375</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
@@ -7652,7 +7749,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.45">
@@ -7660,7 +7757,7 @@
         <v>17</v>
       </c>
       <c r="M19">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
@@ -7668,7 +7765,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="20" spans="12:15" x14ac:dyDescent="0.45">
@@ -7676,7 +7773,7 @@
         <v>18</v>
       </c>
       <c r="M20">
-        <v>0.4375</v>
+        <v>0.421875</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
@@ -7684,7 +7781,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="21" spans="12:15" x14ac:dyDescent="0.45">
@@ -7692,7 +7789,7 @@
         <v>19</v>
       </c>
       <c r="M21">
-        <v>0.546875</v>
+        <v>0.46875</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
@@ -7700,7 +7797,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="22" spans="12:15" x14ac:dyDescent="0.45">
@@ -7708,7 +7805,7 @@
         <v>20</v>
       </c>
       <c r="M22">
-        <v>0.515625</v>
+        <v>0.5</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
@@ -7716,7 +7813,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="12:15" x14ac:dyDescent="0.45">
@@ -7724,7 +7821,7 @@
         <v>21</v>
       </c>
       <c r="M23">
-        <v>0.515625</v>
+        <v>0.5</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
@@ -7732,7 +7829,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="12:15" x14ac:dyDescent="0.45">
@@ -7740,7 +7837,7 @@
         <v>22</v>
       </c>
       <c r="M24">
-        <v>0.484375</v>
+        <v>0.515625</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
@@ -7748,7 +7845,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="25" spans="12:15" x14ac:dyDescent="0.45">
@@ -7756,7 +7853,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>0.46875</v>
+        <v>0.71875</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
@@ -7764,7 +7861,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="26" spans="12:15" x14ac:dyDescent="0.45">
@@ -7772,7 +7869,7 @@
         <v>24</v>
       </c>
       <c r="M26">
-        <v>0.453125</v>
+        <v>0.59375</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -7780,7 +7877,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="27" spans="12:15" x14ac:dyDescent="0.45">
@@ -7788,7 +7885,7 @@
         <v>25</v>
       </c>
       <c r="M27">
-        <v>0.453125</v>
+        <v>0.421875</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
@@ -7796,7 +7893,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="28" spans="12:15" x14ac:dyDescent="0.45">
@@ -7804,7 +7901,7 @@
         <v>26</v>
       </c>
       <c r="M28">
-        <v>0.453125</v>
+        <v>0.390625</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
@@ -7812,7 +7909,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="29" spans="12:15" x14ac:dyDescent="0.45">
@@ -7820,7 +7917,7 @@
         <v>27</v>
       </c>
       <c r="M29">
-        <v>0.453125</v>
+        <v>0.390625</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
@@ -7828,7 +7925,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="30" spans="12:15" x14ac:dyDescent="0.45">
@@ -7836,7 +7933,7 @@
         <v>28</v>
       </c>
       <c r="M30">
-        <v>0.453125</v>
+        <v>0.390625</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
@@ -7844,7 +7941,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="31" spans="12:15" x14ac:dyDescent="0.45">
@@ -7852,7 +7949,7 @@
         <v>29</v>
       </c>
       <c r="M31">
-        <v>0.453125</v>
+        <v>0.375</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
@@ -7860,7 +7957,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="32" spans="12:15" x14ac:dyDescent="0.45">
@@ -7868,7 +7965,7 @@
         <v>30</v>
       </c>
       <c r="M32">
-        <v>0.453125</v>
+        <v>0.375</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
@@ -7876,7 +7973,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.45">
@@ -7884,7 +7981,7 @@
         <v>31</v>
       </c>
       <c r="M33">
-        <v>0.453125</v>
+        <v>0.375</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
@@ -7892,7 +7989,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="34" spans="12:15" x14ac:dyDescent="0.45">
@@ -7900,7 +7997,7 @@
         <v>32</v>
       </c>
       <c r="M34">
-        <v>0.453125</v>
+        <v>0.375</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
@@ -7908,7 +8005,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.45">
@@ -7916,7 +8013,7 @@
         <v>33</v>
       </c>
       <c r="M35">
-        <v>0.453125</v>
+        <v>0.375</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
@@ -7924,7 +8021,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.45">
@@ -7932,7 +8029,7 @@
         <v>34</v>
       </c>
       <c r="M36">
-        <v>0.453125</v>
+        <v>0.375</v>
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
@@ -7940,7 +8037,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.45">
@@ -7948,7 +8045,7 @@
         <v>35</v>
       </c>
       <c r="M37">
-        <v>0.453125</v>
+        <v>0.375</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
@@ -7956,7 +8053,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.45">
@@ -7964,7 +8061,7 @@
         <v>36</v>
       </c>
       <c r="M38">
-        <v>0.453125</v>
+        <v>0.375</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
@@ -7972,7 +8069,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.45">
@@ -7980,7 +8077,7 @@
         <v>37</v>
       </c>
       <c r="M39">
-        <v>0.453125</v>
+        <v>0.375</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
@@ -7988,7 +8085,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.45">
@@ -7996,7 +8093,7 @@
         <v>38</v>
       </c>
       <c r="M40">
-        <v>0.453125</v>
+        <v>0.375</v>
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
@@ -8004,7 +8101,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.45">
@@ -8012,7 +8109,7 @@
         <v>39</v>
       </c>
       <c r="M41">
-        <v>0.453125</v>
+        <v>0.375</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
@@ -8020,7 +8117,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="42" spans="12:15" x14ac:dyDescent="0.45">
@@ -8028,7 +8125,7 @@
         <v>40</v>
       </c>
       <c r="M42">
-        <v>0.46875</v>
+        <v>0.375</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
@@ -8036,7 +8133,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.45">
@@ -8044,7 +8141,7 @@
         <v>41</v>
       </c>
       <c r="M43">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -8052,7 +8149,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.45">
@@ -8060,7 +8157,7 @@
         <v>42</v>
       </c>
       <c r="M44">
-        <v>0.453125</v>
+        <v>0.375</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
@@ -8068,7 +8165,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.45">
@@ -8076,7 +8173,7 @@
         <v>43</v>
       </c>
       <c r="M45">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
@@ -8084,7 +8181,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.45">
@@ -8092,7 +8189,7 @@
         <v>44</v>
       </c>
       <c r="M46">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
@@ -8100,7 +8197,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.45">
@@ -8108,7 +8205,7 @@
         <v>45</v>
       </c>
       <c r="M47">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
@@ -8116,7 +8213,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.45">
@@ -8124,7 +8221,7 @@
         <v>46</v>
       </c>
       <c r="M48">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
@@ -8132,7 +8229,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.45">
@@ -8140,7 +8237,7 @@
         <v>47</v>
       </c>
       <c r="M49">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -8148,7 +8245,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.45">
@@ -8156,7 +8253,7 @@
         <v>48</v>
       </c>
       <c r="M50">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
@@ -8164,7 +8261,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.45">
@@ -8172,7 +8269,7 @@
         <v>49</v>
       </c>
       <c r="M51">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
@@ -8180,7 +8277,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.45">
@@ -8188,7 +8285,7 @@
         <v>50</v>
       </c>
       <c r="M52">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
@@ -8196,7 +8293,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.45">
@@ -8204,7 +8301,7 @@
         <v>51</v>
       </c>
       <c r="M53">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
@@ -8212,7 +8309,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.45">
@@ -8220,7 +8317,7 @@
         <v>52</v>
       </c>
       <c r="M54">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
@@ -8228,7 +8325,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.45">
@@ -8236,7 +8333,7 @@
         <v>53</v>
       </c>
       <c r="M55">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
@@ -8244,7 +8341,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.45">
@@ -8252,7 +8349,7 @@
         <v>54</v>
       </c>
       <c r="M56">
-        <v>0.4375</v>
+        <v>0.390625</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
@@ -8260,7 +8357,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.45">
@@ -8268,7 +8365,7 @@
         <v>55</v>
       </c>
       <c r="M57">
-        <v>0.4375</v>
+        <v>0.390625</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
@@ -8276,7 +8373,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.45">
@@ -8284,7 +8381,7 @@
         <v>56</v>
       </c>
       <c r="M58">
-        <v>0.4375</v>
+        <v>0.390625</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
@@ -8292,7 +8389,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.45">
@@ -8300,7 +8397,7 @@
         <v>57</v>
       </c>
       <c r="M59">
-        <v>0.4375</v>
+        <v>0.40625</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
@@ -8308,7 +8405,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.45">
@@ -8316,7 +8413,7 @@
         <v>58</v>
       </c>
       <c r="M60">
-        <v>0.453125</v>
+        <v>0.421875</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
@@ -8324,7 +8421,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.45">
@@ -8332,7 +8429,7 @@
         <v>59</v>
       </c>
       <c r="M61">
-        <v>0.5625</v>
+        <v>0.4375</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
@@ -8340,7 +8437,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>43.75</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.45">
@@ -8348,7 +8445,7 @@
         <v>60</v>
       </c>
       <c r="M62">
-        <v>0.484375</v>
+        <v>0.4375</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
@@ -8356,7 +8453,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>51.5625</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.45">
@@ -8364,7 +8461,7 @@
         <v>61</v>
       </c>
       <c r="M63">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
@@ -8372,7 +8469,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="64" spans="12:15" x14ac:dyDescent="0.45">
@@ -8380,7 +8477,7 @@
         <v>62</v>
       </c>
       <c r="M64">
-        <v>0.453125</v>
+        <v>0.4375</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
@@ -8388,7 +8485,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>54.6875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="65" spans="12:15" x14ac:dyDescent="0.45">
@@ -8396,7 +8493,7 @@
         <v>63</v>
       </c>
       <c r="M65">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
@@ -8404,7 +8501,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="66" spans="12:15" x14ac:dyDescent="0.45">
@@ -8412,7 +8509,7 @@
         <v>64</v>
       </c>
       <c r="M66">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
@@ -8420,7 +8517,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="67" spans="12:15" x14ac:dyDescent="0.45">
@@ -8428,7 +8525,7 @@
         <v>65</v>
       </c>
       <c r="M67">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N118" si="2">1+L67</f>
@@ -8436,7 +8533,7 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O118" si="3">100*(1-M67)</f>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="68" spans="12:15" x14ac:dyDescent="0.45">
@@ -8444,7 +8541,7 @@
         <v>66</v>
       </c>
       <c r="M68">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="N68">
         <f t="shared" si="2"/>
@@ -8452,7 +8549,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="69" spans="12:15" x14ac:dyDescent="0.45">
@@ -8476,7 +8573,7 @@
         <v>68</v>
       </c>
       <c r="M70">
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
       <c r="N70">
         <f t="shared" si="2"/>
@@ -8484,7 +8581,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>53.125</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="71" spans="12:15" x14ac:dyDescent="0.45">
@@ -8492,7 +8589,7 @@
         <v>69</v>
       </c>
       <c r="M71">
-        <v>0.453125</v>
+        <v>0.4375</v>
       </c>
       <c r="N71">
         <f t="shared" si="2"/>
@@ -8500,7 +8597,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="72" spans="12:15" x14ac:dyDescent="0.45">
@@ -8508,7 +8605,7 @@
         <v>70</v>
       </c>
       <c r="M72">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
@@ -8516,7 +8613,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="73" spans="12:15" x14ac:dyDescent="0.45">
@@ -8524,7 +8621,7 @@
         <v>71</v>
       </c>
       <c r="M73">
-        <v>0.546875</v>
+        <v>0.46875</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
@@ -8532,7 +8629,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>45.3125</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="74" spans="12:15" x14ac:dyDescent="0.45">
@@ -8540,7 +8637,7 @@
         <v>72</v>
       </c>
       <c r="M74">
-        <v>0.5625</v>
+        <v>0.453125</v>
       </c>
       <c r="N74">
         <f t="shared" si="2"/>
@@ -8548,7 +8645,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="75" spans="12:15" x14ac:dyDescent="0.45">
@@ -8556,7 +8653,7 @@
         <v>73</v>
       </c>
       <c r="M75">
-        <v>0.53125</v>
+        <v>0.515625</v>
       </c>
       <c r="N75">
         <f t="shared" si="2"/>
@@ -8564,7 +8661,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>46.875</v>
+        <v>48.4375</v>
       </c>
     </row>
     <row r="76" spans="12:15" x14ac:dyDescent="0.45">
@@ -8572,7 +8669,7 @@
         <v>74</v>
       </c>
       <c r="M76">
-        <v>0.65625</v>
+        <v>0.46875</v>
       </c>
       <c r="N76">
         <f t="shared" si="2"/>
@@ -8580,7 +8677,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>34.375</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="77" spans="12:15" x14ac:dyDescent="0.45">
@@ -8588,7 +8685,7 @@
         <v>75</v>
       </c>
       <c r="M77">
-        <v>0.625</v>
+        <v>0.453125</v>
       </c>
       <c r="N77">
         <f t="shared" si="2"/>
@@ -8596,7 +8693,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>37.5</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="78" spans="12:15" x14ac:dyDescent="0.45">
@@ -8604,7 +8701,7 @@
         <v>76</v>
       </c>
       <c r="M78">
-        <v>0.515625</v>
+        <v>0.46875</v>
       </c>
       <c r="N78">
         <f t="shared" si="2"/>
@@ -8612,7 +8709,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="79" spans="12:15" x14ac:dyDescent="0.45">
@@ -8620,7 +8717,7 @@
         <v>77</v>
       </c>
       <c r="M79">
-        <v>0.515625</v>
+        <v>0.46875</v>
       </c>
       <c r="N79">
         <f t="shared" si="2"/>
@@ -8628,7 +8725,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="80" spans="12:15" x14ac:dyDescent="0.45">
@@ -8636,7 +8733,7 @@
         <v>78</v>
       </c>
       <c r="M80">
-        <v>0.515625</v>
+        <v>0.46875</v>
       </c>
       <c r="N80">
         <f t="shared" si="2"/>
@@ -8644,7 +8741,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.45">
@@ -8652,7 +8749,7 @@
         <v>79</v>
       </c>
       <c r="M81">
-        <v>0.515625</v>
+        <v>0.5</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
@@ -8660,7 +8757,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="12:15" x14ac:dyDescent="0.45">
@@ -8668,7 +8765,7 @@
         <v>80</v>
       </c>
       <c r="M82">
-        <v>0.515625</v>
+        <v>0.484375</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
@@ -8676,7 +8773,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="83" spans="12:15" x14ac:dyDescent="0.45">
@@ -8684,7 +8781,7 @@
         <v>81</v>
       </c>
       <c r="M83">
-        <v>0.515625</v>
+        <v>0.484375</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -8692,7 +8789,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="84" spans="12:15" x14ac:dyDescent="0.45">
@@ -8700,7 +8797,7 @@
         <v>82</v>
       </c>
       <c r="M84">
-        <v>0.515625</v>
+        <v>0.484375</v>
       </c>
       <c r="N84">
         <f t="shared" si="2"/>
@@ -8708,7 +8805,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="85" spans="12:15" x14ac:dyDescent="0.45">
@@ -8716,7 +8813,7 @@
         <v>83</v>
       </c>
       <c r="M85">
-        <v>0.515625</v>
+        <v>0.484375</v>
       </c>
       <c r="N85">
         <f t="shared" si="2"/>
@@ -8724,7 +8821,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="86" spans="12:15" x14ac:dyDescent="0.45">
@@ -8732,7 +8829,7 @@
         <v>84</v>
       </c>
       <c r="M86">
-        <v>0.515625</v>
+        <v>0.484375</v>
       </c>
       <c r="N86">
         <f t="shared" si="2"/>
@@ -8740,7 +8837,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="87" spans="12:15" x14ac:dyDescent="0.45">
@@ -8748,7 +8845,7 @@
         <v>85</v>
       </c>
       <c r="M87">
-        <v>0.484375</v>
+        <v>0.46875</v>
       </c>
       <c r="N87">
         <f t="shared" si="2"/>
@@ -8756,7 +8853,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>51.5625</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="88" spans="12:15" x14ac:dyDescent="0.45">
@@ -8780,7 +8877,7 @@
         <v>87</v>
       </c>
       <c r="M89">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="N89">
         <f t="shared" si="2"/>
@@ -8788,7 +8885,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="90" spans="12:15" x14ac:dyDescent="0.45">
@@ -8796,7 +8893,7 @@
         <v>88</v>
       </c>
       <c r="M90">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
@@ -8804,7 +8901,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="91" spans="12:15" x14ac:dyDescent="0.45">
@@ -8812,7 +8909,7 @@
         <v>89</v>
       </c>
       <c r="M91">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
@@ -8820,7 +8917,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="92" spans="12:15" x14ac:dyDescent="0.45">
@@ -8828,7 +8925,7 @@
         <v>90</v>
       </c>
       <c r="M92">
-        <v>0.453125</v>
+        <v>0.46875</v>
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
@@ -8836,7 +8933,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>54.6875</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="93" spans="12:15" x14ac:dyDescent="0.45">
@@ -9004,7 +9101,7 @@
         <v>76</v>
       </c>
       <c r="M103">
-        <v>0.390625</v>
+        <v>0.359375</v>
       </c>
       <c r="N103" t="e">
         <f t="shared" si="2"/>
@@ -9012,7 +9109,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>60.9375</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="104" spans="12:15" x14ac:dyDescent="0.45">
@@ -9020,7 +9117,7 @@
         <v>76</v>
       </c>
       <c r="M104">
-        <v>0.5</v>
+        <v>0.46875</v>
       </c>
       <c r="N104" t="e">
         <f t="shared" si="2"/>
@@ -9028,7 +9125,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="105" spans="12:15" x14ac:dyDescent="0.45">
@@ -9036,7 +9133,7 @@
         <v>76</v>
       </c>
       <c r="M105">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="N105" t="e">
         <f t="shared" si="2"/>
@@ -9044,7 +9141,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>46.875</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="106" spans="12:15" x14ac:dyDescent="0.45">
@@ -9052,7 +9149,7 @@
         <v>76</v>
       </c>
       <c r="M106">
-        <v>0.5</v>
+        <v>0.421875</v>
       </c>
       <c r="N106" t="e">
         <f t="shared" si="2"/>
@@ -9060,7 +9157,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="107" spans="12:15" x14ac:dyDescent="0.45">
@@ -9068,7 +9165,7 @@
         <v>76</v>
       </c>
       <c r="M107">
-        <v>0.515625</v>
+        <v>0.484375</v>
       </c>
       <c r="N107" t="e">
         <f t="shared" si="2"/>
@@ -9076,7 +9173,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>48.4375</v>
+        <v>51.5625</v>
       </c>
     </row>
     <row r="108" spans="12:15" x14ac:dyDescent="0.45">
@@ -9084,7 +9181,7 @@
         <v>76</v>
       </c>
       <c r="M108">
-        <v>0.40625</v>
+        <v>0.4375</v>
       </c>
       <c r="N108" t="e">
         <f t="shared" si="2"/>
@@ -9092,7 +9189,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="109" spans="12:15" x14ac:dyDescent="0.45">
@@ -9116,7 +9213,7 @@
         <v>76</v>
       </c>
       <c r="M110">
-        <v>0.375</v>
+        <v>0.421875</v>
       </c>
       <c r="N110" t="e">
         <f t="shared" si="2"/>
@@ -9124,7 +9221,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="111" spans="12:15" x14ac:dyDescent="0.45">
@@ -9132,7 +9229,7 @@
         <v>76</v>
       </c>
       <c r="M111">
-        <v>0.4375</v>
+        <v>0.390625</v>
       </c>
       <c r="N111" t="e">
         <f t="shared" si="2"/>
@@ -9140,7 +9237,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>60.9375</v>
       </c>
     </row>
     <row r="112" spans="12:15" x14ac:dyDescent="0.45">
@@ -9148,7 +9245,7 @@
         <v>76</v>
       </c>
       <c r="M112">
-        <v>0.40625</v>
+        <v>0.34375</v>
       </c>
       <c r="N112" t="e">
         <f t="shared" si="2"/>
@@ -9156,7 +9253,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>65.625</v>
       </c>
     </row>
     <row r="113" spans="12:15" x14ac:dyDescent="0.45">
@@ -9164,7 +9261,7 @@
         <v>76</v>
       </c>
       <c r="M113">
-        <v>0.4375</v>
+        <v>0.46875</v>
       </c>
       <c r="N113" t="e">
         <f t="shared" si="2"/>
@@ -9172,7 +9269,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>56.25</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="114" spans="12:15" x14ac:dyDescent="0.45">
@@ -9180,7 +9277,7 @@
         <v>76</v>
       </c>
       <c r="M114">
-        <v>0.5</v>
+        <v>0.34375</v>
       </c>
       <c r="N114" t="e">
         <f t="shared" si="2"/>
@@ -9188,7 +9285,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>65.625</v>
       </c>
     </row>
     <row r="115" spans="12:15" x14ac:dyDescent="0.45">
@@ -9196,7 +9293,7 @@
         <v>76</v>
       </c>
       <c r="M115">
-        <v>0.40625</v>
+        <v>0.375</v>
       </c>
       <c r="N115" t="e">
         <f t="shared" si="2"/>
@@ -9204,7 +9301,7 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>59.375</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="116" spans="12:15" x14ac:dyDescent="0.45">
@@ -9212,7 +9309,7 @@
         <v>76</v>
       </c>
       <c r="M116">
-        <v>0.47058823529411759</v>
+        <v>0.5</v>
       </c>
       <c r="N116" t="e">
         <f t="shared" si="2"/>
@@ -9220,7 +9317,7 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>52.941176470588246</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="12:15" x14ac:dyDescent="0.45">

--- a/Dysarthic Speaker (Data Augmentation).xlsx
+++ b/Dysarthic Speaker (Data Augmentation).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0600A2-B857-4201-B144-EDA9C2D6A111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3BEAB0-8936-4630-84B0-A941BE55A190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="12195" windowHeight="9442" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{329D98D7-2695-42DB-A918-D16093DDBC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Combine Sheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>Intelligibility</t>
   </si>
@@ -268,7 +268,7 @@
     <t>Augmented_M04_E1</t>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7efb9b46dca0&gt;</t>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f8674ab19d0&gt;</t>
   </si>
 </sst>
 </file>
@@ -773,6 +773,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,7 +788,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -791,11 +800,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -803,19 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -827,7 +830,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -842,28 +854,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -972,304 +972,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>15.625</c:v>
+                  <c:v>14.0625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.875</c:v>
+                  <c:v>17.1875</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>23.4375</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>34.375</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>43.75</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.875</c:v>
+                  <c:v>42.1875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.4375</c:v>
+                  <c:v>35.9375</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>51.5625</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54.6875</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.125</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.875</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.75</c:v>
+                  <c:v>51.5625</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>45.3125</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>51.5625</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>48.4375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28.125</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40.625</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>57.8125</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>60.9375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>60.9375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>60.9375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>62.5</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>62.5</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>62.5</c:v>
+                  <c:v>64.0625</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>62.5</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>62.5</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>62.5</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>62.5</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>62.5</c:v>
+                  <c:v>64.0625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>62.5</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>62.5</c:v>
+                  <c:v>59.375</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62.5</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>62.5</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>62.5</c:v>
+                  <c:v>64.0625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>62.5</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>62.5</c:v>
+                  <c:v>60.9375</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>62.5</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>62.5</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>62.5</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>62.5</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.5</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>60.9375</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>60.9375</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>60.9375</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>59.375</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>57.8125</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>56.25</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>56.25</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>56.25</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>56.25</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>56.25</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>56.25</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>54.6875</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>54.6875</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>53.125</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>56.25</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>56.25</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>56.25</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>53.125</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>54.6875</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>48.4375</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>53.125</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>54.6875</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>53.125</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53.125</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>53.125</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>50</c:v>
+                  <c:v>64.0625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>51.5625</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>51.5625</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>51.5625</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>51.5625</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>51.5625</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>53.125</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>53.125</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>53.125</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>53.125</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>53.125</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>53.125</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>54.6875</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>54.6875</c:v>
+                  <c:v>65.625</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>54.6875</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>54.6875</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>54.6875</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>54.6875</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>54.6875</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>54.6875</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>54.6875</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,6 +3341,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35278</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2163702</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>167569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97FFD86A-D432-8243-8DC5-131F0826402C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2592917" y="23944794"/>
+          <a:ext cx="2128424" cy="1596318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>141112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2240139</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>11171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D10B14B-041A-E062-223B-AE981CF5197E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4780139" y="24032988"/>
+          <a:ext cx="2240139" cy="1351726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3715,316 +3809,316 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="20">
         <v>10.94</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="23">
         <v>7</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="13"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>32.47</v>
       </c>
       <c r="D11" s="22">
         <f>100-71</f>
         <v>29</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="12"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="13"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="13"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="13"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="13"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="13"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="13"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="13"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="14"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <v>40.65</v>
       </c>
       <c r="D20" s="22">
         <v>19</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="12"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="13"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="13"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="13"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="13"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="13"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="13"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="13"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="14"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="13"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="19">
         <v>28.39</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="12"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="11"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="13"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="11"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="13"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="11"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="13"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="11"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="13"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="11"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="13"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="11"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="13"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="11"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="13"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="12"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="14"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="8">
         <f xml:space="preserve"> SUM(C2:C37)/4</f>
         <v>28.112500000000001</v>
@@ -4036,219 +4130,219 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="20">
         <v>69.459999999999994</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="23">
         <v>53</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="26"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="11"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="26"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="11"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="26"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="11"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="26"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="11"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="26"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="11"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="26"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="11"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="26"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="11"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="26"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="12"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="26"/>
-      <c r="B48" s="20" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="19">
         <v>67.02</v>
       </c>
       <c r="D48" s="22">
         <v>52</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="26"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="11"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="26"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="11"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="26"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="11"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="26"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="11"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="26"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="11"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="26"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="11"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="26"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="11"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="26"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="12"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="26"/>
-      <c r="B57" s="20" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="19">
         <v>55.91</v>
       </c>
       <c r="D57" s="22">
         <v>57</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="26"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="11"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="26"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="11"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="26"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="11"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="26"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="11"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="26"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="11"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="26"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="11"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="26"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="11"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="27"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="12"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="8">
         <f>SUM(C39:C65)/3</f>
         <v>64.13</v>
@@ -4260,219 +4354,219 @@
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="20">
         <v>64.95</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="23">
         <v>55</v>
       </c>
-      <c r="E67" s="10"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="11"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="11"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="11"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="11"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="11"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="11"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="11"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="13"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="12"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="13"/>
-      <c r="B76" s="20" t="s">
+      <c r="A76" s="25"/>
+      <c r="B76" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="19">
         <v>49.68</v>
       </c>
       <c r="D76" s="22">
         <v>51</v>
       </c>
-      <c r="E76" s="10"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="11"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="13"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="11"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="11"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="11"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="11"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="11"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="11"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="13"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="12"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="13"/>
-      <c r="B85" s="20" t="s">
+      <c r="A85" s="25"/>
+      <c r="B85" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="19">
         <v>53.98</v>
       </c>
       <c r="D85" s="22">
         <v>64</v>
       </c>
-      <c r="E85" s="10"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="13"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="11"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="13"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="11"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="13"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="11"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="13"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="11"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="11"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="13"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="11"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="13"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="11"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="13"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="12"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="14"/>
     </row>
     <row r="94" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="24"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="8">
         <f>SUM(C67:C93)/3</f>
         <v>56.203333333333326</v>
@@ -4484,367 +4578,367 @@
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C95" s="20">
         <v>85.16</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="23">
         <v>82</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E95" s="12">
         <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="13"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="11"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="13"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="11"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="13"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="11"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="13"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="11"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="13"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="11"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="13"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="11"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="13"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="11"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="13"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="12"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="14"/>
     </row>
     <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="13"/>
-      <c r="B104" s="20" t="s">
+      <c r="A104" s="25"/>
+      <c r="B104" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="19">
         <v>86.45</v>
       </c>
       <c r="D104" s="22">
         <v>82</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E104" s="12">
         <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="13"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="11"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="13"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="11"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="13"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="11"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="13"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="13"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="11"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="13"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="13"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="11"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="13"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="13"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="11"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="13"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="13"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="11"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="13"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="13"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="12"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="14"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="13"/>
-      <c r="B113" s="20" t="s">
+      <c r="A113" s="25"/>
+      <c r="B113" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="19">
         <v>89.68</v>
       </c>
       <c r="D113" s="22">
         <v>92</v>
       </c>
-      <c r="E113" s="10">
+      <c r="E113" s="12">
         <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="13"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="11"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115" s="13"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="11"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="13"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116" s="13"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="11"/>
+      <c r="A116" s="25"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="13"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117" s="13"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="11"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118" s="13"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="11"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="13"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="11"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="13"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120" s="13"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="11"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="13"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121" s="13"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="12"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="14"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122" s="13"/>
-      <c r="B122" s="20" t="s">
+      <c r="A122" s="25"/>
+      <c r="B122" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="21">
+      <c r="C122" s="19">
         <v>86.67</v>
       </c>
       <c r="D122" s="22">
         <v>84</v>
       </c>
-      <c r="E122" s="10">
+      <c r="E122" s="12">
         <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123" s="13"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="11"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" s="13"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="11"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A125" s="13"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="11"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126" s="13"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="11"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="13"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127" s="13"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="11"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A128" s="13"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="11"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="13"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A129" s="13"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="11"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="13"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A130" s="13"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="12"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="14"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A131" s="13"/>
-      <c r="B131" s="20" t="s">
+      <c r="A131" s="25"/>
+      <c r="B131" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="21">
+      <c r="C131" s="19">
         <v>94.41</v>
       </c>
       <c r="D131" s="22">
         <v>91</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="12">
         <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A132" s="13"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="11"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="13"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133" s="13"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="11"/>
+      <c r="A133" s="25"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="13"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" s="13"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="11"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="13"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" s="13"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="11"/>
+      <c r="A135" s="25"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="13"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" s="13"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="11"/>
+      <c r="A136" s="25"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="13"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137" s="13"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="11"/>
+      <c r="A137" s="25"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138" s="13"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="11"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="13"/>
     </row>
     <row r="139" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="13"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="12"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="14"/>
     </row>
     <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="23" t="s">
+      <c r="A140" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B140" s="24"/>
+      <c r="B140" s="11"/>
       <c r="C140" s="9">
         <f>SUM(C95:C139)/5</f>
         <v>88.474000000000004</v>
@@ -4860,6 +4954,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="E29:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="E57:E65"/>
+    <mergeCell ref="A39:A65"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="D48:D56"/>
+    <mergeCell ref="E39:E47"/>
+    <mergeCell ref="E48:E56"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="D76:D84"/>
+    <mergeCell ref="E76:E84"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:A93"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="A95:A139"/>
+    <mergeCell ref="B95:B103"/>
+    <mergeCell ref="C95:C103"/>
+    <mergeCell ref="D95:D103"/>
+    <mergeCell ref="E95:E103"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="C104:C112"/>
+    <mergeCell ref="E122:E130"/>
+    <mergeCell ref="E131:E139"/>
+    <mergeCell ref="E104:E112"/>
+    <mergeCell ref="E113:E121"/>
     <mergeCell ref="A140:B140"/>
     <mergeCell ref="E85:E93"/>
     <mergeCell ref="E67:E75"/>
@@ -4876,58 +5022,6 @@
     <mergeCell ref="C113:C121"/>
     <mergeCell ref="D113:D121"/>
     <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:A139"/>
-    <mergeCell ref="B95:B103"/>
-    <mergeCell ref="C95:C103"/>
-    <mergeCell ref="D95:D103"/>
-    <mergeCell ref="E95:E103"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="C104:C112"/>
-    <mergeCell ref="E122:E130"/>
-    <mergeCell ref="E131:E139"/>
-    <mergeCell ref="E104:E112"/>
-    <mergeCell ref="E113:E121"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="C76:C84"/>
-    <mergeCell ref="D76:D84"/>
-    <mergeCell ref="E76:E84"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:A93"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="E57:E65"/>
-    <mergeCell ref="A39:A65"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="D48:D56"/>
-    <mergeCell ref="E39:E47"/>
-    <mergeCell ref="E48:E56"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E29:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4939,7 +5033,7 @@
   <dimension ref="A1:F275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" zoomScale="54" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+      <selection activeCell="N140" sqref="N140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4952,19 +5046,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="41" t="s">
@@ -4972,2322 +5066,2485 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="38"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="30"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="34"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="30"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="34"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="30"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="34"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="30"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="34"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="30"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="34"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="30"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="34"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="30"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="34"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="30"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="34"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="30"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23">
         <f>100-7</f>
         <v>93</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="30"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="34"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c 